--- a/チケットの検討.xlsx
+++ b/チケットの検討.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\progress_manage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_ftp\vm-centos7\srv\docker\redmine\home\redmine\data\plugins\progress_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67ABB904-0683-42C2-BF0E-6EE807A20C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F074E7-DBF0-4CBB-82B0-B38C4EF9E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="227">
   <si>
     <t>組織図</t>
     <rPh sb="0" eb="3">
@@ -70,19 +71,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>業務課題一覧表</t>
-    <rPh sb="0" eb="4">
-      <t>ギョウムカダイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現行ＩＦ一覧表</t>
     <rPh sb="0" eb="2">
       <t>ゲンコウ</t>
@@ -129,19 +117,6 @@
     <t>画面デモ</t>
     <rPh sb="0" eb="2">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新業務フロー図</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -198,16 +173,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新システム構成図</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現行ジョブフロー図</t>
     <rPh sb="0" eb="2">
       <t>ゲンコウ</t>
@@ -234,29 +199,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新ＤＢ一覧表</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新ＩＦ一覧表</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>03.機能要件</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -281,16 +223,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新テーブル一覧表</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現行区分定義書</t>
     <rPh sb="0" eb="2">
       <t>ゲンコウ</t>
@@ -303,70 +235,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新バッチ一覧表</t>
-    <rPh sb="4" eb="7">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新ジョブフロー図</t>
-    <rPh sb="7" eb="8">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新ジョブスケジュール表</t>
-    <rPh sb="10" eb="11">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新画面一覧表</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新帳票一覧表</t>
-    <rPh sb="1" eb="3">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>イチランヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新画面帳票遷移図</t>
-    <rPh sb="1" eb="3">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チョウヒョウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>センイズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>本番移行スケジュール表</t>
-    <rPh sb="0" eb="4">
-      <t>ホンバンイコウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1525,12 +1393,358 @@
       <t>タンイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（各機能設計書）</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="7">
+      <t>キノウセッケイショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>概算見積書</t>
+    <rPh sb="0" eb="5">
+      <t>ガイサンミツモリショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>詳細見積書</t>
+    <rPh sb="0" eb="5">
+      <t>ショウサイミツモリショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現行業務課題一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ギョウムカダイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>業務フロー図</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム構成図</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＤＢ一覧表</t>
+    <rPh sb="2" eb="5">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル一覧表</t>
+    <rPh sb="4" eb="7">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＩＦ一覧表</t>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッチ一覧表</t>
+    <rPh sb="3" eb="6">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョブフロー図</t>
+    <rPh sb="6" eb="7">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジョブスケジュール表</t>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帳票一覧表</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>イチランヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面帳票遷移図</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョウヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本番移行計画書</t>
+    <rPh sb="0" eb="4">
+      <t>ホンバンイコウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイカクショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福尾</t>
+  </si>
+  <si>
+    <t>新規</t>
+  </si>
+  <si>
+    <t>概算見積書</t>
+  </si>
+  <si>
+    <t>要件定義</t>
+    <rPh sb="0" eb="4">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>販売WEB</t>
+    <rPh sb="0" eb="2">
+      <t>ハンバイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>運用計画書</t>
+  </si>
+  <si>
+    <t>本番移行計画書</t>
+  </si>
+  <si>
+    <t>試験計画表</t>
+  </si>
+  <si>
+    <t>画面デモ</t>
+  </si>
+  <si>
+    <t>画面帳票遷移図</t>
+  </si>
+  <si>
+    <t>帳票一覧表</t>
+  </si>
+  <si>
+    <t>画面一覧表</t>
+  </si>
+  <si>
+    <t>ジョブスケジュール表</t>
+  </si>
+  <si>
+    <t>ジョブフロー図</t>
+  </si>
+  <si>
+    <t>バッチ一覧表</t>
+  </si>
+  <si>
+    <t>IF一覧表</t>
+  </si>
+  <si>
+    <t>テーブル一覧表</t>
+  </si>
+  <si>
+    <t>DB一覧表</t>
+  </si>
+  <si>
+    <t>システム構成図</t>
+  </si>
+  <si>
+    <t>業務フロー図</t>
+  </si>
+  <si>
+    <t>user4</t>
+  </si>
+  <si>
+    <t>statusId 1004</t>
+  </si>
+  <si>
+    <t>subject 1004</t>
+  </si>
+  <si>
+    <t>phase 1004</t>
+  </si>
+  <si>
+    <t>project 1004</t>
+  </si>
+  <si>
+    <t>user3</t>
+  </si>
+  <si>
+    <t>statusId 1003</t>
+  </si>
+  <si>
+    <t>subject 1003</t>
+  </si>
+  <si>
+    <t>phase 1003</t>
+  </si>
+  <si>
+    <t>project 1003</t>
+  </si>
+  <si>
+    <t>user2</t>
+  </si>
+  <si>
+    <t>statusId 1002</t>
+  </si>
+  <si>
+    <t>subject 1002</t>
+  </si>
+  <si>
+    <t>phase 1002</t>
+  </si>
+  <si>
+    <t>project 1002</t>
+  </si>
+  <si>
+    <t>user1</t>
+  </si>
+  <si>
+    <t>statusId 1001</t>
+  </si>
+  <si>
+    <t>subject 1001</t>
+  </si>
+  <si>
+    <t>phase 1001</t>
+  </si>
+  <si>
+    <t>project 1001</t>
+  </si>
+  <si>
+    <t>user0</t>
+  </si>
+  <si>
+    <t>statusId 1000</t>
+  </si>
+  <si>
+    <t>subject 1000</t>
+  </si>
+  <si>
+    <t>phase 1000</t>
+  </si>
+  <si>
+    <t>project 1000</t>
+  </si>
+  <si>
+    <t>日数</t>
+  </si>
+  <si>
+    <t>超過日数</t>
+  </si>
+  <si>
+    <t>実績終了日</t>
+  </si>
+  <si>
+    <t>実績</t>
+  </si>
+  <si>
+    <t>中断日数</t>
+  </si>
+  <si>
+    <t>稼働日数</t>
+  </si>
+  <si>
+    <t>実績開始日</t>
+  </si>
+  <si>
+    <t>累積</t>
+  </si>
+  <si>
+    <t>予定</t>
+  </si>
+  <si>
+    <t>進捗率</t>
+  </si>
+  <si>
+    <t>予定終了日</t>
+  </si>
+  <si>
+    <t>予定開始日</t>
+  </si>
+  <si>
+    <t>担当者</t>
+  </si>
+  <si>
+    <t>ステータス</t>
+  </si>
+  <si>
+    <t>題名</t>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1570,8 +1784,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1895,691 +2112,1368 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="C1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C7" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C30" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C8" t="s">
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C40" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D50" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C10" t="s">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C17" t="s">
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C19" t="s">
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B33" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" t="s">
-        <v>38</v>
-      </c>
-      <c r="D33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C39" t="s">
+      <c r="C53" t="s">
         <v>71</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" t="s">
+        <v>74</v>
+      </c>
+      <c r="C54" t="s">
+        <v>75</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B57" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
+        <v>91</v>
+      </c>
+      <c r="C59" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C40" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B41" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C43" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B44" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C48" t="s">
-        <v>62</v>
-      </c>
-      <c r="D48" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D50" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" t="s">
-        <v>84</v>
-      </c>
-      <c r="D52" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D53" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A54" t="s">
-        <v>86</v>
-      </c>
-      <c r="B54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D54" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B55" t="s">
-        <v>89</v>
-      </c>
-      <c r="C55" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B56" t="s">
-        <v>90</v>
-      </c>
-      <c r="C56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D56" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>97</v>
-      </c>
-      <c r="B57" t="s">
-        <v>98</v>
-      </c>
-      <c r="C57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C58" t="s">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B59" t="s">
+      <c r="C65" t="s">
+        <v>101</v>
+      </c>
+      <c r="D65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C67" t="s">
+        <v>123</v>
+      </c>
+      <c r="D67" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
         <v>104</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>115</v>
+      </c>
+      <c r="D72" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B74" t="s">
         <v>106</v>
       </c>
-      <c r="D59" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B60" t="s">
-        <v>107</v>
-      </c>
-      <c r="C60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C61" t="s">
-        <v>101</v>
-      </c>
-      <c r="D61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C62" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B64" t="s">
+      <c r="C74" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
         <v>108</v>
       </c>
-      <c r="D64" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A65" t="s">
-        <v>113</v>
-      </c>
-      <c r="C65" t="s">
-        <v>114</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="B75" t="s">
+        <v>121</v>
+      </c>
+      <c r="C75" t="s">
+        <v>119</v>
+      </c>
+      <c r="D75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C78" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" t="s">
+        <v>133</v>
+      </c>
+      <c r="D79" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A66" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C80" t="s">
         <v>135</v>
       </c>
-      <c r="D66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C67" t="s">
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="C81" t="s">
         <v>136</v>
       </c>
-      <c r="D67" t="s">
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A68" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" t="s">
-        <v>116</v>
-      </c>
-      <c r="C68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C69" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B70" t="s">
-        <v>117</v>
-      </c>
-      <c r="C70" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C71" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B72" t="s">
-        <v>118</v>
-      </c>
-      <c r="C72" t="s">
-        <v>128</v>
-      </c>
-      <c r="D72" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C73" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B74" t="s">
-        <v>119</v>
-      </c>
-      <c r="C74" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" t="s">
-        <v>134</v>
-      </c>
-      <c r="C75" t="s">
-        <v>132</v>
-      </c>
-      <c r="D75" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
         <v>139</v>
       </c>
-      <c r="B76" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
         <v>141</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C77" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C78" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" t="s">
-        <v>146</v>
-      </c>
-      <c r="D79" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="C80" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="C81" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A82" t="s">
-        <v>147</v>
-      </c>
-      <c r="B82" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B83" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B84" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B85" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B86" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B87" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAB199F-6FF3-418B-91BC-4C68101001B8}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" t="s">
+        <v>221</v>
+      </c>
+      <c r="G1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I1" t="s">
+        <v>218</v>
+      </c>
+      <c r="J1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s">
+        <v>214</v>
+      </c>
+      <c r="N1" t="s">
+        <v>213</v>
+      </c>
+      <c r="O1" t="s">
+        <v>212</v>
+      </c>
+      <c r="P1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="J2" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" t="s">
+        <v>209</v>
+      </c>
+      <c r="O2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G3">
+        <v>44790</v>
+      </c>
+      <c r="H3">
+        <v>44790</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>44791</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>44791</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" t="s">
+        <v>200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G4">
+        <v>44790</v>
+      </c>
+      <c r="H4">
+        <v>44790</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>44791</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>44792</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G5">
+        <v>44790</v>
+      </c>
+      <c r="H5">
+        <v>44791</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>44791</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>44793</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>1003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" t="s">
+        <v>190</v>
+      </c>
+      <c r="F6" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6">
+        <v>44791</v>
+      </c>
+      <c r="H6">
+        <v>44792</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>44791</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>44794</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>1004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7">
+        <v>44792</v>
+      </c>
+      <c r="H7">
+        <v>44794</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>44791</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>44794</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>167</v>
+      </c>
+      <c r="D10" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" t="s">
+        <v>180</v>
+      </c>
+      <c r="E12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" t="s">
+        <v>164</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" t="s">
+        <v>178</v>
+      </c>
+      <c r="E14" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" t="s">
+        <v>177</v>
+      </c>
+      <c r="E15" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" t="s">
+        <v>164</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" t="s">
+        <v>164</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" t="s">
+        <v>164</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" t="s">
+        <v>174</v>
+      </c>
+      <c r="E18" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="E19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>14</v>
+      </c>
+      <c r="B21" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>168</v>
+      </c>
+      <c r="C22" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E22" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" t="s">
+        <v>164</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23" t="s">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/チケットの検討.xlsx
+++ b/チケットの検討.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_ftp\vm-centos7\srv\docker\redmine\home\redmine\data\plugins\progress_manage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\progress_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F074E7-DBF0-4CBB-82B0-B38C4EF9E73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49042000-7F57-49BE-BE8A-87802E647F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="226">
   <si>
     <t>組織図</t>
     <rPh sb="0" eb="3">
@@ -239,24 +239,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>04.試験要件</t>
-    <rPh sb="3" eb="5">
-      <t>シケン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヨウケン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>05.移行要件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>06.運用要件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>試験計画表</t>
     <rPh sb="0" eb="2">
       <t>シケン</t>
@@ -287,16 +269,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>追加するHW/SW/FWも明記</t>
-    <rPh sb="0" eb="2">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>メイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>01.ＤＢ設計</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -828,10 +800,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>01.開発環境</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>開発環境構築手順書</t>
     <rPh sb="0" eb="4">
       <t>カイハツカンキョウ</t>
@@ -900,13 +868,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>03.ＣＩ環境</t>
-    <rPh sb="5" eb="7">
-      <t>カンキョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>99.ＰＧ一式</t>
     <rPh sb="5" eb="7">
       <t>イッシキ</t>
@@ -1173,10 +1134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>01.不具合管理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>結合試験計画書</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -1237,19 +1194,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>01.移行手順書</t>
-    <rPh sb="3" eb="5">
-      <t>イコウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>テジュン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データ移行手順書</t>
     <rPh sb="3" eb="5">
       <t>イコウ</t>
@@ -1736,6 +1680,94 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>システム化課題一覧表</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>システム化範囲の明示とトリアージ</t>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>メイジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体制図</t>
+    <rPh sb="0" eb="2">
+      <t>タイセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現行システムソース一式</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01.開発端末環境構築</t>
+    <rPh sb="5" eb="7">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>03.開発サーバ環境構築</t>
+    <rPh sb="3" eb="5">
+      <t>カイハツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加するHW/SW、採用する言語/FWも明記</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>メイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1745,7 +1777,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1761,21 +1793,99 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="1"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1784,11 +1894,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2105,703 +2236,1986 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B22D816-F7D4-4780-B79D-268D7FFEA744}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.09765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="F2" s="6" t="str">
+        <f>IF(A2="","","mkdir "&amp;A2)</f>
+        <v>mkdir 00.要求分析</v>
+      </c>
+      <c r="G2" s="8" t="str">
+        <f>IF(F2="",G1,A2)</f>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H2" s="6" t="str">
+        <f t="shared" ref="H2:H65" si="0">IF(B2="","",IF(LEFT(B2,1)="（","","mkdir "&amp;G2&amp;"\"&amp;B2))</f>
+        <v>mkdir 00.要求分析\01.現行業務分析</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="F3" s="6" t="str">
+        <f t="shared" ref="F3:F66" si="1">IF(A3="","","mkdir "&amp;A3)</f>
+        <v/>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f t="shared" ref="G3:G66" si="2">IF(F3="",G2,A3)</f>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G4" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="F5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G5" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 00.要求分析\02.現行基盤分析</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G6" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G7" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G8" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="F9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G9" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="F10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G10" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="F11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G11" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G12" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 00.要求分析\03.現行機能分析</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="F13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G13" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="F14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G14" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="F15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G15" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="F16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="F17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="F18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="F19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G19" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="F20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G20" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="F21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G21" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>00.要求分析</v>
+      </c>
+      <c r="H21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="F22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>mkdir 01.要件定義</v>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 01.要件定義\01.業務要件</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D23" s="2"/>
+      <c r="F23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D25" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 01.要件定義\02.基盤要件</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="F26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G26" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C4" t="s">
+      <c r="D27" s="2"/>
+      <c r="F27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="F28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G28" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="F29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G29" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 01.要件定義\03.機能要件</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="F30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C10" t="s">
+      <c r="D31" s="2"/>
+      <c r="F31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G31" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="F32" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G32" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="F33" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G33" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="F34" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G34" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="F35" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G35" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F36" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G36" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 01.要件定義\99.概算見積</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G37" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="F39" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>mkdir 02.外部設計</v>
+      </c>
+      <c r="G40" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 02.外部設計\01.機能設計</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="F41" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G41" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 02.外部設計\02.ＤＢ設計</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C13" t="s">
+      <c r="D42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F42" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G42" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="F43" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G43" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C17" t="s">
+      <c r="D44" s="2"/>
+      <c r="F44" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G44" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 02.外部設計\03.ＩＦ設計</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F45" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G45" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 02.外部設計\04.バッチ設計</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C19" t="s">
+      <c r="D46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G46" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G47" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 02.外部設計\05.画面設計</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B22" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C23" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C25" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C27" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C28" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C31" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>22</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B34" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
+      <c r="D48" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G48" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G49" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 02.外部設計\06.帳票設計</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G50" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 02.外部設計\07.移行設計</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G51" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="F52" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G52" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 02.外部設計\99.詳細見積</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>148</v>
-      </c>
-      <c r="D37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B38" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C39" t="s">
-        <v>58</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="C53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F53" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>mkdir 03.内部設計</v>
+      </c>
+      <c r="G53" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>03.内部設計</v>
+      </c>
+      <c r="H53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 03.内部設計\01.ＤＢ設計</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G54" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>03.内部設計</v>
+      </c>
+      <c r="H54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 03.内部設計\02.バッチ設計</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F55" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G55" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>03.内部設計</v>
+      </c>
+      <c r="H55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 03.内部設計\03.画面設計</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F56" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G56" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>03.内部設計</v>
+      </c>
+      <c r="H56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 03.内部設計\04.帳票設計</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F57" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>mkdir 04.ＰＧ設計</v>
+      </c>
+      <c r="G57" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+      <c r="H57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 04.ＰＧ設計\01.バッチＰＧ設計</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F58" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G58" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+      <c r="H58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 04.ＰＧ設計\02.画面ＰＧ設計</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G59" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+      <c r="H59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 04.ＰＧ設計\03.帳票ＰＧ設計</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="F60" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>mkdir 05.ＰＧ開発</v>
+      </c>
+      <c r="G60" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 05.ＰＧ開発\01.開発端末環境構築</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="F61" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G61" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G62" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 05.ＰＧ開発\02.製造規約</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="F63" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G63" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 05.ＰＧ開発\03.開発サーバ環境構築</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>63</v>
-      </c>
-      <c r="D42" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C48" t="s">
-        <v>49</v>
-      </c>
-      <c r="D48" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B51" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B52" t="s">
-        <v>69</v>
-      </c>
-      <c r="C52" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B53" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>73</v>
-      </c>
-      <c r="B54" t="s">
-        <v>74</v>
-      </c>
-      <c r="C54" t="s">
-        <v>75</v>
-      </c>
-      <c r="D54" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B55" t="s">
-        <v>76</v>
-      </c>
-      <c r="C55" t="s">
-        <v>78</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" t="s">
-        <v>79</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>84</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="D64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F64" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G64" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B59" t="s">
-        <v>91</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D65" s="2"/>
+      <c r="F65" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G65" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D59" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B60" t="s">
+      <c r="D66" s="2"/>
+      <c r="F66" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G66" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H66" s="6" t="str">
+        <f t="shared" ref="H66:H81" si="3">IF(B66="","",IF(LEFT(B66,1)="（","","mkdir "&amp;G66&amp;"\"&amp;B66))</f>
+        <v>mkdir 05.ＰＧ開発\04.技術検証</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F67" s="6" t="str">
+        <f t="shared" ref="F67:F91" si="4">IF(A67="","","mkdir "&amp;A67)</f>
+        <v/>
+      </c>
+      <c r="G67" s="8" t="str">
+        <f t="shared" ref="G67:G91" si="5">IF(F67="",G66,A67)</f>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H67" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mkdir 05.ＰＧ開発\99.ＰＧ一式</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C61" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F68" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>mkdir 06.単体試験</v>
+      </c>
+      <c r="G68" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>06.単体試験</v>
+      </c>
+      <c r="H68" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>mkdir 07.結合試験</v>
+      </c>
+      <c r="G69" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>07.結合試験</v>
+      </c>
+      <c r="H69" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G70" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>07.結合試験</v>
+      </c>
+      <c r="H70" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B63" t="s">
+      <c r="C71" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F71" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>mkdir 08.総合試験</v>
+      </c>
+      <c r="G71" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H71" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mkdir 08.総合試験\01.シナリオテスト</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="F72" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G72" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H72" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C73" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G73" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H73" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mkdir 08.総合試験\02.現新比較テスト</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="F74" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G74" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H74" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B64" t="s">
-        <v>95</v>
-      </c>
-      <c r="D64" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
+      <c r="C75" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F75" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G75" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H75" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mkdir 08.総合試験\03.ストレステスト</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="F76" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G76" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H76" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C65" t="s">
-        <v>101</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="C77" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="F77" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G77" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H77" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v>mkdir 08.総合試験\04.回帰テスト</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F78" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>mkdir 09.受入検査</v>
+      </c>
+      <c r="G78" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>09.受入検査</v>
+      </c>
+      <c r="H78" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="F79" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>mkdir 10.本番移行</v>
+      </c>
+      <c r="G79" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>10.本番移行</v>
+      </c>
+      <c r="H79" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="F80" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G80" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>10.本番移行</v>
+      </c>
+      <c r="H80" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="F81" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G81" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>10.本番移行</v>
+      </c>
+      <c r="H81" s="6" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>102</v>
-      </c>
-      <c r="C66" t="s">
-        <v>122</v>
-      </c>
-      <c r="D66" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C67" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="C82" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>107</v>
-      </c>
-      <c r="B68" t="s">
-        <v>103</v>
-      </c>
-      <c r="C68" t="s">
-        <v>109</v>
-      </c>
-      <c r="D68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C69" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B70" t="s">
-        <v>104</v>
-      </c>
-      <c r="C70" t="s">
-        <v>112</v>
-      </c>
-      <c r="D70" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C71" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B72" t="s">
-        <v>105</v>
-      </c>
-      <c r="C72" t="s">
-        <v>115</v>
-      </c>
-      <c r="D72" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C73" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
-        <v>106</v>
-      </c>
-      <c r="C74" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" t="s">
-        <v>121</v>
-      </c>
-      <c r="C75" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
+      <c r="D82" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F82" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>mkdir 11.運用保守</v>
+      </c>
+      <c r="G82" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>11.運用保守</v>
+      </c>
+      <c r="H82" s="6" t="str">
+        <f>IF(B82="","",IF(LEFT(B82,1)="（","","mkdir "&amp;G82&amp;"\"&amp;B82))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="F83" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G83" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>11.運用保守</v>
+      </c>
+      <c r="H83" s="6" t="str">
+        <f t="shared" ref="H83:H91" si="6">IF(B83="","",IF(LEFT(B83,1)="（","","mkdir "&amp;G83&amp;"\"&amp;B83))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="F84" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G84" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>11.運用保守</v>
+      </c>
+      <c r="H84" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B76" t="s">
-        <v>128</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B85" s="2" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C77" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C78" t="s">
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="F85" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v>mkdir 99.案件管理</v>
+      </c>
+      <c r="G85" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>99.案件管理</v>
+      </c>
+      <c r="H85" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>mkdir 99.案件管理\01.議事管理</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>127</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="F86" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G86" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>99.案件管理</v>
+      </c>
+      <c r="H86" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>mkdir 99.案件管理\02.受領物管理</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="F87" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G87" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>99.案件管理</v>
+      </c>
+      <c r="H87" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>mkdir 99.案件管理\03.課題管理</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C80" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="F88" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G88" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>99.案件管理</v>
+      </c>
+      <c r="H88" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>mkdir 99.案件管理\04.予実管理</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="F89" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G89" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>99.案件管理</v>
+      </c>
+      <c r="H89" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>mkdir 99.案件管理\05.要員管理</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="C81" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>134</v>
-      </c>
-      <c r="B82" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B83" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B84" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B85" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B86" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="B87" t="s">
-        <v>143</v>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="F90" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G90" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>99.案件管理</v>
+      </c>
+      <c r="H90" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>mkdir 99.案件管理\06.提出物管理</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="F91" s="6" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="G91" s="8" t="str">
+        <f t="shared" si="5"/>
+        <v>99.案件管理</v>
+      </c>
+      <c r="H91" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -2817,106 +4231,106 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.69921875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="F1" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="H1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="J1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="K1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="M1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="N1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="O1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="P1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="Q1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="J2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="O2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D3" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G3">
         <v>44790</v>
@@ -2943,24 +4357,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G4">
         <v>44790</v>
@@ -2987,24 +4401,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G5">
         <v>44790</v>
@@ -3031,24 +4445,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G6">
         <v>44791</v>
@@ -3075,24 +4489,24 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G7">
         <v>44792</v>
@@ -3119,354 +4533,354 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F12" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>9</v>
       </c>
       <c r="B16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16" t="s">
         <v>168</v>
       </c>
-      <c r="C16" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" t="s">
-        <v>176</v>
-      </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17" t="s">
         <v>167</v>
       </c>
-      <c r="D17" t="s">
-        <v>175</v>
-      </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F17" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D18" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F19" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D20" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F20" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D21" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F22" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D23" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F23" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F24" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>

--- a/チケットの検討.xlsx
+++ b/チケットの検討.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\progress_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49042000-7F57-49BE-BE8A-87802E647F76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D30579C-24A2-4B96-9950-AC05C2126556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="225">
   <si>
     <t>組織図</t>
     <rPh sb="0" eb="3">
@@ -1308,10 +1308,6 @@
     <rPh sb="3" eb="5">
       <t>テイシュツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フェーズ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1802,7 +1798,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1821,8 +1817,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1888,13 +1890,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1920,6 +1946,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2256,23 +2291,23 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -2293,8 +2328,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2313,10 +2348,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="6" t="str">
@@ -2333,8 +2368,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -2355,8 +2390,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
@@ -2375,8 +2410,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
@@ -2395,8 +2430,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
@@ -2415,8 +2450,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
@@ -2435,8 +2470,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>50</v>
       </c>
@@ -2455,8 +2490,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2475,8 +2510,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -2497,8 +2532,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
@@ -2517,8 +2552,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2537,8 +2572,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
@@ -2557,8 +2592,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
@@ -2577,8 +2612,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
@@ -2597,10 +2632,10 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="6" t="str">
@@ -2617,8 +2652,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
@@ -2637,8 +2672,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
         <v>52</v>
       </c>
@@ -2657,8 +2692,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="2" t="s">
         <v>53</v>
       </c>
@@ -2677,14 +2712,14 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D22" s="2"/>
       <c r="F22" s="6" t="str">
@@ -2701,10 +2736,10 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2"/>
       <c r="F23" s="6" t="str">
@@ -2721,14 +2756,14 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -2743,34 +2778,34 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>mkdir 01.要件定義\02.基盤要件</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F25" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>01.要件定義</v>
-      </c>
-      <c r="H25" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>mkdir 01.要件定義\02.基盤要件</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D26" s="2"/>
       <c r="F26" s="6" t="str">
@@ -2787,10 +2822,10 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
       <c r="C27" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D27" s="2"/>
       <c r="F27" s="6" t="str">
@@ -2807,10 +2842,10 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D28" s="2"/>
       <c r="F28" s="6" t="str">
@@ -2827,12 +2862,12 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="9"/>
+      <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D29" s="2"/>
       <c r="F29" s="6" t="str">
@@ -2849,10 +2884,10 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D30" s="2"/>
       <c r="F30" s="6" t="str">
@@ -2869,10 +2904,10 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="9"/>
       <c r="C31" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D31" s="2"/>
       <c r="F31" s="6" t="str">
@@ -2889,10 +2924,10 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
       <c r="C32" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D32" s="2"/>
       <c r="F32" s="6" t="str">
@@ -2909,10 +2944,10 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
       <c r="C33" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D33" s="2"/>
       <c r="F33" s="6" t="str">
@@ -2929,10 +2964,10 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D34" s="2"/>
       <c r="F34" s="6" t="str">
@@ -2949,8 +2984,8 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
@@ -2969,8 +3004,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="9"/>
+      <c r="B36" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -2993,10 +3028,10 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
       <c r="C37" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>32</v>
@@ -3015,8 +3050,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="2" t="s">
         <v>24</v>
       </c>
@@ -3037,10 +3072,10 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
       <c r="C39" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D39" s="2"/>
       <c r="F39" s="6" t="str">
@@ -3057,14 +3092,14 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>30</v>
@@ -3083,8 +3118,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="11" t="s">
         <v>29</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -3105,8 +3140,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
       <c r="C42" s="2" t="s">
         <v>54</v>
       </c>
@@ -3127,8 +3162,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
@@ -3147,7 +3182,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="2"/>
+      <c r="A44" s="9"/>
       <c r="B44" s="2" t="s">
         <v>34</v>
       </c>
@@ -3169,8 +3204,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="9"/>
+      <c r="B45" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -3193,8 +3228,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
       <c r="C46" s="2" t="s">
         <v>56</v>
       </c>
@@ -3215,8 +3250,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -3239,8 +3274,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="2" t="s">
         <v>57</v>
       </c>
@@ -3261,7 +3296,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="2"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="2" t="s">
         <v>40</v>
       </c>
@@ -3285,8 +3320,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="9"/>
+      <c r="B50" s="11" t="s">
         <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -3309,8 +3344,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="10"/>
       <c r="C51" s="2" t="s">
         <v>45</v>
       </c>
@@ -3331,12 +3366,12 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="2"/>
+      <c r="A52" s="10"/>
       <c r="B52" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D52" s="2"/>
       <c r="F52" s="6" t="str">
@@ -3353,7 +3388,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3379,7 +3414,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="2"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="2" t="s">
         <v>63</v>
       </c>
@@ -3403,7 +3438,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="2"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="2" t="s">
         <v>65</v>
       </c>
@@ -3427,7 +3462,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="2"/>
+      <c r="A56" s="10"/>
       <c r="B56" s="2" t="s">
         <v>66</v>
       </c>
@@ -3451,7 +3486,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="11" t="s">
         <v>69</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3477,7 +3512,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="2"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="2" t="s">
         <v>72</v>
       </c>
@@ -3501,7 +3536,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="2"/>
+      <c r="A59" s="10"/>
       <c r="B59" s="2" t="s">
         <v>73</v>
       </c>
@@ -3525,11 +3560,11 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>223</v>
+      <c r="B60" s="11" t="s">
+        <v>222</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>81</v>
@@ -3549,8 +3584,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="10"/>
       <c r="C61" s="2" t="s">
         <v>82</v>
       </c>
@@ -3569,7 +3604,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="2"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="2" t="s">
         <v>86</v>
       </c>
@@ -3593,9 +3628,9 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2" t="s">
-        <v>224</v>
+      <c r="A63" s="9"/>
+      <c r="B63" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>84</v>
@@ -3615,8 +3650,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="2" t="s">
         <v>83</v>
       </c>
@@ -3637,8 +3672,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="10"/>
       <c r="C65" s="2" t="s">
         <v>85</v>
       </c>
@@ -3657,7 +3692,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="2"/>
+      <c r="A66" s="9"/>
       <c r="B66" s="2" t="s">
         <v>92</v>
       </c>
@@ -3679,7 +3714,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="2"/>
+      <c r="A67" s="10"/>
       <c r="B67" s="2" t="s">
         <v>89</v>
       </c>
@@ -3725,7 +3760,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B69" s="2"/>
@@ -3749,7 +3784,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="2"/>
+      <c r="A70" s="10"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
         <v>116</v>
@@ -3771,10 +3806,10 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C71" s="2" t="s">
@@ -3797,8 +3832,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="10"/>
       <c r="C72" s="2" t="s">
         <v>105</v>
       </c>
@@ -3817,8 +3852,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="9"/>
+      <c r="B73" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C73" s="2" t="s">
@@ -3841,8 +3876,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
       <c r="C74" s="2" t="s">
         <v>108</v>
       </c>
@@ -3861,8 +3896,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="9"/>
+      <c r="B75" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C75" s="2" t="s">
@@ -3885,8 +3920,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="10"/>
       <c r="C76" s="2" t="s">
         <v>111</v>
       </c>
@@ -3905,7 +3940,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A77" s="2"/>
+      <c r="A77" s="10"/>
       <c r="B77" s="2" t="s">
         <v>100</v>
       </c>
@@ -3951,7 +3986,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B79" s="2"/>
@@ -3973,7 +4008,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" s="2"/>
+      <c r="A80" s="9"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
         <v>121</v>
@@ -3993,7 +4028,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" s="2"/>
+      <c r="A81" s="10"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
         <v>123</v>
@@ -4013,10 +4048,10 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="11" t="s">
         <v>124</v>
       </c>
       <c r="C82" s="2" t="s">
@@ -4039,8 +4074,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
       <c r="C83" s="2" t="s">
         <v>127</v>
       </c>
@@ -4059,8 +4094,8 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
       <c r="C84" s="2" t="s">
         <v>128</v>
       </c>
@@ -4079,7 +4114,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B85" s="2" t="s">
@@ -4101,7 +4136,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A86" s="2"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="2" t="s">
         <v>131</v>
       </c>
@@ -4121,7 +4156,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A87" s="2"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="2" t="s">
         <v>132</v>
       </c>
@@ -4141,7 +4176,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A88" s="2"/>
+      <c r="A88" s="9"/>
       <c r="B88" s="2" t="s">
         <v>133</v>
       </c>
@@ -4161,7 +4196,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" s="2"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="2" t="s">
         <v>134</v>
       </c>
@@ -4181,7 +4216,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A90" s="2"/>
+      <c r="A90" s="10"/>
       <c r="B90" s="2" t="s">
         <v>135</v>
       </c>
@@ -4251,66 +4286,66 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="L1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="J2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
@@ -4318,19 +4353,19 @@
         <v>1000</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G3">
         <v>44790</v>
@@ -4362,19 +4397,19 @@
         <v>1001</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G4">
         <v>44790</v>
@@ -4406,19 +4441,19 @@
         <v>1002</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G5">
         <v>44790</v>
@@ -4450,19 +4485,19 @@
         <v>1003</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6">
         <v>44791</v>
@@ -4494,19 +4529,19 @@
         <v>1004</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G7">
         <v>44792</v>
@@ -4538,19 +4573,19 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4560,19 +4595,19 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -4582,19 +4617,19 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
@@ -4604,19 +4639,19 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
@@ -4626,19 +4661,19 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4648,19 +4683,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
@@ -4670,19 +4705,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -4692,19 +4727,19 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
@@ -4714,19 +4749,19 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -4736,19 +4771,19 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -4758,19 +4793,19 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F19" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -4780,19 +4815,19 @@
         <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
@@ -4802,19 +4837,19 @@
         <v>14</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
@@ -4824,19 +4859,19 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -4846,19 +4881,19 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" t="s">
         <v>160</v>
       </c>
-      <c r="C23" t="s">
-        <v>159</v>
-      </c>
-      <c r="D23" t="s">
-        <v>161</v>
-      </c>
       <c r="E23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
@@ -4868,19 +4903,19 @@
         <v>17</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>

--- a/チケットの検討.xlsx
+++ b/チケットの検討.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_ftp\vm-centos7\srv\docker\redmine\home\redmine\data\plugins\progress_manage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\progress_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C00E10-1891-4DF8-9D31-79ADDC3E6EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78252715-50C6-4F63-B64B-33760C9D239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="作業単位一覧表" sheetId="1" r:id="rId1"/>
+    <sheet name="チケット候補" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="224">
   <si>
     <t>組織図</t>
     <rPh sb="0" eb="3">
@@ -1047,25 +1047,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>リリース手順書</t>
-    <rPh sb="4" eb="7">
-      <t>テジュンショ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>99.案件管理</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>投入データ</t>
-    <rPh sb="0" eb="2">
-      <t>トウニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リリースモジュール</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1267,16 +1249,6 @@
     <t>新規</t>
   </si>
   <si>
-    <t>概算見積書</t>
-  </si>
-  <si>
-    <t>要件定義</t>
-    <rPh sb="0" eb="4">
-      <t>ヨウケンテイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>販売WEB</t>
     <rPh sb="0" eb="2">
       <t>ハンバイ</t>
@@ -1284,162 +1256,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>運用計画書</t>
-  </si>
-  <si>
-    <t>本番移行計画書</t>
-  </si>
-  <si>
-    <t>試験計画表</t>
-  </si>
-  <si>
-    <t>画面デモ</t>
-  </si>
-  <si>
-    <t>画面帳票遷移図</t>
-  </si>
-  <si>
-    <t>帳票一覧表</t>
-  </si>
-  <si>
-    <t>画面一覧表</t>
-  </si>
-  <si>
-    <t>ジョブスケジュール表</t>
-  </si>
-  <si>
-    <t>ジョブフロー図</t>
-  </si>
-  <si>
-    <t>バッチ一覧表</t>
-  </si>
-  <si>
-    <t>IF一覧表</t>
-  </si>
-  <si>
-    <t>テーブル一覧表</t>
-  </si>
-  <si>
-    <t>DB一覧表</t>
-  </si>
-  <si>
-    <t>システム構成図</t>
-  </si>
-  <si>
-    <t>業務フロー図</t>
-  </si>
-  <si>
-    <t>user4</t>
-  </si>
-  <si>
-    <t>statusId 1004</t>
-  </si>
-  <si>
-    <t>subject 1004</t>
-  </si>
-  <si>
-    <t>phase 1004</t>
-  </si>
-  <si>
-    <t>project 1004</t>
-  </si>
-  <si>
-    <t>user3</t>
-  </si>
-  <si>
-    <t>statusId 1003</t>
-  </si>
-  <si>
-    <t>subject 1003</t>
-  </si>
-  <si>
-    <t>phase 1003</t>
-  </si>
-  <si>
-    <t>project 1003</t>
-  </si>
-  <si>
-    <t>user2</t>
-  </si>
-  <si>
-    <t>statusId 1002</t>
-  </si>
-  <si>
-    <t>subject 1002</t>
-  </si>
-  <si>
-    <t>phase 1002</t>
-  </si>
-  <si>
-    <t>project 1002</t>
-  </si>
-  <si>
-    <t>user1</t>
-  </si>
-  <si>
-    <t>statusId 1001</t>
-  </si>
-  <si>
-    <t>subject 1001</t>
-  </si>
-  <si>
-    <t>phase 1001</t>
-  </si>
-  <si>
-    <t>project 1001</t>
-  </si>
-  <si>
-    <t>user0</t>
-  </si>
-  <si>
-    <t>statusId 1000</t>
-  </si>
-  <si>
-    <t>subject 1000</t>
-  </si>
-  <si>
-    <t>phase 1000</t>
-  </si>
-  <si>
-    <t>project 1000</t>
-  </si>
-  <si>
-    <t>日数</t>
-  </si>
-  <si>
-    <t>超過日数</t>
-  </si>
-  <si>
-    <t>実績終了日</t>
-  </si>
-  <si>
-    <t>実績</t>
-  </si>
-  <si>
-    <t>中断日数</t>
-  </si>
-  <si>
-    <t>稼働日数</t>
-  </si>
-  <si>
-    <t>実績開始日</t>
-  </si>
-  <si>
-    <t>累積</t>
-  </si>
-  <si>
-    <t>予定</t>
-  </si>
-  <si>
-    <t>進捗率</t>
-  </si>
-  <si>
-    <t>予定終了日</t>
-  </si>
-  <si>
-    <t>予定開始日</t>
-  </si>
-  <si>
     <t>担当者</t>
   </si>
   <si>
@@ -2351,6 +2167,41 @@
     <rPh sb="3" eb="5">
       <t>シヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01.要件定義</t>
+    <rPh sb="3" eb="7">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02.外部設計</t>
+    <rPh sb="3" eb="5">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（リリース手順書）</t>
+    <rPh sb="5" eb="8">
+      <t>テジュンショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（投入データ）</t>
+    <rPh sb="1" eb="3">
+      <t>トウニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（リリースモジュール）</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2904,36 +2755,36 @@
   <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.09765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -2944,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>IF(A2="","","mkdir "&amp;A2)</f>
@@ -2959,14 +2810,14 @@
         <v>mkdir 00.要求分析\01.現行業務分析</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="F3" s="6" t="str">
         <f t="shared" ref="F3:F66" si="1">IF(A3="","","mkdir "&amp;A3)</f>
@@ -2981,14 +2832,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3003,7 +2854,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="11" t="s">
         <v>10</v>
@@ -3012,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="F5" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3027,14 +2878,14 @@
         <v>mkdir 00.要求分析\02.現行基盤分析</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3049,14 +2900,14 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>220</v>
+        <v>163</v>
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3071,14 +2922,14 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>221</v>
+        <v>164</v>
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3093,14 +2944,14 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>222</v>
+        <v>165</v>
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3115,14 +2966,14 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>223</v>
+        <v>166</v>
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3137,14 +2988,14 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>224</v>
+        <v>167</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3159,7 +3010,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
@@ -3168,7 +3019,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>226</v>
+        <v>169</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3183,14 +3034,14 @@
         <v>mkdir 00.要求分析\03.現行機能分析</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3205,14 +3056,14 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3227,14 +3078,14 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3249,14 +3100,14 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3271,14 +3122,14 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3293,14 +3144,14 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3315,14 +3166,14 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3337,14 +3188,14 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3359,14 +3210,14 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>225</v>
+        <v>168</v>
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3381,7 +3232,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
@@ -3389,10 +3240,10 @@
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>227</v>
+        <v>170</v>
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3407,14 +3258,14 @@
         <v>mkdir 01.要件定義\01.業務要件</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="2" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>201</v>
+        <v>144</v>
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3429,14 +3280,14 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3451,16 +3302,16 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>205</v>
+        <v>148</v>
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3475,14 +3326,14 @@
         <v>mkdir 01.要件定義\02.基盤要件</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>228</v>
+        <v>171</v>
       </c>
       <c r="F26" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3497,14 +3348,14 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>238</v>
+        <v>181</v>
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3519,14 +3370,14 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3541,16 +3392,16 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="9"/>
       <c r="B29" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3565,14 +3416,14 @@
         <v>mkdir 01.要件定義\03.機能要件</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3587,14 +3438,14 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3609,14 +3460,14 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="F32" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3631,14 +3482,14 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3653,14 +3504,14 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3675,14 +3526,14 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3697,7 +3548,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
         <v>78</v>
@@ -3706,7 +3557,7 @@
         <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3721,13 +3572,13 @@
         <v>mkdir 01.要件定義\04.技術検証</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="9"/>
       <c r="B37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>206</v>
+        <v>149</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>29</v>
@@ -3745,14 +3596,14 @@
         <v>mkdir 01.要件定義\99.概算見積</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="2" t="s">
-        <v>207</v>
+        <v>150</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>209</v>
+        <v>152</v>
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3767,11 +3618,11 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
-        <v>208</v>
+        <v>151</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>30</v>
@@ -3789,14 +3640,14 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="2" t="s">
-        <v>211</v>
+        <v>154</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
       <c r="F40" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3811,14 +3662,14 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3833,7 +3684,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>23</v>
       </c>
@@ -3841,7 +3692,7 @@
         <v>26</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>28</v>
@@ -3859,16 +3710,16 @@
         <v>mkdir 02.外部設計\01.機能設計</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="9"/>
       <c r="B43" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>243</v>
+        <v>186</v>
       </c>
       <c r="F43" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3883,14 +3734,14 @@
         <v>mkdir 02.外部設計\02.ＤＢ設計</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3905,14 +3756,14 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>244</v>
+        <v>187</v>
       </c>
       <c r="F45" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3927,14 +3778,14 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>245</v>
+        <v>188</v>
       </c>
       <c r="F46" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3949,16 +3800,16 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="9"/>
       <c r="B47" s="11" t="s">
         <v>31</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="F47" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3973,14 +3824,14 @@
         <v>mkdir 02.外部設計\03.ＩＦ設計</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
       <c r="F48" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3995,7 +3846,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="9"/>
       <c r="B49" s="11" t="s">
         <v>32</v>
@@ -4004,7 +3855,7 @@
         <v>50</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>246</v>
+        <v>189</v>
       </c>
       <c r="F49" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4019,14 +3870,14 @@
         <v>mkdir 02.外部設計\04.バッチ設計</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>229</v>
+        <v>172</v>
       </c>
       <c r="F50" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4041,14 +3892,14 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="12" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>230</v>
+        <v>173</v>
       </c>
       <c r="F51" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4063,14 +3914,14 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>231</v>
+        <v>174</v>
       </c>
       <c r="F52" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4085,14 +3936,14 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="F53" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4107,7 +3958,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="9"/>
       <c r="B54" s="11" t="s">
         <v>33</v>
@@ -4116,7 +3967,7 @@
         <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>248</v>
+        <v>191</v>
       </c>
       <c r="F54" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4131,14 +3982,14 @@
         <v>mkdir 02.外部設計\05.画面設計</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="F55" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4153,14 +4004,14 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>233</v>
+        <v>176</v>
       </c>
       <c r="F56" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4175,14 +4026,14 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>249</v>
+        <v>192</v>
       </c>
       <c r="F57" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4197,16 +4048,16 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="9"/>
       <c r="B58" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>234</v>
+        <v>177</v>
       </c>
       <c r="F58" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4221,14 +4072,14 @@
         <v>mkdir 02.外部設計\06.帳票設計</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>250</v>
+        <v>193</v>
       </c>
       <c r="F59" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4243,16 +4094,16 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="9"/>
       <c r="B60" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="F60" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4267,14 +4118,14 @@
         <v>mkdir 02.外部設計\07.移行設計</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="14" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>254</v>
+        <v>197</v>
       </c>
       <c r="F61" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4289,14 +4140,14 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="14" t="s">
-        <v>253</v>
+        <v>196</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>255</v>
+        <v>198</v>
       </c>
       <c r="F62" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4311,16 +4162,16 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="10"/>
       <c r="B63" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>241</v>
+        <v>184</v>
       </c>
       <c r="F63" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4335,7 +4186,7 @@
         <v>mkdir 02.外部設計\99.詳細見積</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="11" t="s">
         <v>39</v>
       </c>
@@ -4361,7 +4212,7 @@
         <v>mkdir 03.内部設計\01.ＤＢ設計</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="9"/>
       <c r="B65" s="2" t="s">
         <v>53</v>
@@ -4385,7 +4236,7 @@
         <v>mkdir 03.内部設計\02.バッチ設計</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="9"/>
       <c r="B66" s="2" t="s">
         <v>54</v>
@@ -4409,7 +4260,7 @@
         <v>mkdir 03.内部設計\03.画面設計</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="10"/>
       <c r="B67" s="2" t="s">
         <v>55</v>
@@ -4433,16 +4284,16 @@
         <v>mkdir 03.内部設計\04.帳票設計</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>264</v>
+        <v>207</v>
       </c>
       <c r="F68" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4457,7 +4308,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="9"/>
       <c r="B69" s="2" t="s">
         <v>59</v>
@@ -4481,7 +4332,7 @@
         <v>mkdir 04.ＰＧ設計\01.バッチＰＧ設計</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="9"/>
       <c r="B70" s="2" t="s">
         <v>61</v>
@@ -4505,7 +4356,7 @@
         <v>mkdir 04.ＰＧ設計\02.画面ＰＧ設計</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="10"/>
       <c r="B71" s="2" t="s">
         <v>62</v>
@@ -4529,18 +4380,18 @@
         <v>mkdir 04.ＰＧ設計\03.帳票ＰＧ設計</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>203</v>
+        <v>146</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="F72" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4555,14 +4406,14 @@
         <v>mkdir 05.ＰＧ開発\01.開発端末環境構築</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>266</v>
+        <v>209</v>
       </c>
       <c r="F73" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4577,7 +4428,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="9"/>
       <c r="B74" s="2" t="s">
         <v>73</v>
@@ -4586,7 +4437,7 @@
         <v>74</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>267</v>
+        <v>210</v>
       </c>
       <c r="F74" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4601,16 +4452,16 @@
         <v>mkdir 05.ＰＧ開発\02.製造規約</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="9"/>
       <c r="B75" s="11" t="s">
-        <v>204</v>
+        <v>147</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="F75" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4625,7 +4476,7 @@
         <v>mkdir 05.ＰＧ開発\03.開発サーバ環境構築</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="2" t="s">
@@ -4647,14 +4498,14 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>270</v>
+        <v>213</v>
       </c>
       <c r="F77" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4669,16 +4520,16 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="9"/>
       <c r="B78" s="2" t="s">
-        <v>272</v>
+        <v>215</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>273</v>
+        <v>216</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="F78" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4693,7 +4544,7 @@
         <v>mkdir 05.ＰＧ開発\04.技術検討</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="10"/>
       <c r="B79" s="2" t="s">
         <v>75</v>
@@ -4715,7 +4566,7 @@
         <v>mkdir 05.ＰＧ開発\99.ＰＧ一式</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -4739,7 +4590,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="11" t="s">
         <v>82</v>
       </c>
@@ -4763,7 +4614,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="2" t="s">
@@ -4785,18 +4636,18 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>260</v>
+        <v>203</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>261</v>
+        <v>204</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F83" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4811,14 +4662,14 @@
         <v>mkdir 08.総合試験\00.移行リハ</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="14" t="s">
-        <v>262</v>
+        <v>205</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F84" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4833,14 +4684,14 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="14" t="s">
-        <v>263</v>
+        <v>206</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F85" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4855,7 +4706,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="9"/>
       <c r="B86" s="11" t="s">
         <v>83</v>
@@ -4879,14 +4730,14 @@
         <v>mkdir 08.総合試験\01.シナリオテスト</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="F87" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4901,10 +4752,10 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="9"/>
       <c r="B88" s="11" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>93</v>
@@ -4925,14 +4776,14 @@
         <v>mkdir 08.総合試験\02.ストレステスト</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="F89" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4947,10 +4798,10 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="9"/>
       <c r="B90" s="11" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>90</v>
@@ -4971,14 +4822,14 @@
         <v>mkdir 08.総合試験\03.現新比較テスト</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="F91" s="6" t="str">
         <f t="shared" si="4"/>
@@ -4993,7 +4844,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="10"/>
       <c r="B92" s="2" t="s">
         <v>84</v>
@@ -5002,7 +4853,7 @@
         <v>96</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>275</v>
+        <v>218</v>
       </c>
       <c r="F92" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5017,7 +4868,7 @@
         <v>mkdir 08.総合試験\04.回帰テスト</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
@@ -5041,7 +4892,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="11" t="s">
         <v>103</v>
       </c>
@@ -5050,7 +4901,7 @@
         <v>106</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F94" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5065,14 +4916,14 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F95" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5087,14 +4938,14 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="F96" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5109,7 +4960,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="11" t="s">
         <v>104</v>
       </c>
@@ -5117,10 +4968,10 @@
         <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>109</v>
+        <v>221</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>257</v>
+        <v>200</v>
       </c>
       <c r="F97" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5135,14 +4986,14 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="2" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>259</v>
+        <v>202</v>
       </c>
       <c r="F98" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5157,14 +5008,14 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="2" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>258</v>
+        <v>201</v>
       </c>
       <c r="F99" s="6" t="str">
         <f t="shared" si="4"/>
@@ -5179,12 +5030,12 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -5201,10 +5052,10 @@
         <v>mkdir 99.案件管理\01.議事管理</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="9"/>
       <c r="B101" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -5221,10 +5072,10 @@
         <v>mkdir 99.案件管理\02.受領物管理</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="9"/>
       <c r="B102" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -5241,10 +5092,10 @@
         <v>mkdir 99.案件管理\03.課題管理</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="9"/>
       <c r="B103" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -5261,10 +5112,10 @@
         <v>mkdir 99.案件管理\04.予実管理</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="9"/>
       <c r="B104" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -5281,10 +5132,10 @@
         <v>mkdir 99.案件管理\05.要員管理</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="10"/>
       <c r="B105" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -5301,7 +5152,7 @@
         <v>mkdir 99.案件管理\06.提出物管理</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -5328,663 +5179,879 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAB199F-6FF3-418B-91BC-4C68101001B8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>140</v>
       </c>
       <c r="D1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>219</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" t="s">
+        <v>219</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E9" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>219</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" t="s">
+        <v>135</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>219</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" t="s">
+        <v>219</v>
+      </c>
+      <c r="D18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" t="s">
+        <v>135</v>
+      </c>
+      <c r="F18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" t="s">
+        <v>135</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D20" t="s">
+        <v>154</v>
+      </c>
+      <c r="E20" t="s">
+        <v>135</v>
+      </c>
+      <c r="F20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>136</v>
+      </c>
+      <c r="C22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>220</v>
+      </c>
+      <c r="D23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E23" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>220</v>
+      </c>
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26" t="s">
+        <v>220</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>220</v>
+      </c>
+      <c r="D29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="F29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>220</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>220</v>
+      </c>
+      <c r="D33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" t="s">
+        <v>135</v>
+      </c>
+      <c r="F33" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" t="s">
+        <v>220</v>
+      </c>
+      <c r="D34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>220</v>
+      </c>
+      <c r="D35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>135</v>
+      </c>
+      <c r="F36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" t="s">
+        <v>220</v>
+      </c>
+      <c r="D37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" t="s">
+        <v>220</v>
+      </c>
+      <c r="D38" t="s">
+        <v>132</v>
+      </c>
+      <c r="E38" t="s">
+        <v>135</v>
+      </c>
+      <c r="F38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" t="s">
+        <v>220</v>
+      </c>
+      <c r="D39" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" t="s">
+        <v>135</v>
+      </c>
+      <c r="F39" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" t="s">
+        <v>135</v>
+      </c>
+      <c r="F41" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D42" t="s">
         <v>196</v>
       </c>
-      <c r="E1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F1" t="s">
-        <v>194</v>
-      </c>
-      <c r="G1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" t="s">
-        <v>191</v>
-      </c>
-      <c r="J1" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" t="s">
-        <v>189</v>
-      </c>
-      <c r="L1" t="s">
-        <v>188</v>
-      </c>
-      <c r="M1" t="s">
-        <v>187</v>
-      </c>
-      <c r="N1" t="s">
-        <v>186</v>
-      </c>
-      <c r="O1" t="s">
-        <v>185</v>
-      </c>
-      <c r="P1" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="J2" t="s">
-        <v>182</v>
-      </c>
-      <c r="K2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E3" t="s">
-        <v>178</v>
-      </c>
-      <c r="F3" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3">
-        <v>44790</v>
-      </c>
-      <c r="H3">
-        <v>44790</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>44791</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>44791</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" t="s">
-        <v>174</v>
-      </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4">
-        <v>44790</v>
-      </c>
-      <c r="H4">
-        <v>44790</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>44791</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>44792</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>171</v>
-      </c>
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G5">
-        <v>44790</v>
-      </c>
-      <c r="H5">
-        <v>44791</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>44791</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>44793</v>
-      </c>
-      <c r="Q5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>1003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>166</v>
-      </c>
-      <c r="C6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" t="s">
-        <v>162</v>
-      </c>
-      <c r="G6">
-        <v>44791</v>
-      </c>
-      <c r="H6">
-        <v>44792</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>44791</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>44794</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>1004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" t="s">
-        <v>160</v>
-      </c>
-      <c r="D7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" t="s">
-        <v>158</v>
-      </c>
-      <c r="F7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G7">
-        <v>44792</v>
-      </c>
-      <c r="H7">
-        <v>44794</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>44791</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>44794</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" t="s">
-        <v>140</v>
-      </c>
-      <c r="D9" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" t="s">
-        <v>138</v>
-      </c>
-      <c r="F9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
-      <c r="C10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>4</v>
-      </c>
-      <c r="B11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F11" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
-        <v>153</v>
-      </c>
-      <c r="E12" t="s">
-        <v>138</v>
-      </c>
-      <c r="F12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>6</v>
-      </c>
-      <c r="B13" t="s">
-        <v>141</v>
-      </c>
-      <c r="C13" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" t="s">
-        <v>138</v>
-      </c>
-      <c r="F14" t="s">
-        <v>137</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C15" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" t="s">
-        <v>150</v>
-      </c>
-      <c r="E15" t="s">
-        <v>138</v>
-      </c>
-      <c r="F15" t="s">
-        <v>137</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>9</v>
-      </c>
-      <c r="B16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" t="s">
-        <v>149</v>
-      </c>
-      <c r="E16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E17" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>11</v>
-      </c>
-      <c r="B18" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" t="s">
-        <v>147</v>
-      </c>
-      <c r="E18" t="s">
-        <v>138</v>
-      </c>
-      <c r="F18" t="s">
-        <v>137</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C19" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" t="s">
-        <v>137</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C20" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" t="s">
-        <v>145</v>
-      </c>
-      <c r="E20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>14</v>
-      </c>
-      <c r="B21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D21" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" t="s">
-        <v>137</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>15</v>
-      </c>
-      <c r="B22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" t="s">
-        <v>143</v>
-      </c>
-      <c r="E22" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" t="s">
-        <v>137</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>16</v>
-      </c>
-      <c r="B23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" t="s">
-        <v>137</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>141</v>
-      </c>
-      <c r="C24" t="s">
-        <v>140</v>
-      </c>
-      <c r="D24" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" t="s">
-        <v>137</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
+      <c r="E42" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" t="s">
+        <v>220</v>
+      </c>
+      <c r="D43" t="s">
+        <v>121</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" t="s">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/チケットの検討.xlsx
+++ b/チケットの検討.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\progress_manage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_ftp\vm-centos7\srv\docker\redmine\home\redmine\data\plugins\progress_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78252715-50C6-4F63-B64B-33760C9D239B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26243A4E-0A01-4604-92B2-337FE40EAD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="作業単位一覧表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="235">
   <si>
     <t>組織図</t>
     <rPh sb="0" eb="3">
@@ -1243,9 +1243,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>福尾</t>
-  </si>
-  <si>
     <t>新規</t>
   </si>
   <si>
@@ -1272,9 +1269,6 @@
     <t>プロジェクト</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>システム化課題一覧表</t>
     <rPh sb="4" eb="5">
       <t>カ</t>
@@ -2203,6 +2197,71 @@
   <si>
     <t>（リリースモジュール）</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トラッカー</t>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>優先度</t>
+  </si>
+  <si>
+    <t>カテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象バージョン</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プライベート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="3">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期日</t>
+    <rPh sb="0" eb="2">
+      <t>キジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定工数</t>
+    <rPh sb="0" eb="4">
+      <t>ヨテイコウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗率</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能</t>
+  </si>
+  <si>
+    <t>通常</t>
+  </si>
+  <si>
+    <t>福尾 利行</t>
   </si>
 </sst>
 </file>
@@ -2752,27 +2811,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B22D816-F7D4-4780-B79D-268D7FFEA744}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:W106"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C48" sqref="C48"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.09765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.59765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>116</v>
@@ -2783,8 +2853,50 @@
       <c r="D1" s="5" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="J1" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" t="s">
+        <v>222</v>
+      </c>
+      <c r="L1" t="s">
+        <v>137</v>
+      </c>
+      <c r="M1" t="s">
+        <v>138</v>
+      </c>
+      <c r="N1" t="s">
+        <v>223</v>
+      </c>
+      <c r="O1" t="s">
+        <v>224</v>
+      </c>
+      <c r="P1" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>136</v>
+      </c>
+      <c r="R1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S1" t="s">
+        <v>227</v>
+      </c>
+      <c r="T1" t="s">
+        <v>228</v>
+      </c>
+      <c r="U1" t="s">
+        <v>229</v>
+      </c>
+      <c r="V1" t="s">
+        <v>230</v>
+      </c>
+      <c r="W1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -2795,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>IF(A2="","","mkdir "&amp;A2)</f>
@@ -2809,15 +2921,16 @@
         <f t="shared" ref="H2" si="0">IF(B2="","",IF(LEFT(B2,1)="（","","mkdir "&amp;G2&amp;"\"&amp;B2))</f>
         <v>mkdir 00.要求分析\01.現行業務分析</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F3" s="6" t="str">
         <f t="shared" ref="F3:F66" si="1">IF(A3="","","mkdir "&amp;A3)</f>
@@ -2831,15 +2944,16 @@
         <f t="shared" ref="H3:H66" si="3">IF(B3="","",IF(LEFT(B3,1)="（","","mkdir "&amp;G3&amp;"\"&amp;B3))</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
         <v>122</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F4" s="6" t="str">
         <f t="shared" si="1"/>
@@ -2853,8 +2967,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="9"/>
       <c r="B5" s="11" t="s">
         <v>10</v>
@@ -2863,7 +2978,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F5" s="6" t="str">
         <f t="shared" si="1"/>
@@ -2877,15 +2992,16 @@
         <f t="shared" si="3"/>
         <v>mkdir 00.要求分析\02.現行基盤分析</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F6" s="6" t="str">
         <f t="shared" si="1"/>
@@ -2899,15 +3015,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F7" s="6" t="str">
         <f t="shared" si="1"/>
@@ -2921,15 +3038,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F8" s="6" t="str">
         <f t="shared" si="1"/>
@@ -2943,15 +3061,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F9" s="6" t="str">
         <f t="shared" si="1"/>
@@ -2965,15 +3084,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F10" s="6" t="str">
         <f t="shared" si="1"/>
@@ -2987,15 +3107,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3009,8 +3130,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="9"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
@@ -3019,7 +3141,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F12" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3033,15 +3155,16 @@
         <f t="shared" si="3"/>
         <v>mkdir 00.要求分析\03.現行機能分析</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3055,15 +3178,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3077,15 +3201,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3099,15 +3224,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3121,15 +3247,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3143,15 +3270,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3165,15 +3293,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3187,15 +3316,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3209,15 +3339,16 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3231,8 +3362,9 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
@@ -3243,7 +3375,7 @@
         <v>123</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3257,15 +3389,38 @@
         <f t="shared" si="3"/>
         <v>mkdir 01.要件定義\01.業務要件</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J22" t="s">
+        <v>135</v>
+      </c>
+      <c r="K22" t="s">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s">
+        <v>134</v>
+      </c>
+      <c r="M22" s="1" t="str">
+        <f t="shared" ref="M3:M43" si="4">C22</f>
+        <v>業務フロー図</v>
+      </c>
+      <c r="O22" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>234</v>
+      </c>
+      <c r="R22" t="str">
+        <f t="shared" ref="R3:R43" si="5">G22</f>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3279,15 +3434,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J23" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" t="s">
+        <v>232</v>
+      </c>
+      <c r="L23" t="s">
+        <v>134</v>
+      </c>
+      <c r="M23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>システム化課題一覧表</v>
+      </c>
+      <c r="O23" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>234</v>
+      </c>
+      <c r="R23" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3301,8 +3479,31 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J24" t="s">
+        <v>135</v>
+      </c>
+      <c r="K24" t="s">
+        <v>232</v>
+      </c>
+      <c r="L24" t="s">
+        <v>134</v>
+      </c>
+      <c r="M24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>セキュリティ要件書</v>
+      </c>
+      <c r="O24" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>234</v>
+      </c>
+      <c r="R24" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A25" s="9"/>
       <c r="B25" s="11" t="s">
         <v>15</v>
@@ -3311,7 +3512,7 @@
         <v>124</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3325,15 +3526,38 @@
         <f t="shared" si="3"/>
         <v>mkdir 01.要件定義\02.基盤要件</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J25" t="s">
+        <v>135</v>
+      </c>
+      <c r="K25" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" t="s">
+        <v>134</v>
+      </c>
+      <c r="M25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>システム構成図</v>
+      </c>
+      <c r="O25" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>234</v>
+      </c>
+      <c r="R25" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="2" t="s">
         <v>125</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F26" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3347,15 +3571,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J26" t="s">
+        <v>135</v>
+      </c>
+      <c r="K26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" t="s">
+        <v>134</v>
+      </c>
+      <c r="M26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ＤＢ一覧表</v>
+      </c>
+      <c r="O26" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>234</v>
+      </c>
+      <c r="R26" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="12" t="s">
         <v>126</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3369,15 +3616,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J27" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" t="s">
+        <v>134</v>
+      </c>
+      <c r="M27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>テーブル一覧表</v>
+      </c>
+      <c r="O27" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>234</v>
+      </c>
+      <c r="R27" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="12" t="s">
         <v>127</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3391,8 +3661,31 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J28" t="s">
+        <v>135</v>
+      </c>
+      <c r="K28" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s">
+        <v>134</v>
+      </c>
+      <c r="M28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ＩＦ一覧表</v>
+      </c>
+      <c r="O28" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>234</v>
+      </c>
+      <c r="R28" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A29" s="9"/>
       <c r="B29" s="11" t="s">
         <v>18</v>
@@ -3401,7 +3694,7 @@
         <v>128</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3415,15 +3708,38 @@
         <f t="shared" si="3"/>
         <v>mkdir 01.要件定義\03.機能要件</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J29" t="s">
+        <v>135</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>134</v>
+      </c>
+      <c r="M29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>バッチ一覧表</v>
+      </c>
+      <c r="O29" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>234</v>
+      </c>
+      <c r="R29" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3437,15 +3753,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J30" t="s">
+        <v>135</v>
+      </c>
+      <c r="K30" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" t="s">
+        <v>134</v>
+      </c>
+      <c r="M30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ジョブフロー図</v>
+      </c>
+      <c r="O30" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>234</v>
+      </c>
+      <c r="R30" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3459,15 +3798,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J31" t="s">
+        <v>135</v>
+      </c>
+      <c r="K31" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>ジョブスケジュール表</v>
+      </c>
+      <c r="O31" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>234</v>
+      </c>
+      <c r="R31" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F32" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3481,15 +3843,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J32" t="s">
+        <v>135</v>
+      </c>
+      <c r="K32" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" t="s">
+        <v>134</v>
+      </c>
+      <c r="M32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>画面一覧表</v>
+      </c>
+      <c r="O32" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>234</v>
+      </c>
+      <c r="R32" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F33" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3503,15 +3888,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J33" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" t="s">
+        <v>134</v>
+      </c>
+      <c r="M33" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>画面帳票遷移図</v>
+      </c>
+      <c r="O33" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>234</v>
+      </c>
+      <c r="R33" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
         <v>132</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F34" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3525,15 +3933,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J34" t="s">
+        <v>135</v>
+      </c>
+      <c r="K34" t="s">
+        <v>232</v>
+      </c>
+      <c r="L34" t="s">
+        <v>134</v>
+      </c>
+      <c r="M34" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>帳票一覧表</v>
+      </c>
+      <c r="O34" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>234</v>
+      </c>
+      <c r="R34" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F35" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3547,8 +3978,31 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J35" t="s">
+        <v>135</v>
+      </c>
+      <c r="K35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" t="s">
+        <v>134</v>
+      </c>
+      <c r="M35" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>画面デモ</v>
+      </c>
+      <c r="O35" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>234</v>
+      </c>
+      <c r="R35" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
         <v>78</v>
@@ -3557,7 +4011,7 @@
         <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F36" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3571,14 +4025,37 @@
         <f t="shared" si="3"/>
         <v>mkdir 01.要件定義\04.技術検証</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J36" t="s">
+        <v>135</v>
+      </c>
+      <c r="K36" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" t="s">
+        <v>134</v>
+      </c>
+      <c r="M36" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>（各技術検証資料）</v>
+      </c>
+      <c r="O36" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>234</v>
+      </c>
+      <c r="R36" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A37" s="9"/>
       <c r="B37" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>29</v>
@@ -3595,15 +4072,38 @@
         <f t="shared" si="3"/>
         <v>mkdir 01.要件定義\99.概算見積</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J37" t="s">
+        <v>135</v>
+      </c>
+      <c r="K37" t="s">
+        <v>232</v>
+      </c>
+      <c r="L37" t="s">
+        <v>134</v>
+      </c>
+      <c r="M37" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>試験要件定義表</v>
+      </c>
+      <c r="O37" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>234</v>
+      </c>
+      <c r="R37" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="F38" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3617,12 +4117,35 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J38" t="s">
+        <v>135</v>
+      </c>
+      <c r="K38" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s">
+        <v>134</v>
+      </c>
+      <c r="M38" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>移行要件定義書</v>
+      </c>
+      <c r="O38" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>234</v>
+      </c>
+      <c r="R38" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>30</v>
@@ -3639,15 +4162,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J39" t="s">
+        <v>135</v>
+      </c>
+      <c r="K39" t="s">
+        <v>232</v>
+      </c>
+      <c r="L39" t="s">
+        <v>134</v>
+      </c>
+      <c r="M39" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>運用要件定義書</v>
+      </c>
+      <c r="O39" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>234</v>
+      </c>
+      <c r="R39" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F40" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3661,15 +4207,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J40" t="s">
+        <v>135</v>
+      </c>
+      <c r="K40" t="s">
+        <v>232</v>
+      </c>
+      <c r="L40" t="s">
+        <v>134</v>
+      </c>
+      <c r="M40" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>開発体制図</v>
+      </c>
+      <c r="O40" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>234</v>
+      </c>
+      <c r="R40" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
         <v>120</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F41" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3683,8 +4252,31 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J41" t="s">
+        <v>135</v>
+      </c>
+      <c r="K41" t="s">
+        <v>232</v>
+      </c>
+      <c r="L41" t="s">
+        <v>134</v>
+      </c>
+      <c r="M41" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>概算見積書</v>
+      </c>
+      <c r="O41" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>234</v>
+      </c>
+      <c r="R41" t="str">
+        <f t="shared" si="5"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A42" s="11" t="s">
         <v>23</v>
       </c>
@@ -3709,8 +4301,31 @@
         <f t="shared" si="3"/>
         <v>mkdir 02.外部設計\01.機能設計</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J42" t="s">
+        <v>135</v>
+      </c>
+      <c r="K42" t="s">
+        <v>232</v>
+      </c>
+      <c r="L42" t="s">
+        <v>134</v>
+      </c>
+      <c r="M42" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>（各機能設計書）</v>
+      </c>
+      <c r="O42" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>234</v>
+      </c>
+      <c r="R42" t="str">
+        <f t="shared" si="5"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A43" s="9"/>
       <c r="B43" s="11" t="s">
         <v>27</v>
@@ -3719,7 +4334,7 @@
         <v>126</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F43" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3733,15 +4348,38 @@
         <f t="shared" si="3"/>
         <v>mkdir 02.外部設計\02.ＤＢ設計</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J43" t="s">
+        <v>135</v>
+      </c>
+      <c r="K43" t="s">
+        <v>232</v>
+      </c>
+      <c r="L43" t="s">
+        <v>134</v>
+      </c>
+      <c r="M43" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v>テーブル一覧表</v>
+      </c>
+      <c r="O43" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>234</v>
+      </c>
+      <c r="R43" t="str">
+        <f t="shared" si="5"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F44" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3755,15 +4393,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J44" t="s">
+        <v>135</v>
+      </c>
+      <c r="K44" t="s">
+        <v>232</v>
+      </c>
+      <c r="L44" t="s">
+        <v>134</v>
+      </c>
+      <c r="M44" s="1" t="str">
+        <f t="shared" ref="M44:M105" si="6">C44</f>
+        <v>ＥＲ図</v>
+      </c>
+      <c r="O44" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>234</v>
+      </c>
+      <c r="R44" t="str">
+        <f t="shared" ref="R44:R105" si="7">G44</f>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F45" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3777,15 +4438,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J45" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" t="s">
+        <v>232</v>
+      </c>
+      <c r="L45" t="s">
+        <v>134</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>（各テーブル定義書）</v>
+      </c>
+      <c r="O45" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>234</v>
+      </c>
+      <c r="R45" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="2" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F46" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3799,8 +4483,31 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J46" t="s">
+        <v>135</v>
+      </c>
+      <c r="K46" t="s">
+        <v>232</v>
+      </c>
+      <c r="L46" t="s">
+        <v>134</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>区分定義書</v>
+      </c>
+      <c r="O46" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>234</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A47" s="9"/>
       <c r="B47" s="11" t="s">
         <v>31</v>
@@ -3809,7 +4516,7 @@
         <v>127</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F47" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3823,15 +4530,38 @@
         <f t="shared" si="3"/>
         <v>mkdir 02.外部設計\03.ＩＦ設計</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J47" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" t="s">
+        <v>232</v>
+      </c>
+      <c r="L47" t="s">
+        <v>134</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ＩＦ一覧表</v>
+      </c>
+      <c r="O47" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>234</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F48" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3845,8 +4575,31 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J48" t="s">
+        <v>135</v>
+      </c>
+      <c r="K48" t="s">
+        <v>232</v>
+      </c>
+      <c r="L48" t="s">
+        <v>134</v>
+      </c>
+      <c r="M48" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>（各ＩＦ定義書）</v>
+      </c>
+      <c r="O48" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>234</v>
+      </c>
+      <c r="R48" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A49" s="9"/>
       <c r="B49" s="11" t="s">
         <v>32</v>
@@ -3855,7 +4608,7 @@
         <v>50</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F49" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3869,15 +4622,38 @@
         <f t="shared" si="3"/>
         <v>mkdir 02.外部設計\04.バッチ設計</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J49" t="s">
+        <v>135</v>
+      </c>
+      <c r="K49" t="s">
+        <v>232</v>
+      </c>
+      <c r="L49" t="s">
+        <v>134</v>
+      </c>
+      <c r="M49" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>バッチ共通仕様書</v>
+      </c>
+      <c r="O49" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>234</v>
+      </c>
+      <c r="R49" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="12" t="s">
         <v>128</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F50" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3891,15 +4667,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J50" t="s">
+        <v>135</v>
+      </c>
+      <c r="K50" t="s">
+        <v>232</v>
+      </c>
+      <c r="L50" t="s">
+        <v>134</v>
+      </c>
+      <c r="M50" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>バッチ一覧表</v>
+      </c>
+      <c r="O50" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>234</v>
+      </c>
+      <c r="R50" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="12" t="s">
         <v>129</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F51" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3913,15 +4712,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J51" t="s">
+        <v>135</v>
+      </c>
+      <c r="K51" t="s">
+        <v>232</v>
+      </c>
+      <c r="L51" t="s">
+        <v>134</v>
+      </c>
+      <c r="M51" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ジョブフロー図</v>
+      </c>
+      <c r="O51" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>234</v>
+      </c>
+      <c r="R51" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="12" t="s">
         <v>130</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F52" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3935,15 +4757,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J52" t="s">
+        <v>135</v>
+      </c>
+      <c r="K52" t="s">
+        <v>232</v>
+      </c>
+      <c r="L52" t="s">
+        <v>134</v>
+      </c>
+      <c r="M52" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ジョブスケジュール表</v>
+      </c>
+      <c r="O52" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>234</v>
+      </c>
+      <c r="R52" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F53" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3957,8 +4802,31 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J53" t="s">
+        <v>135</v>
+      </c>
+      <c r="K53" t="s">
+        <v>232</v>
+      </c>
+      <c r="L53" t="s">
+        <v>134</v>
+      </c>
+      <c r="M53" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>（各バッチ設計書）</v>
+      </c>
+      <c r="O53" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>234</v>
+      </c>
+      <c r="R53" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A54" s="9"/>
       <c r="B54" s="11" t="s">
         <v>33</v>
@@ -3967,7 +4835,7 @@
         <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F54" s="6" t="str">
         <f t="shared" si="1"/>
@@ -3981,15 +4849,38 @@
         <f t="shared" si="3"/>
         <v>mkdir 02.外部設計\05.画面設計</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J54" t="s">
+        <v>135</v>
+      </c>
+      <c r="K54" t="s">
+        <v>232</v>
+      </c>
+      <c r="L54" t="s">
+        <v>134</v>
+      </c>
+      <c r="M54" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>画面共通仕様書</v>
+      </c>
+      <c r="O54" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>234</v>
+      </c>
+      <c r="R54" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="12" t="s">
         <v>131</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F55" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4003,15 +4894,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J55" t="s">
+        <v>135</v>
+      </c>
+      <c r="K55" t="s">
+        <v>232</v>
+      </c>
+      <c r="L55" t="s">
+        <v>134</v>
+      </c>
+      <c r="M55" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>画面一覧表</v>
+      </c>
+      <c r="O55" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>234</v>
+      </c>
+      <c r="R55" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F56" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4025,15 +4939,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J56" t="s">
+        <v>135</v>
+      </c>
+      <c r="K56" t="s">
+        <v>232</v>
+      </c>
+      <c r="L56" t="s">
+        <v>134</v>
+      </c>
+      <c r="M56" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>画面帳票遷移図</v>
+      </c>
+      <c r="O56" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>234</v>
+      </c>
+      <c r="R56" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F57" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4047,8 +4984,31 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J57" t="s">
+        <v>135</v>
+      </c>
+      <c r="K57" t="s">
+        <v>232</v>
+      </c>
+      <c r="L57" t="s">
+        <v>134</v>
+      </c>
+      <c r="M57" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>（各画面設計書）</v>
+      </c>
+      <c r="O57" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>234</v>
+      </c>
+      <c r="R57" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A58" s="9"/>
       <c r="B58" s="11" t="s">
         <v>35</v>
@@ -4057,7 +5017,7 @@
         <v>132</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F58" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4071,15 +5031,38 @@
         <f t="shared" si="3"/>
         <v>mkdir 02.外部設計\06.帳票設計</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J58" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" t="s">
+        <v>232</v>
+      </c>
+      <c r="L58" t="s">
+        <v>134</v>
+      </c>
+      <c r="M58" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>帳票一覧表</v>
+      </c>
+      <c r="O58" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>234</v>
+      </c>
+      <c r="R58" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F59" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4093,17 +5076,40 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J59" t="s">
+        <v>135</v>
+      </c>
+      <c r="K59" t="s">
+        <v>232</v>
+      </c>
+      <c r="L59" t="s">
+        <v>134</v>
+      </c>
+      <c r="M59" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>（各帳票設計書）</v>
+      </c>
+      <c r="O59" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>234</v>
+      </c>
+      <c r="R59" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60" s="9"/>
       <c r="B60" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F60" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4117,15 +5123,38 @@
         <f t="shared" si="3"/>
         <v>mkdir 02.外部設計\07.移行設計</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J60" t="s">
+        <v>135</v>
+      </c>
+      <c r="K60" t="s">
+        <v>232</v>
+      </c>
+      <c r="L60" t="s">
+        <v>134</v>
+      </c>
+      <c r="M60" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>サーバ移行設計書</v>
+      </c>
+      <c r="O60" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>234</v>
+      </c>
+      <c r="R60" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="14" t="s">
         <v>195</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>197</v>
       </c>
       <c r="F61" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4139,15 +5168,38 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J61" t="s">
+        <v>135</v>
+      </c>
+      <c r="K61" t="s">
+        <v>232</v>
+      </c>
+      <c r="L61" t="s">
+        <v>134</v>
+      </c>
+      <c r="M61" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>データ移行設計書</v>
+      </c>
+      <c r="O61" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>234</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D62" s="14" t="s">
         <v>196</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>198</v>
       </c>
       <c r="F62" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4161,8 +5213,31 @@
         <f t="shared" si="3"/>
         <v/>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J62" t="s">
+        <v>135</v>
+      </c>
+      <c r="K62" t="s">
+        <v>232</v>
+      </c>
+      <c r="L62" t="s">
+        <v>134</v>
+      </c>
+      <c r="M62" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>本番リリース設計書</v>
+      </c>
+      <c r="O62" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>234</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="2" t="s">
         <v>37</v>
@@ -4171,7 +5246,7 @@
         <v>121</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F63" s="6" t="str">
         <f t="shared" si="1"/>
@@ -4185,8 +5260,31 @@
         <f t="shared" si="3"/>
         <v>mkdir 02.外部設計\99.詳細見積</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J63" t="s">
+        <v>135</v>
+      </c>
+      <c r="K63" t="s">
+        <v>232</v>
+      </c>
+      <c r="L63" t="s">
+        <v>134</v>
+      </c>
+      <c r="M63" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>詳細見積書</v>
+      </c>
+      <c r="O63" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>234</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A64" s="11" t="s">
         <v>39</v>
       </c>
@@ -4211,8 +5309,31 @@
         <f t="shared" si="3"/>
         <v>mkdir 03.内部設計\01.ＤＢ設計</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J64" t="s">
+        <v>135</v>
+      </c>
+      <c r="K64" t="s">
+        <v>232</v>
+      </c>
+      <c r="L64" t="s">
+        <v>134</v>
+      </c>
+      <c r="M64" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>ＤＢ物理設計書</v>
+      </c>
+      <c r="O64" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>234</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="7"/>
+        <v>03.内部設計</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A65" s="9"/>
       <c r="B65" s="2" t="s">
         <v>53</v>
@@ -4235,8 +5356,31 @@
         <f t="shared" si="3"/>
         <v>mkdir 03.内部設計\02.バッチ設計</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J65" t="s">
+        <v>135</v>
+      </c>
+      <c r="K65" t="s">
+        <v>232</v>
+      </c>
+      <c r="L65" t="s">
+        <v>134</v>
+      </c>
+      <c r="M65" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>（特記プラグラム仕様書）</v>
+      </c>
+      <c r="O65" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>234</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="7"/>
+        <v>03.内部設計</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A66" s="9"/>
       <c r="B66" s="2" t="s">
         <v>54</v>
@@ -4259,8 +5403,31 @@
         <f t="shared" si="3"/>
         <v>mkdir 03.内部設計\03.画面設計</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J66" t="s">
+        <v>135</v>
+      </c>
+      <c r="K66" t="s">
+        <v>232</v>
+      </c>
+      <c r="L66" t="s">
+        <v>134</v>
+      </c>
+      <c r="M66" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>（特記プラグラム仕様書）</v>
+      </c>
+      <c r="O66" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>234</v>
+      </c>
+      <c r="R66" t="str">
+        <f t="shared" si="7"/>
+        <v>03.内部設計</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="2" t="s">
         <v>55</v>
@@ -4272,43 +5439,89 @@
         <v>57</v>
       </c>
       <c r="F67" s="6" t="str">
-        <f t="shared" ref="F67:F106" si="4">IF(A67="","","mkdir "&amp;A67)</f>
+        <f t="shared" ref="F67:F106" si="8">IF(A67="","","mkdir "&amp;A67)</f>
         <v/>
       </c>
       <c r="G67" s="8" t="str">
-        <f t="shared" ref="G67:G106" si="5">IF(F67="",G66,A67)</f>
+        <f t="shared" ref="G67:G106" si="9">IF(F67="",G66,A67)</f>
         <v>03.内部設計</v>
       </c>
       <c r="H67" s="6" t="str">
-        <f t="shared" ref="H67:H106" si="6">IF(B67="","",IF(LEFT(B67,1)="（","","mkdir "&amp;G67&amp;"\"&amp;B67))</f>
+        <f t="shared" ref="H67:H106" si="10">IF(B67="","",IF(LEFT(B67,1)="（","","mkdir "&amp;G67&amp;"\"&amp;B67))</f>
         <v>mkdir 03.内部設計\04.帳票設計</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J67" t="s">
+        <v>135</v>
+      </c>
+      <c r="K67" t="s">
+        <v>232</v>
+      </c>
+      <c r="L67" t="s">
+        <v>134</v>
+      </c>
+      <c r="M67" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v>（特記プラグラム仕様書）</v>
+      </c>
+      <c r="O67" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>234</v>
+      </c>
+      <c r="R67" t="str">
+        <f t="shared" si="7"/>
+        <v>03.内部設計</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A68" s="11" t="s">
         <v>58</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F68" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>mkdir 04.ＰＧ設計</v>
       </c>
       <c r="G68" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H68" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J68" t="s">
+        <v>135</v>
+      </c>
+      <c r="K68" t="s">
+        <v>232</v>
+      </c>
+      <c r="L68" t="s">
+        <v>134</v>
+      </c>
+      <c r="M68" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+        <v>メッセージ一覧表</v>
+      </c>
+      <c r="O68" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>234</v>
+      </c>
+      <c r="R68" t="str">
+        <f t="shared" si="7"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A69" s="9"/>
       <c r="B69" s="2" t="s">
         <v>59</v>
@@ -4320,19 +5533,42 @@
         <v>65</v>
       </c>
       <c r="F69" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G69" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H69" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 04.ＰＧ設計\01.バッチＰＧ設計</v>
+      </c>
+      <c r="J69" t="s">
+        <v>135</v>
+      </c>
+      <c r="K69" t="s">
+        <v>232</v>
+      </c>
+      <c r="L69" t="s">
+        <v>134</v>
+      </c>
+      <c r="M69" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 04.ＰＧ設計\01.バッチＰＧ設計</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+        <v>バッチＰＧ設計書</v>
+      </c>
+      <c r="O69" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>234</v>
+      </c>
+      <c r="R69" t="str">
+        <f t="shared" si="7"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A70" s="9"/>
       <c r="B70" s="2" t="s">
         <v>61</v>
@@ -4344,19 +5580,42 @@
         <v>66</v>
       </c>
       <c r="F70" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G70" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H70" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 04.ＰＧ設計\02.画面ＰＧ設計</v>
+      </c>
+      <c r="J70" t="s">
+        <v>135</v>
+      </c>
+      <c r="K70" t="s">
+        <v>232</v>
+      </c>
+      <c r="L70" t="s">
+        <v>134</v>
+      </c>
+      <c r="M70" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 04.ＰＧ設計\02.画面ＰＧ設計</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+        <v>画面ＰＧ設計書</v>
+      </c>
+      <c r="O70" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>234</v>
+      </c>
+      <c r="R70" t="str">
+        <f t="shared" si="7"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="2" t="s">
         <v>62</v>
@@ -4368,67 +5627,136 @@
         <v>67</v>
       </c>
       <c r="F71" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G71" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H71" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 04.ＰＧ設計\03.帳票ＰＧ設計</v>
+      </c>
+      <c r="J71" t="s">
+        <v>135</v>
+      </c>
+      <c r="K71" t="s">
+        <v>232</v>
+      </c>
+      <c r="L71" t="s">
+        <v>134</v>
+      </c>
+      <c r="M71" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 04.ＰＧ設計\03.帳票ＰＧ設計</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+        <v>帳票ＰＧ設計書</v>
+      </c>
+      <c r="O71" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>234</v>
+      </c>
+      <c r="R71" t="str">
+        <f t="shared" si="7"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A72" s="11" t="s">
         <v>68</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F72" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>mkdir 05.ＰＧ開発</v>
       </c>
       <c r="G72" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H72" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 05.ＰＧ開発\01.開発端末環境構築</v>
+      </c>
+      <c r="J72" t="s">
+        <v>135</v>
+      </c>
+      <c r="K72" t="s">
+        <v>232</v>
+      </c>
+      <c r="L72" t="s">
+        <v>134</v>
+      </c>
+      <c r="M72" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 05.ＰＧ開発\01.開発端末環境構築</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+        <v>開発環境構築手順書</v>
+      </c>
+      <c r="O72" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>234</v>
+      </c>
+      <c r="R72" t="str">
+        <f t="shared" si="7"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="2" t="s">
         <v>70</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F73" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G73" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H73" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J73" t="s">
+        <v>135</v>
+      </c>
+      <c r="K73" t="s">
+        <v>232</v>
+      </c>
+      <c r="L73" t="s">
+        <v>134</v>
+      </c>
+      <c r="M73" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（各インストーラ）</v>
+      </c>
+      <c r="O73" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>234</v>
+      </c>
+      <c r="R73" t="str">
+        <f t="shared" si="7"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A74" s="9"/>
       <c r="B74" s="2" t="s">
         <v>73</v>
@@ -4437,46 +5765,92 @@
         <v>74</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F74" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G74" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H74" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 05.ＰＧ開発\02.製造規約</v>
+      </c>
+      <c r="J74" t="s">
+        <v>135</v>
+      </c>
+      <c r="K74" t="s">
+        <v>232</v>
+      </c>
+      <c r="L74" t="s">
+        <v>134</v>
+      </c>
+      <c r="M74" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 05.ＰＧ開発\02.製造規約</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+        <v>製造規約書</v>
+      </c>
+      <c r="O74" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>234</v>
+      </c>
+      <c r="R74" t="str">
+        <f t="shared" si="7"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A75" s="9"/>
       <c r="B75" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F75" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G75" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H75" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 05.ＰＧ開発\03.開発サーバ環境構築</v>
+      </c>
+      <c r="J75" t="s">
+        <v>135</v>
+      </c>
+      <c r="K75" t="s">
+        <v>232</v>
+      </c>
+      <c r="L75" t="s">
+        <v>134</v>
+      </c>
+      <c r="M75" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 05.ＰＧ開発\03.開発サーバ環境構築</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+        <v>開発サーバ環境構築手順書</v>
+      </c>
+      <c r="O75" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>234</v>
+      </c>
+      <c r="R75" t="str">
+        <f t="shared" si="7"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="2" t="s">
@@ -4486,65 +5860,134 @@
         <v>77</v>
       </c>
       <c r="F76" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G76" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H76" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J76" t="s">
+        <v>135</v>
+      </c>
+      <c r="K76" t="s">
+        <v>232</v>
+      </c>
+      <c r="L76" t="s">
+        <v>134</v>
+      </c>
+      <c r="M76" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（各DBスクリプト）</v>
+      </c>
+      <c r="O76" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>234</v>
+      </c>
+      <c r="R76" t="str">
+        <f t="shared" si="7"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F77" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G77" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H77" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J77" t="s">
+        <v>135</v>
+      </c>
+      <c r="K77" t="s">
+        <v>232</v>
+      </c>
+      <c r="L77" t="s">
+        <v>134</v>
+      </c>
+      <c r="M77" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（各DBダンプ）</v>
+      </c>
+      <c r="O77" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>234</v>
+      </c>
+      <c r="R77" t="str">
+        <f t="shared" si="7"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A78" s="9"/>
       <c r="B78" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="F78" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G78" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H78" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 05.ＰＧ開発\04.技術検討</v>
+      </c>
+      <c r="J78" t="s">
+        <v>135</v>
+      </c>
+      <c r="K78" t="s">
+        <v>232</v>
+      </c>
+      <c r="L78" t="s">
+        <v>134</v>
+      </c>
+      <c r="M78" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 05.ＰＧ開発\04.技術検討</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（各技術検討資料）</v>
+      </c>
+      <c r="O78" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>234</v>
+      </c>
+      <c r="R78" t="str">
+        <f t="shared" si="7"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="2" t="s">
         <v>75</v>
@@ -4554,19 +5997,42 @@
         <v>76</v>
       </c>
       <c r="F79" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G79" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H79" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 05.ＰＧ開発\99.ＰＧ一式</v>
+      </c>
+      <c r="J79" t="s">
+        <v>135</v>
+      </c>
+      <c r="K79" t="s">
+        <v>232</v>
+      </c>
+      <c r="L79" t="s">
+        <v>134</v>
+      </c>
+      <c r="M79" s="1">
         <f t="shared" si="6"/>
-        <v>mkdir 05.ＰＧ開発\99.ＰＧ一式</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+      <c r="O79" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>234</v>
+      </c>
+      <c r="R79" t="str">
+        <f t="shared" si="7"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -4578,19 +6044,42 @@
         <v>101</v>
       </c>
       <c r="F80" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>mkdir 06.単体試験</v>
       </c>
       <c r="G80" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>06.単体試験</v>
       </c>
       <c r="H80" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J80" t="s">
+        <v>135</v>
+      </c>
+      <c r="K80" t="s">
+        <v>232</v>
+      </c>
+      <c r="L80" t="s">
+        <v>134</v>
+      </c>
+      <c r="M80" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（各単体試験仕様書）</v>
+      </c>
+      <c r="O80" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>234</v>
+      </c>
+      <c r="R80" t="str">
+        <f t="shared" si="7"/>
+        <v>06.単体試験</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A81" s="11" t="s">
         <v>82</v>
       </c>
@@ -4602,19 +6091,42 @@
         <v>91</v>
       </c>
       <c r="F81" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>mkdir 07.結合試験</v>
       </c>
       <c r="G81" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>07.結合試験</v>
       </c>
       <c r="H81" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J81" t="s">
+        <v>135</v>
+      </c>
+      <c r="K81" t="s">
+        <v>232</v>
+      </c>
+      <c r="L81" t="s">
+        <v>134</v>
+      </c>
+      <c r="M81" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+        <v>結合試験計画書</v>
+      </c>
+      <c r="O81" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>234</v>
+      </c>
+      <c r="R81" t="str">
+        <f t="shared" si="7"/>
+        <v>07.結合試験</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="2" t="s">
@@ -4624,89 +6136,181 @@
         <v>102</v>
       </c>
       <c r="F82" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G82" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>07.結合試験</v>
       </c>
       <c r="H82" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J82" t="s">
+        <v>135</v>
+      </c>
+      <c r="K82" t="s">
+        <v>232</v>
+      </c>
+      <c r="L82" t="s">
+        <v>134</v>
+      </c>
+      <c r="M82" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（各結合試験仕様書）</v>
+      </c>
+      <c r="O82" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>234</v>
+      </c>
+      <c r="R82" t="str">
+        <f t="shared" si="7"/>
+        <v>07.結合試験</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A83" s="11" t="s">
         <v>85</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F83" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>mkdir 08.総合試験</v>
       </c>
       <c r="G83" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>08.総合試験</v>
       </c>
       <c r="H83" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 08.総合試験\00.移行リハ</v>
+      </c>
+      <c r="J83" t="s">
+        <v>135</v>
+      </c>
+      <c r="K83" t="s">
+        <v>232</v>
+      </c>
+      <c r="L83" t="s">
+        <v>134</v>
+      </c>
+      <c r="M83" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 08.総合試験\00.移行リハ</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+        <v>サーバ移行リハ手順書</v>
+      </c>
+      <c r="O83" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>234</v>
+      </c>
+      <c r="R83" t="str">
+        <f t="shared" si="7"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F84" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G84" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>08.総合試験</v>
       </c>
       <c r="H84" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J84" t="s">
+        <v>135</v>
+      </c>
+      <c r="K84" t="s">
+        <v>232</v>
+      </c>
+      <c r="L84" t="s">
+        <v>134</v>
+      </c>
+      <c r="M84" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+        <v>データ移行リハ手順書</v>
+      </c>
+      <c r="O84" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>234</v>
+      </c>
+      <c r="R84" t="str">
+        <f t="shared" si="7"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F85" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G85" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>08.総合試験</v>
       </c>
       <c r="H85" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J85" t="s">
+        <v>135</v>
+      </c>
+      <c r="K85" t="s">
+        <v>232</v>
+      </c>
+      <c r="L85" t="s">
+        <v>134</v>
+      </c>
+      <c r="M85" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+        <v>モジュール移行リハ手順書</v>
+      </c>
+      <c r="O85" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>234</v>
+      </c>
+      <c r="R85" t="str">
+        <f t="shared" si="7"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A86" s="9"/>
       <c r="B86" s="11" t="s">
         <v>83</v>
@@ -4718,44 +6322,90 @@
         <v>88</v>
       </c>
       <c r="F86" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G86" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>08.総合試験</v>
       </c>
       <c r="H86" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 08.総合試験\01.シナリオテスト</v>
+      </c>
+      <c r="J86" t="s">
+        <v>135</v>
+      </c>
+      <c r="K86" t="s">
+        <v>232</v>
+      </c>
+      <c r="L86" t="s">
+        <v>134</v>
+      </c>
+      <c r="M86" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 08.総合試験\01.シナリオテスト</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+        <v>シナリオテスト計画書</v>
+      </c>
+      <c r="O86" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>234</v>
+      </c>
+      <c r="R86" t="str">
+        <f t="shared" si="7"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F87" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G87" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>08.総合試験</v>
       </c>
       <c r="H87" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J87" t="s">
+        <v>135</v>
+      </c>
+      <c r="K87" t="s">
+        <v>232</v>
+      </c>
+      <c r="L87" t="s">
+        <v>134</v>
+      </c>
+      <c r="M87" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（各シナリオテスト仕様書）</v>
+      </c>
+      <c r="O87" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>234</v>
+      </c>
+      <c r="R87" t="str">
+        <f t="shared" si="7"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A88" s="9"/>
       <c r="B88" s="11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>93</v>
@@ -4764,44 +6414,90 @@
         <v>94</v>
       </c>
       <c r="F88" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G88" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>08.総合試験</v>
       </c>
       <c r="H88" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 08.総合試験\02.ストレステスト</v>
+      </c>
+      <c r="J88" t="s">
+        <v>135</v>
+      </c>
+      <c r="K88" t="s">
+        <v>232</v>
+      </c>
+      <c r="L88" t="s">
+        <v>134</v>
+      </c>
+      <c r="M88" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 08.総合試験\02.ストレステスト</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+        <v>ストレステスト計画書</v>
+      </c>
+      <c r="O88" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>234</v>
+      </c>
+      <c r="R88" t="str">
+        <f t="shared" si="7"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="2" t="s">
         <v>95</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F89" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G89" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>08.総合試験</v>
       </c>
       <c r="H89" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J89" t="s">
+        <v>135</v>
+      </c>
+      <c r="K89" t="s">
+        <v>232</v>
+      </c>
+      <c r="L89" t="s">
+        <v>134</v>
+      </c>
+      <c r="M89" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（各ストレステスト仕様書）</v>
+      </c>
+      <c r="O89" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>234</v>
+      </c>
+      <c r="R89" t="str">
+        <f t="shared" si="7"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A90" s="9"/>
       <c r="B90" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>90</v>
@@ -4810,41 +6506,87 @@
         <v>91</v>
       </c>
       <c r="F90" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G90" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>08.総合試験</v>
       </c>
       <c r="H90" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 08.総合試験\03.現新比較テスト</v>
+      </c>
+      <c r="J90" t="s">
+        <v>135</v>
+      </c>
+      <c r="K90" t="s">
+        <v>232</v>
+      </c>
+      <c r="L90" t="s">
+        <v>134</v>
+      </c>
+      <c r="M90" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 08.総合試験\03.現新比較テスト</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+        <v>現新比較テスト計画書</v>
+      </c>
+      <c r="O90" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>234</v>
+      </c>
+      <c r="R90" t="str">
+        <f t="shared" si="7"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F91" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G91" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>08.総合試験</v>
       </c>
       <c r="H91" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J91" t="s">
+        <v>135</v>
+      </c>
+      <c r="K91" t="s">
+        <v>232</v>
+      </c>
+      <c r="L91" t="s">
+        <v>134</v>
+      </c>
+      <c r="M91" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（各現新比較テスト仕様書）</v>
+      </c>
+      <c r="O91" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>234</v>
+      </c>
+      <c r="R91" t="str">
+        <f t="shared" si="7"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="2" t="s">
         <v>84</v>
@@ -4853,22 +6595,45 @@
         <v>96</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F92" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G92" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>08.総合試験</v>
       </c>
       <c r="H92" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>mkdir 08.総合試験\04.回帰テスト</v>
+      </c>
+      <c r="J92" t="s">
+        <v>135</v>
+      </c>
+      <c r="K92" t="s">
+        <v>232</v>
+      </c>
+      <c r="L92" t="s">
+        <v>134</v>
+      </c>
+      <c r="M92" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>mkdir 08.総合試験\04.回帰テスト</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（各回帰テスト仕様書）</v>
+      </c>
+      <c r="O92" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>234</v>
+      </c>
+      <c r="R92" t="str">
+        <f t="shared" si="7"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
@@ -4880,19 +6645,42 @@
         <v>98</v>
       </c>
       <c r="F93" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>mkdir 09.受入検査</v>
       </c>
       <c r="G93" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>09.受入検査</v>
       </c>
       <c r="H93" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J93" t="s">
+        <v>135</v>
+      </c>
+      <c r="K93" t="s">
+        <v>232</v>
+      </c>
+      <c r="L93" t="s">
+        <v>134</v>
+      </c>
+      <c r="M93" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+        <v>不具合管理表</v>
+      </c>
+      <c r="O93" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>234</v>
+      </c>
+      <c r="R93" t="str">
+        <f t="shared" si="7"/>
+        <v>09.受入検査</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A94" s="11" t="s">
         <v>103</v>
       </c>
@@ -4901,66 +6689,135 @@
         <v>106</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F94" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>mkdir 10.本番移行</v>
       </c>
       <c r="G94" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10.本番移行</v>
       </c>
       <c r="H94" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J94" t="s">
+        <v>135</v>
+      </c>
+      <c r="K94" t="s">
+        <v>232</v>
+      </c>
+      <c r="L94" t="s">
+        <v>134</v>
+      </c>
+      <c r="M94" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+        <v>サーバ移行手順書</v>
+      </c>
+      <c r="O94" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>234</v>
+      </c>
+      <c r="R94" t="str">
+        <f t="shared" si="7"/>
+        <v>10.本番移行</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="14" t="s">
         <v>105</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F95" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G95" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10.本番移行</v>
       </c>
       <c r="H95" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J95" t="s">
+        <v>135</v>
+      </c>
+      <c r="K95" t="s">
+        <v>232</v>
+      </c>
+      <c r="L95" t="s">
+        <v>134</v>
+      </c>
+      <c r="M95" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+        <v>データ移行手順書</v>
+      </c>
+      <c r="O95" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>234</v>
+      </c>
+      <c r="R95" t="str">
+        <f t="shared" si="7"/>
+        <v>10.本番移行</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="14" t="s">
         <v>107</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F96" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G96" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>10.本番移行</v>
       </c>
       <c r="H96" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J96" t="s">
+        <v>135</v>
+      </c>
+      <c r="K96" t="s">
+        <v>232</v>
+      </c>
+      <c r="L96" t="s">
+        <v>134</v>
+      </c>
+      <c r="M96" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+        <v>モジュール移行手順書</v>
+      </c>
+      <c r="O96" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>234</v>
+      </c>
+      <c r="R96" t="str">
+        <f t="shared" si="7"/>
+        <v>10.本番移行</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A97" s="11" t="s">
         <v>104</v>
       </c>
@@ -4968,69 +6825,138 @@
         <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F97" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>mkdir 11.運用保守</v>
       </c>
       <c r="G97" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11.運用保守</v>
       </c>
       <c r="H97" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J97" t="s">
+        <v>135</v>
+      </c>
+      <c r="K97" t="s">
+        <v>232</v>
+      </c>
+      <c r="L97" t="s">
+        <v>134</v>
+      </c>
+      <c r="M97" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（リリース手順書）</v>
+      </c>
+      <c r="O97" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>234</v>
+      </c>
+      <c r="R97" t="str">
+        <f t="shared" si="7"/>
+        <v>11.運用保守</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="2" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F98" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G98" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11.運用保守</v>
       </c>
       <c r="H98" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J98" t="s">
+        <v>135</v>
+      </c>
+      <c r="K98" t="s">
+        <v>232</v>
+      </c>
+      <c r="L98" t="s">
+        <v>134</v>
+      </c>
+      <c r="M98" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（投入データ）</v>
+      </c>
+      <c r="O98" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>234</v>
+      </c>
+      <c r="R98" t="str">
+        <f t="shared" si="7"/>
+        <v>11.運用保守</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F99" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G99" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>11.運用保守</v>
       </c>
       <c r="H99" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v/>
+      </c>
+      <c r="J99" t="s">
+        <v>135</v>
+      </c>
+      <c r="K99" t="s">
+        <v>232</v>
+      </c>
+      <c r="L99" t="s">
+        <v>134</v>
+      </c>
+      <c r="M99" s="1" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+        <v>（リリースモジュール）</v>
+      </c>
+      <c r="O99" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>234</v>
+      </c>
+      <c r="R99" t="str">
+        <f t="shared" si="7"/>
+        <v>11.運用保守</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A100" s="11" t="s">
         <v>109</v>
       </c>
@@ -5040,19 +6966,20 @@
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="F100" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>mkdir 99.案件管理</v>
       </c>
       <c r="G100" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>99.案件管理</v>
       </c>
       <c r="H100" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>mkdir 99.案件管理\01.議事管理</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A101" s="9"/>
       <c r="B101" s="2" t="s">
         <v>111</v>
@@ -5060,19 +6987,20 @@
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="F101" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G101" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>99.案件管理</v>
       </c>
       <c r="H101" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>mkdir 99.案件管理\02.受領物管理</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A102" s="9"/>
       <c r="B102" s="2" t="s">
         <v>112</v>
@@ -5080,19 +7008,20 @@
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="F102" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G102" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>99.案件管理</v>
       </c>
       <c r="H102" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>mkdir 99.案件管理\03.課題管理</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A103" s="9"/>
       <c r="B103" s="2" t="s">
         <v>113</v>
@@ -5100,19 +7029,20 @@
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="F103" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G103" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>99.案件管理</v>
       </c>
       <c r="H103" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>mkdir 99.案件管理\04.予実管理</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A104" s="9"/>
       <c r="B104" s="2" t="s">
         <v>114</v>
@@ -5120,19 +7050,20 @@
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="F104" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G104" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>99.案件管理</v>
       </c>
       <c r="H104" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>mkdir 99.案件管理\05.要員管理</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="2" t="s">
         <v>115</v>
@@ -5140,33 +7071,34 @@
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="F105" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G105" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>99.案件管理</v>
       </c>
       <c r="H105" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>mkdir 99.案件管理\06.提出物管理</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="F106" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="G106" s="8" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>99.案件管理</v>
       </c>
       <c r="H106" s="6" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
@@ -5179,878 +7111,801 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAB199F-6FF3-418B-91BC-4C68101001B8}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:N43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>222</v>
       </c>
       <c r="C1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>138</v>
+        <v>223</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
+        <v>224</v>
+      </c>
+      <c r="G1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I1" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" t="s">
+        <v>227</v>
+      </c>
+      <c r="K1" t="s">
+        <v>228</v>
+      </c>
+      <c r="L1" t="s">
+        <v>229</v>
+      </c>
+      <c r="M1" t="s">
+        <v>230</v>
+      </c>
+      <c r="N1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>135</v>
       </c>
       <c r="B2" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E2" t="s">
-        <v>135</v>
-      </c>
       <c r="F2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
+        <v>233</v>
+      </c>
+      <c r="H2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>135</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E3" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
+        <v>233</v>
+      </c>
+      <c r="H3" t="s">
+        <v>234</v>
+      </c>
+      <c r="I3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
+        <v>233</v>
+      </c>
+      <c r="H4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E5" t="s">
-        <v>135</v>
-      </c>
       <c r="F5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
+        <v>233</v>
+      </c>
+      <c r="H5" t="s">
+        <v>234</v>
+      </c>
+      <c r="I5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>135</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E6" t="s">
-        <v>135</v>
-      </c>
       <c r="F6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
+        <v>233</v>
+      </c>
+      <c r="H6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C7" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E7" t="s">
-        <v>135</v>
-      </c>
       <c r="F7" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
+        <v>233</v>
+      </c>
+      <c r="H7" t="s">
+        <v>234</v>
+      </c>
+      <c r="I7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>135</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E8" t="s">
-        <v>135</v>
-      </c>
       <c r="F8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
+        <v>233</v>
+      </c>
+      <c r="H8" t="s">
+        <v>234</v>
+      </c>
+      <c r="I8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E9" t="s">
-        <v>135</v>
-      </c>
       <c r="F9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
+        <v>233</v>
+      </c>
+      <c r="H9" t="s">
+        <v>234</v>
+      </c>
+      <c r="I9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C10" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E10" t="s">
-        <v>135</v>
-      </c>
       <c r="F10" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
+        <v>233</v>
+      </c>
+      <c r="H10" t="s">
+        <v>234</v>
+      </c>
+      <c r="I10" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C11" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E11" t="s">
-        <v>135</v>
-      </c>
       <c r="F11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>11</v>
+        <v>233</v>
+      </c>
+      <c r="H11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C12" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E12" t="s">
-        <v>135</v>
-      </c>
       <c r="F12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>12</v>
+        <v>233</v>
+      </c>
+      <c r="H12" t="s">
+        <v>234</v>
+      </c>
+      <c r="I12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C13" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="E13" t="s">
-        <v>135</v>
-      </c>
       <c r="F13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>13</v>
+        <v>233</v>
+      </c>
+      <c r="H13" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>135</v>
       </c>
       <c r="B14" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E14" t="s">
-        <v>135</v>
-      </c>
       <c r="F14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>14</v>
+        <v>233</v>
+      </c>
+      <c r="H14" t="s">
+        <v>234</v>
+      </c>
+      <c r="I14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>135</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
-        <v>135</v>
-      </c>
       <c r="F15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>15</v>
+        <v>233</v>
+      </c>
+      <c r="H15" t="s">
+        <v>234</v>
+      </c>
+      <c r="I15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E16" t="s">
-        <v>135</v>
-      </c>
       <c r="F16" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>16</v>
+        <v>233</v>
+      </c>
+      <c r="H16" t="s">
+        <v>234</v>
+      </c>
+      <c r="I16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="C17" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" t="s">
+        <v>233</v>
+      </c>
+      <c r="H17" t="s">
+        <v>234</v>
+      </c>
+      <c r="I17" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>148</v>
+      </c>
+      <c r="I18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" t="s">
         <v>149</v>
       </c>
-      <c r="E17" t="s">
-        <v>135</v>
-      </c>
-      <c r="F17" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" t="s">
-        <v>219</v>
-      </c>
-      <c r="D18" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D19" t="s">
-        <v>151</v>
-      </c>
-      <c r="E19" t="s">
-        <v>135</v>
-      </c>
-      <c r="F19" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>136</v>
+      <c r="I19" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>135</v>
       </c>
       <c r="C20" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E20" t="s">
-        <v>135</v>
-      </c>
-      <c r="F20" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>136</v>
+        <v>152</v>
+      </c>
+      <c r="I20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>135</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
         <v>120</v>
       </c>
-      <c r="E21" t="s">
-        <v>135</v>
-      </c>
-      <c r="F21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>136</v>
+      <c r="I21" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D22" t="s">
         <v>119</v>
       </c>
-      <c r="E22" t="s">
-        <v>135</v>
-      </c>
-      <c r="F22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>136</v>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>135</v>
       </c>
       <c r="C23" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D23" t="s">
         <v>126</v>
       </c>
-      <c r="E23" t="s">
-        <v>135</v>
-      </c>
-      <c r="F23" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>136</v>
+      <c r="I23" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>135</v>
       </c>
       <c r="C24" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D24" t="s">
         <v>25</v>
       </c>
-      <c r="E24" t="s">
-        <v>135</v>
-      </c>
-      <c r="F24" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>136</v>
+      <c r="I24" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="E25" t="s">
-        <v>135</v>
-      </c>
-      <c r="F25" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>136</v>
+      <c r="I25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D26" t="s">
         <v>36</v>
       </c>
-      <c r="E26" t="s">
-        <v>135</v>
-      </c>
-      <c r="F26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>136</v>
+      <c r="I26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>135</v>
       </c>
       <c r="C27" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D27" t="s">
         <v>127</v>
       </c>
-      <c r="E27" t="s">
-        <v>135</v>
-      </c>
-      <c r="F27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>136</v>
+      <c r="I27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>135</v>
       </c>
       <c r="C28" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
       </c>
-      <c r="E28" t="s">
-        <v>135</v>
-      </c>
-      <c r="F28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>136</v>
+      <c r="I28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>135</v>
       </c>
       <c r="C29" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D29" t="s">
         <v>50</v>
       </c>
-      <c r="E29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>136</v>
+      <c r="I29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>135</v>
       </c>
       <c r="C30" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D30" t="s">
         <v>128</v>
       </c>
-      <c r="E30" t="s">
-        <v>135</v>
-      </c>
-      <c r="F30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>136</v>
+      <c r="I30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>135</v>
       </c>
       <c r="C31" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="E31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>136</v>
+      <c r="I31" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>135</v>
       </c>
       <c r="C32" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D32" t="s">
         <v>130</v>
       </c>
-      <c r="E32" t="s">
-        <v>135</v>
-      </c>
-      <c r="F32" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>136</v>
+      <c r="I32" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>135</v>
       </c>
       <c r="C33" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D33" t="s">
         <v>47</v>
       </c>
-      <c r="E33" t="s">
-        <v>135</v>
-      </c>
-      <c r="F33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>136</v>
+      <c r="I33" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>135</v>
       </c>
       <c r="C34" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D34" t="s">
         <v>34</v>
       </c>
-      <c r="E34" t="s">
-        <v>135</v>
-      </c>
-      <c r="F34" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
+      <c r="I34" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>135</v>
       </c>
       <c r="C35" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D35" t="s">
         <v>131</v>
       </c>
-      <c r="E35" t="s">
-        <v>135</v>
-      </c>
-      <c r="F35" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>136</v>
+      <c r="I35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>135</v>
       </c>
       <c r="C36" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D36" t="s">
         <v>133</v>
       </c>
-      <c r="E36" t="s">
-        <v>135</v>
-      </c>
-      <c r="F36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>136</v>
+      <c r="I36" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>135</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D37" t="s">
         <v>48</v>
       </c>
-      <c r="E37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>136</v>
+      <c r="I37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>135</v>
       </c>
       <c r="C38" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D38" t="s">
         <v>132</v>
       </c>
-      <c r="E38" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>136</v>
+      <c r="I38" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D39" t="s">
         <v>49</v>
       </c>
-      <c r="E39" t="s">
-        <v>135</v>
-      </c>
-      <c r="F39" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>136</v>
+      <c r="I39" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>135</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D40" t="s">
+        <v>192</v>
+      </c>
+      <c r="I40" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>135</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="s">
+        <v>193</v>
+      </c>
+      <c r="I41" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" t="s">
         <v>194</v>
       </c>
-      <c r="E40" t="s">
-        <v>135</v>
-      </c>
-      <c r="F40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" t="s">
-        <v>220</v>
-      </c>
-      <c r="D41" t="s">
-        <v>195</v>
-      </c>
-      <c r="E41" t="s">
-        <v>135</v>
-      </c>
-      <c r="F41" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>136</v>
-      </c>
-      <c r="C42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D42" t="s">
-        <v>196</v>
-      </c>
-      <c r="E42" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>136</v>
+      <c r="I42" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>220</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
         <v>121</v>
       </c>
-      <c r="E43" t="s">
-        <v>135</v>
-      </c>
-      <c r="F43" t="s">
-        <v>134</v>
+      <c r="I43" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/チケットの検討.xlsx
+++ b/チケットの検討.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_ftp\vm-centos7\srv\docker\redmine\home\redmine\data\plugins\progress_manage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\progress_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26243A4E-0A01-4604-92B2-337FE40EAD7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E482AD-DE1B-4546-BDB4-31E323F8F547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="作業単位一覧表" sheetId="1" r:id="rId1"/>
-    <sheet name="チケット候補" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="886" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="233">
   <si>
     <t>組織図</t>
     <rPh sb="0" eb="3">
@@ -2160,23 +2159,6 @@
     <t>テスト仕様およびエビデンス</t>
     <rPh sb="3" eb="5">
       <t>シヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>01.要件定義</t>
-    <rPh sb="3" eb="7">
-      <t>ヨウケンテイギ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>02.外部設計</t>
-    <rPh sb="3" eb="5">
-      <t>ガイブ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>セッケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2818,29 +2800,29 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.8984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.09765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.59765625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.09765625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.09765625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
         <v>139</v>
       </c>
@@ -2857,7 +2839,7 @@
         <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="L1" t="s">
         <v>137</v>
@@ -2866,37 +2848,37 @@
         <v>138</v>
       </c>
       <c r="N1" t="s">
+        <v>221</v>
+      </c>
+      <c r="O1" t="s">
+        <v>222</v>
+      </c>
+      <c r="P1" t="s">
         <v>223</v>
-      </c>
-      <c r="O1" t="s">
-        <v>224</v>
-      </c>
-      <c r="P1" t="s">
-        <v>225</v>
       </c>
       <c r="Q1" t="s">
         <v>136</v>
       </c>
       <c r="R1" t="s">
+        <v>224</v>
+      </c>
+      <c r="S1" t="s">
+        <v>225</v>
+      </c>
+      <c r="T1" t="s">
         <v>226</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>227</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>228</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>229</v>
       </c>
-      <c r="V1" t="s">
-        <v>230</v>
-      </c>
-      <c r="W1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
@@ -2923,7 +2905,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="2" t="s">
@@ -2946,7 +2928,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
@@ -2969,7 +2951,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="9"/>
       <c r="B5" s="11" t="s">
         <v>10</v>
@@ -2994,7 +2976,7 @@
       </c>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="2" t="s">
@@ -3017,7 +2999,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="2" t="s">
@@ -3040,7 +3022,7 @@
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="2" t="s">
@@ -3063,7 +3045,7 @@
       </c>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="2" t="s">
@@ -3086,7 +3068,7 @@
       </c>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="2" t="s">
@@ -3109,7 +3091,7 @@
       </c>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
@@ -3132,7 +3114,7 @@
       </c>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="9"/>
       <c r="B12" s="11" t="s">
         <v>11</v>
@@ -3157,7 +3139,7 @@
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="2" t="s">
@@ -3180,7 +3162,7 @@
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
@@ -3203,7 +3185,7 @@
       </c>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="2" t="s">
@@ -3226,7 +3208,7 @@
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="2" t="s">
@@ -3249,7 +3231,7 @@
       </c>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="2" t="s">
@@ -3272,7 +3254,7 @@
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
@@ -3295,7 +3277,7 @@
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="2" t="s">
@@ -3318,7 +3300,7 @@
       </c>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="2" t="s">
@@ -3341,7 +3323,7 @@
       </c>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="2" t="s">
@@ -3364,7 +3346,7 @@
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="11" t="s">
         <v>13</v>
       </c>
@@ -3393,27 +3375,27 @@
         <v>135</v>
       </c>
       <c r="K22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s">
         <v>134</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" ref="M3:M43" si="4">C22</f>
+        <f t="shared" ref="M22:M43" si="4">C22</f>
         <v>業務フロー図</v>
       </c>
       <c r="O22" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q22" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" ref="R3:R43" si="5">G22</f>
+        <f t="shared" ref="R22:R43" si="5">G22</f>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="2" t="s">
@@ -3438,7 +3420,7 @@
         <v>135</v>
       </c>
       <c r="K23" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s">
         <v>134</v>
@@ -3448,17 +3430,17 @@
         <v>システム化課題一覧表</v>
       </c>
       <c r="O23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q23" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R23" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
@@ -3483,7 +3465,7 @@
         <v>135</v>
       </c>
       <c r="K24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s">
         <v>134</v>
@@ -3493,17 +3475,17 @@
         <v>セキュリティ要件書</v>
       </c>
       <c r="O24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R24" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A25" s="9"/>
       <c r="B25" s="11" t="s">
         <v>15</v>
@@ -3530,7 +3512,7 @@
         <v>135</v>
       </c>
       <c r="K25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s">
         <v>134</v>
@@ -3540,17 +3522,17 @@
         <v>システム構成図</v>
       </c>
       <c r="O25" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R25" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="2" t="s">
@@ -3575,7 +3557,7 @@
         <v>135</v>
       </c>
       <c r="K26" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
         <v>134</v>
@@ -3585,17 +3567,17 @@
         <v>ＤＢ一覧表</v>
       </c>
       <c r="O26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q26" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R26" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="12" t="s">
@@ -3620,7 +3602,7 @@
         <v>135</v>
       </c>
       <c r="K27" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L27" t="s">
         <v>134</v>
@@ -3630,17 +3612,17 @@
         <v>テーブル一覧表</v>
       </c>
       <c r="O27" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R27" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="12" t="s">
@@ -3665,7 +3647,7 @@
         <v>135</v>
       </c>
       <c r="K28" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L28" t="s">
         <v>134</v>
@@ -3675,17 +3657,17 @@
         <v>ＩＦ一覧表</v>
       </c>
       <c r="O28" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q28" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R28" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A29" s="9"/>
       <c r="B29" s="11" t="s">
         <v>18</v>
@@ -3712,7 +3694,7 @@
         <v>135</v>
       </c>
       <c r="K29" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s">
         <v>134</v>
@@ -3722,17 +3704,17 @@
         <v>バッチ一覧表</v>
       </c>
       <c r="O29" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q29" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R29" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="12" t="s">
@@ -3757,7 +3739,7 @@
         <v>135</v>
       </c>
       <c r="K30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L30" t="s">
         <v>134</v>
@@ -3767,17 +3749,17 @@
         <v>ジョブフロー図</v>
       </c>
       <c r="O30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q30" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R30" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12" t="s">
@@ -3802,7 +3784,7 @@
         <v>135</v>
       </c>
       <c r="K31" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L31" t="s">
         <v>134</v>
@@ -3812,17 +3794,17 @@
         <v>ジョブスケジュール表</v>
       </c>
       <c r="O31" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R31" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="12" t="s">
@@ -3847,7 +3829,7 @@
         <v>135</v>
       </c>
       <c r="K32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s">
         <v>134</v>
@@ -3857,17 +3839,17 @@
         <v>画面一覧表</v>
       </c>
       <c r="O32" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q32" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R32" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="12" t="s">
@@ -3892,7 +3874,7 @@
         <v>135</v>
       </c>
       <c r="K33" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s">
         <v>134</v>
@@ -3902,17 +3884,17 @@
         <v>画面帳票遷移図</v>
       </c>
       <c r="O33" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q33" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R33" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
@@ -3937,7 +3919,7 @@
         <v>135</v>
       </c>
       <c r="K34" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s">
         <v>134</v>
@@ -3947,17 +3929,17 @@
         <v>帳票一覧表</v>
       </c>
       <c r="O34" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q34" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R34" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="2" t="s">
@@ -3982,7 +3964,7 @@
         <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L35" t="s">
         <v>134</v>
@@ -3992,17 +3974,17 @@
         <v>画面デモ</v>
       </c>
       <c r="O35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q35" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R35" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
         <v>78</v>
@@ -4029,7 +4011,7 @@
         <v>135</v>
       </c>
       <c r="K36" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L36" t="s">
         <v>134</v>
@@ -4039,17 +4021,17 @@
         <v>（各技術検証資料）</v>
       </c>
       <c r="O36" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q36" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R36" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="9"/>
       <c r="B37" s="11" t="s">
         <v>22</v>
@@ -4076,7 +4058,7 @@
         <v>135</v>
       </c>
       <c r="K37" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L37" t="s">
         <v>134</v>
@@ -4086,17 +4068,17 @@
         <v>試験要件定義表</v>
       </c>
       <c r="O37" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q37" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R37" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="2" t="s">
@@ -4121,7 +4103,7 @@
         <v>135</v>
       </c>
       <c r="K38" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L38" t="s">
         <v>134</v>
@@ -4131,17 +4113,17 @@
         <v>移行要件定義書</v>
       </c>
       <c r="O38" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R38" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
@@ -4166,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="K39" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L39" t="s">
         <v>134</v>
@@ -4176,17 +4158,17 @@
         <v>運用要件定義書</v>
       </c>
       <c r="O39" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q39" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R39" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="2" t="s">
@@ -4211,7 +4193,7 @@
         <v>135</v>
       </c>
       <c r="K40" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L40" t="s">
         <v>134</v>
@@ -4221,17 +4203,17 @@
         <v>開発体制図</v>
       </c>
       <c r="O40" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q40" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R40" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
@@ -4256,7 +4238,7 @@
         <v>135</v>
       </c>
       <c r="K41" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L41" t="s">
         <v>134</v>
@@ -4266,17 +4248,17 @@
         <v>概算見積書</v>
       </c>
       <c r="O41" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q41" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R41" t="str">
         <f t="shared" si="5"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="11" t="s">
         <v>23</v>
       </c>
@@ -4305,7 +4287,7 @@
         <v>135</v>
       </c>
       <c r="K42" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L42" t="s">
         <v>134</v>
@@ -4315,17 +4297,17 @@
         <v>（各機能設計書）</v>
       </c>
       <c r="O42" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q42" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R42" t="str">
         <f t="shared" si="5"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="9"/>
       <c r="B43" s="11" t="s">
         <v>27</v>
@@ -4352,7 +4334,7 @@
         <v>135</v>
       </c>
       <c r="K43" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L43" t="s">
         <v>134</v>
@@ -4362,17 +4344,17 @@
         <v>テーブル一覧表</v>
       </c>
       <c r="O43" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q43" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R43" t="str">
         <f t="shared" si="5"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="2" t="s">
@@ -4397,27 +4379,27 @@
         <v>135</v>
       </c>
       <c r="K44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L44" t="s">
         <v>134</v>
       </c>
       <c r="M44" s="1" t="str">
-        <f t="shared" ref="M44:M105" si="6">C44</f>
+        <f t="shared" ref="M44:M99" si="6">C44</f>
         <v>ＥＲ図</v>
       </c>
       <c r="O44" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" ref="R44:R105" si="7">G44</f>
+        <f t="shared" ref="R44:R99" si="7">G44</f>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A45" s="9"/>
       <c r="B45" s="9"/>
       <c r="C45" s="2" t="s">
@@ -4442,7 +4424,7 @@
         <v>135</v>
       </c>
       <c r="K45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L45" t="s">
         <v>134</v>
@@ -4452,17 +4434,17 @@
         <v>（各テーブル定義書）</v>
       </c>
       <c r="O45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R45" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="2" t="s">
@@ -4487,7 +4469,7 @@
         <v>135</v>
       </c>
       <c r="K46" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L46" t="s">
         <v>134</v>
@@ -4497,17 +4479,17 @@
         <v>区分定義書</v>
       </c>
       <c r="O46" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q46" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R46" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="9"/>
       <c r="B47" s="11" t="s">
         <v>31</v>
@@ -4534,7 +4516,7 @@
         <v>135</v>
       </c>
       <c r="K47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s">
         <v>134</v>
@@ -4544,17 +4526,17 @@
         <v>ＩＦ一覧表</v>
       </c>
       <c r="O47" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q47" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R47" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="2" t="s">
@@ -4579,7 +4561,7 @@
         <v>135</v>
       </c>
       <c r="K48" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L48" t="s">
         <v>134</v>
@@ -4589,17 +4571,17 @@
         <v>（各ＩＦ定義書）</v>
       </c>
       <c r="O48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R48" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A49" s="9"/>
       <c r="B49" s="11" t="s">
         <v>32</v>
@@ -4626,7 +4608,7 @@
         <v>135</v>
       </c>
       <c r="K49" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L49" t="s">
         <v>134</v>
@@ -4636,17 +4618,17 @@
         <v>バッチ共通仕様書</v>
       </c>
       <c r="O49" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q49" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R49" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="12" t="s">
@@ -4671,7 +4653,7 @@
         <v>135</v>
       </c>
       <c r="K50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L50" t="s">
         <v>134</v>
@@ -4681,17 +4663,17 @@
         <v>バッチ一覧表</v>
       </c>
       <c r="O50" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R50" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="12" t="s">
@@ -4716,7 +4698,7 @@
         <v>135</v>
       </c>
       <c r="K51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L51" t="s">
         <v>134</v>
@@ -4726,17 +4708,17 @@
         <v>ジョブフロー図</v>
       </c>
       <c r="O51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q51" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R51" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="12" t="s">
@@ -4761,7 +4743,7 @@
         <v>135</v>
       </c>
       <c r="K52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L52" t="s">
         <v>134</v>
@@ -4771,17 +4753,17 @@
         <v>ジョブスケジュール表</v>
       </c>
       <c r="O52" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R52" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="2" t="s">
@@ -4806,7 +4788,7 @@
         <v>135</v>
       </c>
       <c r="K53" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L53" t="s">
         <v>134</v>
@@ -4816,17 +4798,17 @@
         <v>（各バッチ設計書）</v>
       </c>
       <c r="O53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q53" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R53" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="9"/>
       <c r="B54" s="11" t="s">
         <v>33</v>
@@ -4853,7 +4835,7 @@
         <v>135</v>
       </c>
       <c r="K54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L54" t="s">
         <v>134</v>
@@ -4863,17 +4845,17 @@
         <v>画面共通仕様書</v>
       </c>
       <c r="O54" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q54" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R54" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="12" t="s">
@@ -4898,7 +4880,7 @@
         <v>135</v>
       </c>
       <c r="K55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L55" t="s">
         <v>134</v>
@@ -4908,17 +4890,17 @@
         <v>画面一覧表</v>
       </c>
       <c r="O55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q55" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R55" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="12" t="s">
@@ -4943,7 +4925,7 @@
         <v>135</v>
       </c>
       <c r="K56" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L56" t="s">
         <v>134</v>
@@ -4953,17 +4935,17 @@
         <v>画面帳票遷移図</v>
       </c>
       <c r="O56" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R56" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="2" t="s">
@@ -4988,7 +4970,7 @@
         <v>135</v>
       </c>
       <c r="K57" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L57" t="s">
         <v>134</v>
@@ -4998,17 +4980,17 @@
         <v>（各画面設計書）</v>
       </c>
       <c r="O57" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q57" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R57" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58" s="9"/>
       <c r="B58" s="11" t="s">
         <v>35</v>
@@ -5035,7 +5017,7 @@
         <v>135</v>
       </c>
       <c r="K58" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L58" t="s">
         <v>134</v>
@@ -5045,17 +5027,17 @@
         <v>帳票一覧表</v>
       </c>
       <c r="O58" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q58" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R58" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="2" t="s">
@@ -5080,7 +5062,7 @@
         <v>135</v>
       </c>
       <c r="K59" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L59" t="s">
         <v>134</v>
@@ -5090,17 +5072,17 @@
         <v>（各帳票設計書）</v>
       </c>
       <c r="O59" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q59" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R59" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A60" s="9"/>
       <c r="B60" s="11" t="s">
         <v>38</v>
@@ -5127,7 +5109,7 @@
         <v>135</v>
       </c>
       <c r="K60" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L60" t="s">
         <v>134</v>
@@ -5137,17 +5119,17 @@
         <v>サーバ移行設計書</v>
       </c>
       <c r="O60" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q60" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R60" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="14" t="s">
@@ -5172,7 +5154,7 @@
         <v>135</v>
       </c>
       <c r="K61" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L61" t="s">
         <v>134</v>
@@ -5182,17 +5164,17 @@
         <v>データ移行設計書</v>
       </c>
       <c r="O61" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q61" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R61" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="14" t="s">
@@ -5217,7 +5199,7 @@
         <v>135</v>
       </c>
       <c r="K62" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L62" t="s">
         <v>134</v>
@@ -5227,17 +5209,17 @@
         <v>本番リリース設計書</v>
       </c>
       <c r="O62" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q62" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R62" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A63" s="10"/>
       <c r="B63" s="2" t="s">
         <v>37</v>
@@ -5264,7 +5246,7 @@
         <v>135</v>
       </c>
       <c r="K63" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L63" t="s">
         <v>134</v>
@@ -5274,17 +5256,17 @@
         <v>詳細見積書</v>
       </c>
       <c r="O63" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q63" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R63" t="str">
         <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A64" s="11" t="s">
         <v>39</v>
       </c>
@@ -5313,7 +5295,7 @@
         <v>135</v>
       </c>
       <c r="K64" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L64" t="s">
         <v>134</v>
@@ -5323,17 +5305,17 @@
         <v>ＤＢ物理設計書</v>
       </c>
       <c r="O64" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R64" t="str">
         <f t="shared" si="7"/>
         <v>03.内部設計</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="9"/>
       <c r="B65" s="2" t="s">
         <v>53</v>
@@ -5360,7 +5342,7 @@
         <v>135</v>
       </c>
       <c r="K65" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L65" t="s">
         <v>134</v>
@@ -5370,17 +5352,17 @@
         <v>（特記プラグラム仕様書）</v>
       </c>
       <c r="O65" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q65" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R65" t="str">
         <f t="shared" si="7"/>
         <v>03.内部設計</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" s="9"/>
       <c r="B66" s="2" t="s">
         <v>54</v>
@@ -5407,7 +5389,7 @@
         <v>135</v>
       </c>
       <c r="K66" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L66" t="s">
         <v>134</v>
@@ -5417,17 +5399,17 @@
         <v>（特記プラグラム仕様書）</v>
       </c>
       <c r="O66" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q66" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R66" t="str">
         <f t="shared" si="7"/>
         <v>03.内部設計</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" s="10"/>
       <c r="B67" s="2" t="s">
         <v>55</v>
@@ -5454,7 +5436,7 @@
         <v>135</v>
       </c>
       <c r="K67" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L67" t="s">
         <v>134</v>
@@ -5464,17 +5446,17 @@
         <v>（特記プラグラム仕様書）</v>
       </c>
       <c r="O67" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q67" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R67" t="str">
         <f t="shared" si="7"/>
         <v>03.内部設計</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="11" t="s">
         <v>58</v>
       </c>
@@ -5501,7 +5483,7 @@
         <v>135</v>
       </c>
       <c r="K68" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L68" t="s">
         <v>134</v>
@@ -5511,17 +5493,17 @@
         <v>メッセージ一覧表</v>
       </c>
       <c r="O68" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q68" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R68" t="str">
         <f t="shared" si="7"/>
         <v>04.ＰＧ設計</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69" s="9"/>
       <c r="B69" s="2" t="s">
         <v>59</v>
@@ -5548,7 +5530,7 @@
         <v>135</v>
       </c>
       <c r="K69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L69" t="s">
         <v>134</v>
@@ -5558,17 +5540,17 @@
         <v>バッチＰＧ設計書</v>
       </c>
       <c r="O69" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q69" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R69" t="str">
         <f t="shared" si="7"/>
         <v>04.ＰＧ設計</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70" s="9"/>
       <c r="B70" s="2" t="s">
         <v>61</v>
@@ -5595,7 +5577,7 @@
         <v>135</v>
       </c>
       <c r="K70" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L70" t="s">
         <v>134</v>
@@ -5605,17 +5587,17 @@
         <v>画面ＰＧ設計書</v>
       </c>
       <c r="O70" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q70" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R70" t="str">
         <f t="shared" si="7"/>
         <v>04.ＰＧ設計</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71" s="10"/>
       <c r="B71" s="2" t="s">
         <v>62</v>
@@ -5642,7 +5624,7 @@
         <v>135</v>
       </c>
       <c r="K71" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L71" t="s">
         <v>134</v>
@@ -5652,17 +5634,17 @@
         <v>帳票ＰＧ設計書</v>
       </c>
       <c r="O71" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q71" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R71" t="str">
         <f t="shared" si="7"/>
         <v>04.ＰＧ設計</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="11" t="s">
         <v>68</v>
       </c>
@@ -5691,7 +5673,7 @@
         <v>135</v>
       </c>
       <c r="K72" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L72" t="s">
         <v>134</v>
@@ -5701,17 +5683,17 @@
         <v>開発環境構築手順書</v>
       </c>
       <c r="O72" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q72" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R72" t="str">
         <f t="shared" si="7"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="2" t="s">
@@ -5736,7 +5718,7 @@
         <v>135</v>
       </c>
       <c r="K73" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L73" t="s">
         <v>134</v>
@@ -5746,17 +5728,17 @@
         <v>（各インストーラ）</v>
       </c>
       <c r="O73" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R73" t="str">
         <f t="shared" si="7"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="9"/>
       <c r="B74" s="2" t="s">
         <v>73</v>
@@ -5783,7 +5765,7 @@
         <v>135</v>
       </c>
       <c r="K74" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L74" t="s">
         <v>134</v>
@@ -5793,17 +5775,17 @@
         <v>製造規約書</v>
       </c>
       <c r="O74" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q74" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R74" t="str">
         <f t="shared" si="7"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="9"/>
       <c r="B75" s="11" t="s">
         <v>145</v>
@@ -5830,7 +5812,7 @@
         <v>135</v>
       </c>
       <c r="K75" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L75" t="s">
         <v>134</v>
@@ -5840,17 +5822,17 @@
         <v>開発サーバ環境構築手順書</v>
       </c>
       <c r="O75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q75" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R75" t="str">
         <f t="shared" si="7"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="2" t="s">
@@ -5875,7 +5857,7 @@
         <v>135</v>
       </c>
       <c r="K76" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L76" t="s">
         <v>134</v>
@@ -5885,17 +5867,17 @@
         <v>（各DBスクリプト）</v>
       </c>
       <c r="O76" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q76" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R76" t="str">
         <f t="shared" si="7"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="2" t="s">
@@ -5920,7 +5902,7 @@
         <v>135</v>
       </c>
       <c r="K77" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L77" t="s">
         <v>134</v>
@@ -5930,17 +5912,17 @@
         <v>（各DBダンプ）</v>
       </c>
       <c r="O77" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q77" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R77" t="str">
         <f t="shared" si="7"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78" s="9"/>
       <c r="B78" s="2" t="s">
         <v>213</v>
@@ -5967,7 +5949,7 @@
         <v>135</v>
       </c>
       <c r="K78" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L78" t="s">
         <v>134</v>
@@ -5977,17 +5959,17 @@
         <v>（各技術検討資料）</v>
       </c>
       <c r="O78" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q78" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R78" t="str">
         <f t="shared" si="7"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79" s="10"/>
       <c r="B79" s="2" t="s">
         <v>75</v>
@@ -6012,7 +5994,7 @@
         <v>135</v>
       </c>
       <c r="K79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L79" t="s">
         <v>134</v>
@@ -6022,17 +6004,17 @@
         <v>0</v>
       </c>
       <c r="O79" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q79" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R79" t="str">
         <f t="shared" si="7"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
         <v>80</v>
       </c>
@@ -6059,7 +6041,7 @@
         <v>135</v>
       </c>
       <c r="K80" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L80" t="s">
         <v>134</v>
@@ -6069,17 +6051,17 @@
         <v>（各単体試験仕様書）</v>
       </c>
       <c r="O80" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q80" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R80" t="str">
         <f t="shared" si="7"/>
         <v>06.単体試験</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81" s="11" t="s">
         <v>82</v>
       </c>
@@ -6106,7 +6088,7 @@
         <v>135</v>
       </c>
       <c r="K81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L81" t="s">
         <v>134</v>
@@ -6116,17 +6098,17 @@
         <v>結合試験計画書</v>
       </c>
       <c r="O81" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q81" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R81" t="str">
         <f t="shared" si="7"/>
         <v>07.結合試験</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="2" t="s">
@@ -6151,7 +6133,7 @@
         <v>135</v>
       </c>
       <c r="K82" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L82" t="s">
         <v>134</v>
@@ -6161,17 +6143,17 @@
         <v>（各結合試験仕様書）</v>
       </c>
       <c r="O82" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q82" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R82" t="str">
         <f t="shared" si="7"/>
         <v>07.結合試験</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A83" s="11" t="s">
         <v>85</v>
       </c>
@@ -6200,7 +6182,7 @@
         <v>135</v>
       </c>
       <c r="K83" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L83" t="s">
         <v>134</v>
@@ -6210,17 +6192,17 @@
         <v>サーバ移行リハ手順書</v>
       </c>
       <c r="O83" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q83" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R83" t="str">
         <f t="shared" si="7"/>
         <v>08.総合試験</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="14" t="s">
@@ -6245,7 +6227,7 @@
         <v>135</v>
       </c>
       <c r="K84" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L84" t="s">
         <v>134</v>
@@ -6255,17 +6237,17 @@
         <v>データ移行リハ手順書</v>
       </c>
       <c r="O84" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q84" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R84" t="str">
         <f t="shared" si="7"/>
         <v>08.総合試験</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="14" t="s">
@@ -6290,7 +6272,7 @@
         <v>135</v>
       </c>
       <c r="K85" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L85" t="s">
         <v>134</v>
@@ -6300,17 +6282,17 @@
         <v>モジュール移行リハ手順書</v>
       </c>
       <c r="O85" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q85" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R85" t="str">
         <f t="shared" si="7"/>
         <v>08.総合試験</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A86" s="9"/>
       <c r="B86" s="11" t="s">
         <v>83</v>
@@ -6337,7 +6319,7 @@
         <v>135</v>
       </c>
       <c r="K86" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L86" t="s">
         <v>134</v>
@@ -6347,17 +6329,17 @@
         <v>シナリオテスト計画書</v>
       </c>
       <c r="O86" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q86" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R86" t="str">
         <f t="shared" si="7"/>
         <v>08.総合試験</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="2" t="s">
@@ -6382,7 +6364,7 @@
         <v>135</v>
       </c>
       <c r="K87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L87" t="s">
         <v>134</v>
@@ -6392,17 +6374,17 @@
         <v>（各シナリオテスト仕様書）</v>
       </c>
       <c r="O87" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q87" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R87" t="str">
         <f t="shared" si="7"/>
         <v>08.総合試験</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88" s="9"/>
       <c r="B88" s="11" t="s">
         <v>154</v>
@@ -6429,7 +6411,7 @@
         <v>135</v>
       </c>
       <c r="K88" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L88" t="s">
         <v>134</v>
@@ -6439,17 +6421,17 @@
         <v>ストレステスト計画書</v>
       </c>
       <c r="O88" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q88" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R88" t="str">
         <f t="shared" si="7"/>
         <v>08.総合試験</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="2" t="s">
@@ -6474,7 +6456,7 @@
         <v>135</v>
       </c>
       <c r="K89" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L89" t="s">
         <v>134</v>
@@ -6484,17 +6466,17 @@
         <v>（各ストレステスト仕様書）</v>
       </c>
       <c r="O89" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q89" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R89" t="str">
         <f t="shared" si="7"/>
         <v>08.総合試験</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90" s="9"/>
       <c r="B90" s="11" t="s">
         <v>155</v>
@@ -6521,7 +6503,7 @@
         <v>135</v>
       </c>
       <c r="K90" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L90" t="s">
         <v>134</v>
@@ -6531,17 +6513,17 @@
         <v>現新比較テスト計画書</v>
       </c>
       <c r="O90" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q90" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R90" t="str">
         <f t="shared" si="7"/>
         <v>08.総合試験</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="2" t="s">
@@ -6566,7 +6548,7 @@
         <v>135</v>
       </c>
       <c r="K91" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L91" t="s">
         <v>134</v>
@@ -6576,17 +6558,17 @@
         <v>（各現新比較テスト仕様書）</v>
       </c>
       <c r="O91" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q91" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R91" t="str">
         <f t="shared" si="7"/>
         <v>08.総合試験</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92" s="10"/>
       <c r="B92" s="2" t="s">
         <v>84</v>
@@ -6613,7 +6595,7 @@
         <v>135</v>
       </c>
       <c r="K92" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L92" t="s">
         <v>134</v>
@@ -6623,17 +6605,17 @@
         <v>（各回帰テスト仕様書）</v>
       </c>
       <c r="O92" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q92" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R92" t="str">
         <f t="shared" si="7"/>
         <v>08.総合試験</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
@@ -6660,7 +6642,7 @@
         <v>135</v>
       </c>
       <c r="K93" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L93" t="s">
         <v>134</v>
@@ -6670,17 +6652,17 @@
         <v>不具合管理表</v>
       </c>
       <c r="O93" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q93" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R93" t="str">
         <f t="shared" si="7"/>
         <v>09.受入検査</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A94" s="11" t="s">
         <v>103</v>
       </c>
@@ -6707,7 +6689,7 @@
         <v>135</v>
       </c>
       <c r="K94" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L94" t="s">
         <v>134</v>
@@ -6717,17 +6699,17 @@
         <v>サーバ移行手順書</v>
       </c>
       <c r="O94" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q94" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R94" t="str">
         <f t="shared" si="7"/>
         <v>10.本番移行</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="14" t="s">
@@ -6752,7 +6734,7 @@
         <v>135</v>
       </c>
       <c r="K95" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L95" t="s">
         <v>134</v>
@@ -6762,17 +6744,17 @@
         <v>データ移行手順書</v>
       </c>
       <c r="O95" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q95" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R95" t="str">
         <f t="shared" si="7"/>
         <v>10.本番移行</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="14" t="s">
@@ -6797,7 +6779,7 @@
         <v>135</v>
       </c>
       <c r="K96" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L96" t="s">
         <v>134</v>
@@ -6807,17 +6789,17 @@
         <v>モジュール移行手順書</v>
       </c>
       <c r="O96" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q96" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R96" t="str">
         <f t="shared" si="7"/>
         <v>10.本番移行</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A97" s="11" t="s">
         <v>104</v>
       </c>
@@ -6825,7 +6807,7 @@
         <v>108</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>198</v>
@@ -6846,7 +6828,7 @@
         <v>135</v>
       </c>
       <c r="K97" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L97" t="s">
         <v>134</v>
@@ -6856,21 +6838,21 @@
         <v>（リリース手順書）</v>
       </c>
       <c r="O97" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q97" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R97" t="str">
         <f t="shared" si="7"/>
         <v>11.運用保守</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="2" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>200</v>
@@ -6891,7 +6873,7 @@
         <v>135</v>
       </c>
       <c r="K98" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L98" t="s">
         <v>134</v>
@@ -6901,21 +6883,21 @@
         <v>（投入データ）</v>
       </c>
       <c r="O98" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q98" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R98" t="str">
         <f t="shared" si="7"/>
         <v>11.運用保守</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>199</v>
@@ -6936,7 +6918,7 @@
         <v>135</v>
       </c>
       <c r="K99" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="L99" t="s">
         <v>134</v>
@@ -6946,17 +6928,17 @@
         <v>（リリースモジュール）</v>
       </c>
       <c r="O99" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="Q99" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="R99" t="str">
         <f t="shared" si="7"/>
         <v>11.運用保守</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A100" s="11" t="s">
         <v>109</v>
       </c>
@@ -6979,7 +6961,7 @@
       </c>
       <c r="M100" s="1"/>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101" s="9"/>
       <c r="B101" s="2" t="s">
         <v>111</v>
@@ -7000,7 +6982,7 @@
       </c>
       <c r="M101" s="1"/>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102" s="9"/>
       <c r="B102" s="2" t="s">
         <v>112</v>
@@ -7021,7 +7003,7 @@
       </c>
       <c r="M102" s="1"/>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A103" s="9"/>
       <c r="B103" s="2" t="s">
         <v>113</v>
@@ -7042,7 +7024,7 @@
       </c>
       <c r="M103" s="1"/>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A104" s="9"/>
       <c r="B104" s="2" t="s">
         <v>114</v>
@@ -7063,7 +7045,7 @@
       </c>
       <c r="M104" s="1"/>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A105" s="10"/>
       <c r="B105" s="2" t="s">
         <v>115</v>
@@ -7084,7 +7066,7 @@
       </c>
       <c r="M105" s="1"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -7106,811 +7088,4 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CAB199F-6FF3-418B-91BC-4C68101001B8}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection sqref="A1:N43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.25" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F1" t="s">
-        <v>224</v>
-      </c>
-      <c r="G1" t="s">
-        <v>225</v>
-      </c>
-      <c r="H1" t="s">
-        <v>136</v>
-      </c>
-      <c r="I1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J1" t="s">
-        <v>227</v>
-      </c>
-      <c r="K1" t="s">
-        <v>228</v>
-      </c>
-      <c r="L1" t="s">
-        <v>229</v>
-      </c>
-      <c r="M1" t="s">
-        <v>230</v>
-      </c>
-      <c r="N1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H2" t="s">
-        <v>234</v>
-      </c>
-      <c r="I2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" t="s">
-        <v>232</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="F5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5" t="s">
-        <v>234</v>
-      </c>
-      <c r="I5" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" t="s">
-        <v>232</v>
-      </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" t="s">
-        <v>233</v>
-      </c>
-      <c r="H6" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" t="s">
-        <v>234</v>
-      </c>
-      <c r="I7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>135</v>
-      </c>
-      <c r="B8" t="s">
-        <v>232</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="F8" t="s">
-        <v>233</v>
-      </c>
-      <c r="H8" t="s">
-        <v>234</v>
-      </c>
-      <c r="I8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C9" t="s">
-        <v>134</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F9" t="s">
-        <v>233</v>
-      </c>
-      <c r="H9" t="s">
-        <v>234</v>
-      </c>
-      <c r="I9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F10" t="s">
-        <v>233</v>
-      </c>
-      <c r="H10" t="s">
-        <v>234</v>
-      </c>
-      <c r="I10" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B11" t="s">
-        <v>232</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" t="s">
-        <v>233</v>
-      </c>
-      <c r="H11" t="s">
-        <v>234</v>
-      </c>
-      <c r="I11" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F12" t="s">
-        <v>233</v>
-      </c>
-      <c r="H12" t="s">
-        <v>234</v>
-      </c>
-      <c r="I12" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" t="s">
-        <v>232</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F13" t="s">
-        <v>233</v>
-      </c>
-      <c r="H13" t="s">
-        <v>234</v>
-      </c>
-      <c r="I13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>135</v>
-      </c>
-      <c r="B14" t="s">
-        <v>232</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="F14" t="s">
-        <v>233</v>
-      </c>
-      <c r="H14" t="s">
-        <v>234</v>
-      </c>
-      <c r="I14" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>233</v>
-      </c>
-      <c r="H15" t="s">
-        <v>234</v>
-      </c>
-      <c r="I15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B16" t="s">
-        <v>232</v>
-      </c>
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s">
-        <v>233</v>
-      </c>
-      <c r="H16" t="s">
-        <v>234</v>
-      </c>
-      <c r="I16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" t="s">
-        <v>134</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F17" t="s">
-        <v>233</v>
-      </c>
-      <c r="H17" t="s">
-        <v>234</v>
-      </c>
-      <c r="I17" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" t="s">
-        <v>148</v>
-      </c>
-      <c r="I18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" t="s">
-        <v>120</v>
-      </c>
-      <c r="I21" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" t="s">
-        <v>119</v>
-      </c>
-      <c r="I22" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>135</v>
-      </c>
-      <c r="C23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D23" t="s">
-        <v>126</v>
-      </c>
-      <c r="I23" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>135</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>135</v>
-      </c>
-      <c r="C25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D25" t="s">
-        <v>45</v>
-      </c>
-      <c r="I25" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>135</v>
-      </c>
-      <c r="C26" t="s">
-        <v>134</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>135</v>
-      </c>
-      <c r="C27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D27" t="s">
-        <v>127</v>
-      </c>
-      <c r="I27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C28" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>135</v>
-      </c>
-      <c r="C29" t="s">
-        <v>134</v>
-      </c>
-      <c r="D29" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" t="s">
-        <v>134</v>
-      </c>
-      <c r="D30" t="s">
-        <v>128</v>
-      </c>
-      <c r="I30" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>135</v>
-      </c>
-      <c r="C31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D31" t="s">
-        <v>129</v>
-      </c>
-      <c r="I31" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C32" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" t="s">
-        <v>130</v>
-      </c>
-      <c r="I32" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>135</v>
-      </c>
-      <c r="C33" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C35" t="s">
-        <v>134</v>
-      </c>
-      <c r="D35" t="s">
-        <v>131</v>
-      </c>
-      <c r="I35" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>135</v>
-      </c>
-      <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" t="s">
-        <v>133</v>
-      </c>
-      <c r="I36" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>135</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" t="s">
-        <v>132</v>
-      </c>
-      <c r="I38" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" t="s">
-        <v>134</v>
-      </c>
-      <c r="D39" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C40" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" t="s">
-        <v>192</v>
-      </c>
-      <c r="I40" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" t="s">
-        <v>134</v>
-      </c>
-      <c r="D41" t="s">
-        <v>193</v>
-      </c>
-      <c r="I41" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C42" t="s">
-        <v>134</v>
-      </c>
-      <c r="D42" t="s">
-        <v>194</v>
-      </c>
-      <c r="I42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" t="s">
-        <v>134</v>
-      </c>
-      <c r="D43" t="s">
-        <v>121</v>
-      </c>
-      <c r="I43" t="s">
-        <v>218</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/チケットの検討.xlsx
+++ b/チケットの検討.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\progress_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E482AD-DE1B-4546-BDB4-31E323F8F547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81303BD-8359-45D9-AD97-2F962783C002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="234">
   <si>
     <t>組織図</t>
     <rPh sb="0" eb="3">
@@ -2244,6 +2244,13 @@
   </si>
   <si>
     <t>福尾 利行</t>
+  </si>
+  <si>
+    <t>（プログラム一式）</t>
+    <rPh sb="6" eb="8">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2802,24 +2809,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.09765625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.59765625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.09765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.19921875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -5974,7 +5983,9 @@
       <c r="B79" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C79" s="2"/>
+      <c r="C79" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="D79" s="2" t="s">
         <v>76</v>
       </c>
@@ -5999,9 +6010,9 @@
       <c r="L79" t="s">
         <v>134</v>
       </c>
-      <c r="M79" s="1">
+      <c r="M79" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>（プログラム一式）</v>
       </c>
       <c r="O79" t="s">
         <v>231</v>

--- a/チケットの検討.xlsx
+++ b/チケットの検討.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\progress_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81303BD-8359-45D9-AD97-2F962783C002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1557220C-5030-48C8-9341-EC78320390A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
   </bookViews>
@@ -503,13 +503,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ﾃｰﾌﾞﾙｽﾍﾟｰｽ/初期化ﾊﾟﾗﾒｰﾀ</t>
-    <rPh sb="11" eb="14">
-      <t>ショキカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>02.バッチ設計</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -609,51 +602,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>命名規約/採用するFW/ｸﾗｽ図/ｼｰｹﾝｽ図</t>
-    <rPh sb="0" eb="4">
-      <t>メイメイキヤク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>命名規約/採用するFW/ｸﾗｽ図/ｼｰｹﾝｽ図、webならﾀｸﾞ構成/CSS</t>
-    <rPh sb="5" eb="7">
-      <t>サイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>コウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>命名規約/採用するFW/ｸﾗｽ図/ｼｰｹﾝｽ図</t>
-    <rPh sb="5" eb="7">
-      <t>サイヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ズ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>05.ＰＧ開発</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -710,13 +658,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ﾘﾘｰｽﾀｲﾐﾝｸﾞで更新</t>
-    <rPh sb="11" eb="13">
-      <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>exp/imp/表領域変更</t>
     <rPh sb="8" eb="13">
       <t>ヒョウリョウイキヘンコウ</t>
@@ -791,16 +732,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｶﾚﾝﾀﾞ/ﾕｰｻﾞ/業務/ﾃﾞｰﾀの想定</t>
-    <rPh sb="11" eb="13">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（各シナリオテスト仕様書）</t>
     <rPh sb="1" eb="2">
       <t>カク</t>
@@ -872,22 +803,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>対象機能/負荷/ﾚｽﾎﾟﾝｽの想定</t>
-    <rPh sb="0" eb="2">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>フカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>（各ストレステスト仕様書）</t>
     <rPh sb="1" eb="2">
       <t>カク</t>
@@ -930,28 +845,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実装ﾊﾞｸﾞ/仕様ﾊﾞｸﾞ/変更要望の切り分け</t>
-    <rPh sb="0" eb="2">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨウボウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>結合試験計画書</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -1685,25 +1578,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>直接印刷など、技術的にトライアルが必要な場合</t>
-    <rPh sb="0" eb="2">
-      <t>チョクセツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>インサツ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ギジュツテキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新システムのＩＦ一覧表</t>
     <rPh sb="8" eb="11">
       <t>イチランヒョウ</t>
@@ -1770,16 +1644,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新システムのテーブル一覧表。命名規約（ﾄﾞﾒｲﾝ）についても明記</t>
-    <rPh sb="10" eb="12">
-      <t>イチラン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>新システムのテーブル定義書</t>
     <rPh sb="0" eb="1">
       <t>シン</t>
@@ -2249,6 +2113,148 @@
     <t>（プログラム一式）</t>
     <rPh sb="6" eb="8">
       <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新システムのテーブル一覧表。命名規約（ドメイン）についても明記</t>
+    <rPh sb="10" eb="12">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブルスペース/初期化パラメータ</t>
+    <rPh sb="9" eb="12">
+      <t>ショキカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命名規約/採用するFW/クラス図/シーケンス図</t>
+    <rPh sb="0" eb="4">
+      <t>メイメイキヤク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命名規約/採用するFW/クラス図/シーケンス図、webならタグ構成/CSS</t>
+    <rPh sb="5" eb="7">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命名規約/採用するFW/クラス図/シーケンス図</t>
+    <rPh sb="5" eb="7">
+      <t>サイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ズ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リリースタイミングで更新</t>
+    <rPh sb="10" eb="12">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダ/ユーザ/業務/データの想定</t>
+    <rPh sb="9" eb="11">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象機能/負荷/レスポンスの想定</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ソウテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装バグ/仕様バグ/変更要望の切り分け</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PoC。実装基盤・直接印刷など。技術的にトライアルが必要な場合。</t>
+    <rPh sb="4" eb="6">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョクセツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>インサツ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>ギジュツテキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2812,7 +2818,8 @@
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.19921875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
     <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.09765625" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.59765625" bestFit="1" customWidth="1"/>
@@ -2833,58 +2840,58 @@
   <sheetData>
     <row r="1" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="K1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="M1" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="N1" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="P1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="Q1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="R1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="S1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="T1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="U1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="V1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="W1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
@@ -2898,7 +2905,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F2" s="6" t="str">
         <f>IF(A2="","","mkdir "&amp;A2)</f>
@@ -2909,7 +2916,7 @@
         <v>00.要求分析</v>
       </c>
       <c r="H2" s="6" t="str">
-        <f t="shared" ref="H2" si="0">IF(B2="","",IF(LEFT(B2,1)="（","","mkdir "&amp;G2&amp;"\"&amp;B2))</f>
+        <f>IF(B2="","",IF(LEFT(B2,1)="（","","mkdir "&amp;G2&amp;"\"&amp;B2))</f>
         <v>mkdir 00.要求分析\01.現行業務分析</v>
       </c>
       <c r="M2" s="1"/>
@@ -2921,18 +2928,18 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F3" s="6" t="str">
-        <f t="shared" ref="F3:F66" si="1">IF(A3="","","mkdir "&amp;A3)</f>
+        <f>IF(A3="","","mkdir "&amp;A3)</f>
         <v/>
       </c>
       <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G66" si="2">IF(F3="",G2,A3)</f>
+        <f>IF(F3="",G2,A3)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H3" s="6" t="str">
-        <f t="shared" ref="H3:H66" si="3">IF(B3="","",IF(LEFT(B3,1)="（","","mkdir "&amp;G3&amp;"\"&amp;B3))</f>
+        <f>IF(B3="","",IF(LEFT(B3,1)="（","","mkdir "&amp;G3&amp;"\"&amp;B3))</f>
         <v/>
       </c>
       <c r="M3" s="1"/>
@@ -2941,21 +2948,21 @@
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F4" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A4="","","mkdir "&amp;A4)</f>
         <v/>
       </c>
       <c r="G4" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F4="",G3,A4)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H4" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B4="","",IF(LEFT(B4,1)="（","","mkdir "&amp;G4&amp;"\"&amp;B4))</f>
         <v/>
       </c>
       <c r="M4" s="1"/>
@@ -2969,18 +2976,18 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F5" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A5="","","mkdir "&amp;A5)</f>
         <v/>
       </c>
       <c r="G5" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F5="",G4,A5)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H5" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B5="","",IF(LEFT(B5,1)="（","","mkdir "&amp;G5&amp;"\"&amp;B5))</f>
         <v>mkdir 00.要求分析\02.現行基盤分析</v>
       </c>
       <c r="M5" s="1"/>
@@ -2992,18 +2999,18 @@
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F6" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A6="","","mkdir "&amp;A6)</f>
         <v/>
       </c>
       <c r="G6" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F6="",G5,A6)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B6="","",IF(LEFT(B6,1)="（","","mkdir "&amp;G6&amp;"\"&amp;B6))</f>
         <v/>
       </c>
       <c r="M6" s="1"/>
@@ -3015,18 +3022,18 @@
         <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F7" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A7="","","mkdir "&amp;A7)</f>
         <v/>
       </c>
       <c r="G7" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F7="",G6,A7)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B7="","",IF(LEFT(B7,1)="（","","mkdir "&amp;G7&amp;"\"&amp;B7))</f>
         <v/>
       </c>
       <c r="M7" s="1"/>
@@ -3038,18 +3045,18 @@
         <v>3</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="F8" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A8="","","mkdir "&amp;A8)</f>
         <v/>
       </c>
       <c r="G8" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F8="",G7,A8)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H8" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B8="","",IF(LEFT(B8,1)="（","","mkdir "&amp;G8&amp;"\"&amp;B8))</f>
         <v/>
       </c>
       <c r="M8" s="1"/>
@@ -3061,18 +3068,18 @@
         <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F9" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A9="","","mkdir "&amp;A9)</f>
         <v/>
       </c>
       <c r="G9" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F9="",G8,A9)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B9="","",IF(LEFT(B9,1)="（","","mkdir "&amp;G9&amp;"\"&amp;B9))</f>
         <v/>
       </c>
       <c r="M9" s="1"/>
@@ -3084,18 +3091,18 @@
         <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F10" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A10="","","mkdir "&amp;A10)</f>
         <v/>
       </c>
       <c r="G10" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F10="",G9,A10)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H10" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B10="","",IF(LEFT(B10,1)="（","","mkdir "&amp;G10&amp;"\"&amp;B10))</f>
         <v/>
       </c>
       <c r="M10" s="1"/>
@@ -3107,18 +3114,18 @@
         <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F11" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A11="","","mkdir "&amp;A11)</f>
         <v/>
       </c>
       <c r="G11" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F11="",G10,A11)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H11" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B11="","",IF(LEFT(B11,1)="（","","mkdir "&amp;G11&amp;"\"&amp;B11))</f>
         <v/>
       </c>
       <c r="M11" s="1"/>
@@ -3132,18 +3139,18 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F12" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A12="","","mkdir "&amp;A12)</f>
         <v/>
       </c>
       <c r="G12" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F12="",G11,A12)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H12" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B12="","",IF(LEFT(B12,1)="（","","mkdir "&amp;G12&amp;"\"&amp;B12))</f>
         <v>mkdir 00.要求分析\03.現行機能分析</v>
       </c>
       <c r="M12" s="1"/>
@@ -3155,18 +3162,18 @@
         <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F13" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A13="","","mkdir "&amp;A13)</f>
         <v/>
       </c>
       <c r="G13" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F13="",G12,A13)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H13" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B13="","",IF(LEFT(B13,1)="（","","mkdir "&amp;G13&amp;"\"&amp;B13))</f>
         <v/>
       </c>
       <c r="M13" s="1"/>
@@ -3178,18 +3185,18 @@
         <v>19</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F14" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A14="","","mkdir "&amp;A14)</f>
         <v/>
       </c>
       <c r="G14" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F14="",G13,A14)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H14" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B14="","",IF(LEFT(B14,1)="（","","mkdir "&amp;G14&amp;"\"&amp;B14))</f>
         <v/>
       </c>
       <c r="M14" s="1"/>
@@ -3201,18 +3208,18 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F15" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A15="","","mkdir "&amp;A15)</f>
         <v/>
       </c>
       <c r="G15" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F15="",G14,A15)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H15" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B15="","",IF(LEFT(B15,1)="（","","mkdir "&amp;G15&amp;"\"&amp;B15))</f>
         <v/>
       </c>
       <c r="M15" s="1"/>
@@ -3224,18 +3231,18 @@
         <v>12</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F16" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A16="","","mkdir "&amp;A16)</f>
         <v/>
       </c>
       <c r="G16" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F16="",G15,A16)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H16" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B16="","",IF(LEFT(B16,1)="（","","mkdir "&amp;G16&amp;"\"&amp;B16))</f>
         <v/>
       </c>
       <c r="M16" s="1"/>
@@ -3247,18 +3254,18 @@
         <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F17" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A17="","","mkdir "&amp;A17)</f>
         <v/>
       </c>
       <c r="G17" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F17="",G16,A17)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H17" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B17="","",IF(LEFT(B17,1)="（","","mkdir "&amp;G17&amp;"\"&amp;B17))</f>
         <v/>
       </c>
       <c r="M17" s="1"/>
@@ -3267,21 +3274,21 @@
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F18" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A18="","","mkdir "&amp;A18)</f>
         <v/>
       </c>
       <c r="G18" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F18="",G17,A18)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H18" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B18="","",IF(LEFT(B18,1)="（","","mkdir "&amp;G18&amp;"\"&amp;B18))</f>
         <v/>
       </c>
       <c r="M18" s="1"/>
@@ -3293,18 +3300,18 @@
         <v>42</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F19" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A19="","","mkdir "&amp;A19)</f>
         <v/>
       </c>
       <c r="G19" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F19="",G18,A19)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H19" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B19="","",IF(LEFT(B19,1)="（","","mkdir "&amp;G19&amp;"\"&amp;B19))</f>
         <v/>
       </c>
       <c r="M19" s="1"/>
@@ -3316,18 +3323,18 @@
         <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F20" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A20="","","mkdir "&amp;A20)</f>
         <v/>
       </c>
       <c r="G20" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F20="",G19,A20)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H20" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B20="","",IF(LEFT(B20,1)="（","","mkdir "&amp;G20&amp;"\"&amp;B20))</f>
         <v/>
       </c>
       <c r="M20" s="1"/>
@@ -3339,18 +3346,18 @@
         <v>44</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="F21" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A21="","","mkdir "&amp;A21)</f>
         <v/>
       </c>
       <c r="G21" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F21="",G20,A21)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H21" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B21="","",IF(LEFT(B21,1)="（","","mkdir "&amp;G21&amp;"\"&amp;B21))</f>
         <v/>
       </c>
       <c r="M21" s="1"/>
@@ -3363,44 +3370,44 @@
         <v>14</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F22" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A22="","","mkdir "&amp;A22)</f>
         <v>mkdir 01.要件定義</v>
       </c>
       <c r="G22" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F22="",G21,A22)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H22" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B22="","",IF(LEFT(B22,1)="（","","mkdir "&amp;G22&amp;"\"&amp;B22))</f>
         <v>mkdir 01.要件定義\01.業務要件</v>
       </c>
       <c r="J22" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K22" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M22" s="1" t="str">
-        <f t="shared" ref="M22:M43" si="4">C22</f>
+        <f>C22</f>
         <v>業務フロー図</v>
       </c>
       <c r="O22" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q22" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R22" t="str">
-        <f t="shared" ref="R22:R43" si="5">G22</f>
+        <f t="shared" ref="R22:R43" si="0">G22</f>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3408,44 +3415,44 @@
       <c r="A23" s="9"/>
       <c r="B23" s="9"/>
       <c r="C23" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="F23" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A23="","","mkdir "&amp;A23)</f>
         <v/>
       </c>
       <c r="G23" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F23="",G22,A23)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H23" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B23="","",IF(LEFT(B23,1)="（","","mkdir "&amp;G23&amp;"\"&amp;B23))</f>
         <v/>
       </c>
       <c r="J23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K23" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M23" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C23</f>
         <v>システム化課題一覧表</v>
       </c>
       <c r="O23" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q23" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R23" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3453,44 +3460,44 @@
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="F24" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A24="","","mkdir "&amp;A24)</f>
         <v/>
       </c>
       <c r="G24" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F24="",G23,A24)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H24" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B24="","",IF(LEFT(B24,1)="（","","mkdir "&amp;G24&amp;"\"&amp;B24))</f>
         <v/>
       </c>
       <c r="J24" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K24" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M24" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C24</f>
         <v>セキュリティ要件書</v>
       </c>
       <c r="O24" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q24" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R24" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3500,44 +3507,44 @@
         <v>15</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F25" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A25="","","mkdir "&amp;A25)</f>
         <v/>
       </c>
       <c r="G25" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F25="",G24,A25)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H25" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B25="","",IF(LEFT(B25,1)="（","","mkdir "&amp;G25&amp;"\"&amp;B25))</f>
         <v>mkdir 01.要件定義\02.基盤要件</v>
       </c>
       <c r="J25" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K25" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M25" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C25</f>
         <v>システム構成図</v>
       </c>
       <c r="O25" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q25" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R25" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3545,44 +3552,44 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F26" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A26="","","mkdir "&amp;A26)</f>
         <v/>
       </c>
       <c r="G26" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F26="",G25,A26)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H26" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B26="","",IF(LEFT(B26,1)="（","","mkdir "&amp;G26&amp;"\"&amp;B26))</f>
         <v/>
       </c>
       <c r="J26" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M26" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C26</f>
         <v>ＤＢ一覧表</v>
       </c>
       <c r="O26" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q26" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R26" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3590,44 +3597,44 @@
       <c r="A27" s="9"/>
       <c r="B27" s="9"/>
       <c r="C27" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="F27" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A27="","","mkdir "&amp;A27)</f>
         <v/>
       </c>
       <c r="G27" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F27="",G26,A27)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H27" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B27="","",IF(LEFT(B27,1)="（","","mkdir "&amp;G27&amp;"\"&amp;B27))</f>
         <v/>
       </c>
       <c r="J27" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M27" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C27</f>
         <v>テーブル一覧表</v>
       </c>
       <c r="O27" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q27" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R27" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3635,44 +3642,44 @@
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F28" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A28="","","mkdir "&amp;A28)</f>
         <v/>
       </c>
       <c r="G28" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F28="",G27,A28)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H28" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B28="","",IF(LEFT(B28,1)="（","","mkdir "&amp;G28&amp;"\"&amp;B28))</f>
         <v/>
       </c>
       <c r="J28" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K28" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L28" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M28" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C28</f>
         <v>ＩＦ一覧表</v>
       </c>
       <c r="O28" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q28" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R28" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3682,44 +3689,44 @@
         <v>18</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F29" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A29="","","mkdir "&amp;A29)</f>
         <v/>
       </c>
       <c r="G29" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F29="",G28,A29)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H29" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B29="","",IF(LEFT(B29,1)="（","","mkdir "&amp;G29&amp;"\"&amp;B29))</f>
         <v>mkdir 01.要件定義\03.機能要件</v>
       </c>
       <c r="J29" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L29" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M29" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C29</f>
         <v>バッチ一覧表</v>
       </c>
       <c r="O29" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q29" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3727,44 +3734,44 @@
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F30" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A30="","","mkdir "&amp;A30)</f>
         <v/>
       </c>
       <c r="G30" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F30="",G29,A30)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H30" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B30="","",IF(LEFT(B30,1)="（","","mkdir "&amp;G30&amp;"\"&amp;B30))</f>
         <v/>
       </c>
       <c r="J30" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M30" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C30</f>
         <v>ジョブフロー図</v>
       </c>
       <c r="O30" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q30" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R30" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3772,44 +3779,44 @@
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F31" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A31="","","mkdir "&amp;A31)</f>
         <v/>
       </c>
       <c r="G31" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F31="",G30,A31)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H31" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B31="","",IF(LEFT(B31,1)="（","","mkdir "&amp;G31&amp;"\"&amp;B31))</f>
         <v/>
       </c>
       <c r="J31" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K31" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L31" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M31" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C31</f>
         <v>ジョブスケジュール表</v>
       </c>
       <c r="O31" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q31" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3817,44 +3824,44 @@
       <c r="A32" s="9"/>
       <c r="B32" s="9"/>
       <c r="C32" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F32" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A32="","","mkdir "&amp;A32)</f>
         <v/>
       </c>
       <c r="G32" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F32="",G31,A32)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H32" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B32="","",IF(LEFT(B32,1)="（","","mkdir "&amp;G32&amp;"\"&amp;B32))</f>
         <v/>
       </c>
       <c r="J32" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K32" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L32" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M32" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C32</f>
         <v>画面一覧表</v>
       </c>
       <c r="O32" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q32" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R32" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3862,44 +3869,44 @@
       <c r="A33" s="9"/>
       <c r="B33" s="9"/>
       <c r="C33" s="12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F33" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A33="","","mkdir "&amp;A33)</f>
         <v/>
       </c>
       <c r="G33" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F33="",G32,A33)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H33" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B33="","",IF(LEFT(B33,1)="（","","mkdir "&amp;G33&amp;"\"&amp;B33))</f>
         <v/>
       </c>
       <c r="J33" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K33" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L33" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M33" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C33</f>
         <v>画面帳票遷移図</v>
       </c>
       <c r="O33" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q33" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3907,44 +3914,44 @@
       <c r="A34" s="9"/>
       <c r="B34" s="9"/>
       <c r="C34" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F34" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A34="","","mkdir "&amp;A34)</f>
         <v/>
       </c>
       <c r="G34" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F34="",G33,A34)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H34" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B34="","",IF(LEFT(B34,1)="（","","mkdir "&amp;G34&amp;"\"&amp;B34))</f>
         <v/>
       </c>
       <c r="J34" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K34" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L34" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M34" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C34</f>
         <v>帳票一覧表</v>
       </c>
       <c r="O34" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q34" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R34" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -3955,88 +3962,88 @@
         <v>7</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="F35" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A35="","","mkdir "&amp;A35)</f>
         <v/>
       </c>
       <c r="G35" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F35="",G34,A35)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B35="","",IF(LEFT(B35,1)="（","","mkdir "&amp;G35&amp;"\"&amp;B35))</f>
         <v/>
       </c>
       <c r="J35" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K35" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L35" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M35" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C35</f>
         <v>画面デモ</v>
       </c>
       <c r="O35" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q35" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="9"/>
       <c r="B36" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>177</v>
+        <v>233</v>
       </c>
       <c r="F36" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A36="","","mkdir "&amp;A36)</f>
         <v/>
       </c>
       <c r="G36" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F36="",G35,A36)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H36" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B36="","",IF(LEFT(B36,1)="（","","mkdir "&amp;G36&amp;"\"&amp;B36))</f>
         <v>mkdir 01.要件定義\04.技術検証</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K36" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L36" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M36" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C36</f>
         <v>（各技術検証資料）</v>
       </c>
       <c r="O36" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q36" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -4046,44 +4053,44 @@
         <v>22</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F37" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A37="","","mkdir "&amp;A37)</f>
         <v/>
       </c>
       <c r="G37" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F37="",G36,A37)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H37" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B37="","",IF(LEFT(B37,1)="（","","mkdir "&amp;G37&amp;"\"&amp;B37))</f>
         <v>mkdir 01.要件定義\99.概算見積</v>
       </c>
       <c r="J37" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K37" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L37" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M37" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C37</f>
         <v>試験要件定義表</v>
       </c>
       <c r="O37" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q37" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -4091,44 +4098,44 @@
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="F38" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A38="","","mkdir "&amp;A38)</f>
         <v/>
       </c>
       <c r="G38" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F38="",G37,A38)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H38" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B38="","",IF(LEFT(B38,1)="（","","mkdir "&amp;G38&amp;"\"&amp;B38))</f>
         <v/>
       </c>
       <c r="J38" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K38" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L38" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M38" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C38</f>
         <v>移行要件定義書</v>
       </c>
       <c r="O38" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q38" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -4136,44 +4143,44 @@
       <c r="A39" s="9"/>
       <c r="B39" s="9"/>
       <c r="C39" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F39" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A39="","","mkdir "&amp;A39)</f>
         <v/>
       </c>
       <c r="G39" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F39="",G38,A39)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H39" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B39="","",IF(LEFT(B39,1)="（","","mkdir "&amp;G39&amp;"\"&amp;B39))</f>
         <v/>
       </c>
       <c r="J39" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K39" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L39" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M39" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C39</f>
         <v>運用要件定義書</v>
       </c>
       <c r="O39" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q39" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -4181,44 +4188,44 @@
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="F40" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A40="","","mkdir "&amp;A40)</f>
         <v/>
       </c>
       <c r="G40" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F40="",G39,A40)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H40" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B40="","",IF(LEFT(B40,1)="（","","mkdir "&amp;G40&amp;"\"&amp;B40))</f>
         <v/>
       </c>
       <c r="J40" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K40" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L40" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M40" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C40</f>
         <v>開発体制図</v>
       </c>
       <c r="O40" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q40" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -4226,44 +4233,44 @@
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F41" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A41="","","mkdir "&amp;A41)</f>
         <v/>
       </c>
       <c r="G41" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F41="",G40,A41)</f>
         <v>01.要件定義</v>
       </c>
       <c r="H41" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B41="","",IF(LEFT(B41,1)="（","","mkdir "&amp;G41&amp;"\"&amp;B41))</f>
         <v/>
       </c>
       <c r="J41" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K41" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L41" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M41" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C41</f>
         <v>概算見積書</v>
       </c>
       <c r="O41" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q41" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>01.要件定義</v>
       </c>
     </row>
@@ -4275,44 +4282,44 @@
         <v>26</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F42" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A42="","","mkdir "&amp;A42)</f>
         <v>mkdir 02.外部設計</v>
       </c>
       <c r="G42" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F42="",G41,A42)</f>
         <v>02.外部設計</v>
       </c>
       <c r="H42" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B42="","",IF(LEFT(B42,1)="（","","mkdir "&amp;G42&amp;"\"&amp;B42))</f>
         <v>mkdir 02.外部設計\01.機能設計</v>
       </c>
       <c r="J42" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K42" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L42" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M42" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C42</f>
         <v>（各機能設計書）</v>
       </c>
       <c r="O42" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q42" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4322,44 +4329,44 @@
         <v>27</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="F43" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A43="","","mkdir "&amp;A43)</f>
         <v/>
       </c>
       <c r="G43" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F43="",G42,A43)</f>
         <v>02.外部設計</v>
       </c>
       <c r="H43" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B43="","",IF(LEFT(B43,1)="（","","mkdir "&amp;G43&amp;"\"&amp;B43))</f>
         <v>mkdir 02.外部設計\02.ＤＢ設計</v>
       </c>
       <c r="J43" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K43" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L43" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M43" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f>C43</f>
         <v>テーブル一覧表</v>
       </c>
       <c r="O43" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q43" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4370,41 +4377,41 @@
         <v>25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F44" s="6" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(A44="","","mkdir "&amp;A44)</f>
         <v/>
       </c>
       <c r="G44" s="8" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(F44="",G43,A44)</f>
         <v>02.外部設計</v>
       </c>
       <c r="H44" s="6" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B44="","",IF(LEFT(B44,1)="（","","mkdir "&amp;G44&amp;"\"&amp;B44))</f>
         <v/>
       </c>
       <c r="J44" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K44" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L44" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M44" s="1" t="str">
-        <f t="shared" ref="M44:M99" si="6">C44</f>
+        <f>C44</f>
         <v>ＥＲ図</v>
       </c>
       <c r="O44" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q44" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R44" t="str">
-        <f t="shared" ref="R44:R99" si="7">G44</f>
+        <f t="shared" ref="R44:R99" si="1">G44</f>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4415,41 +4422,41 @@
         <v>45</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="F45" s="6" t="str">
+        <f>IF(A45="","","mkdir "&amp;A45)</f>
+        <v/>
+      </c>
+      <c r="G45" s="8" t="str">
+        <f>IF(F45="",G44,A45)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H45" s="6" t="str">
+        <f>IF(B45="","",IF(LEFT(B45,1)="（","","mkdir "&amp;G45&amp;"\"&amp;B45))</f>
+        <v/>
+      </c>
+      <c r="J45" t="s">
+        <v>127</v>
+      </c>
+      <c r="K45" t="s">
+        <v>220</v>
+      </c>
+      <c r="L45" t="s">
+        <v>126</v>
+      </c>
+      <c r="M45" s="1" t="str">
+        <f>C45</f>
+        <v>（各テーブル定義書）</v>
+      </c>
+      <c r="O45" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>222</v>
+      </c>
+      <c r="R45" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G45" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H45" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J45" t="s">
-        <v>135</v>
-      </c>
-      <c r="K45" t="s">
-        <v>230</v>
-      </c>
-      <c r="L45" t="s">
-        <v>134</v>
-      </c>
-      <c r="M45" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>（各テーブル定義書）</v>
-      </c>
-      <c r="O45" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>232</v>
-      </c>
-      <c r="R45" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4460,41 +4467,41 @@
         <v>36</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F46" s="6" t="str">
+        <f>IF(A46="","","mkdir "&amp;A46)</f>
+        <v/>
+      </c>
+      <c r="G46" s="8" t="str">
+        <f>IF(F46="",G45,A46)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H46" s="6" t="str">
+        <f>IF(B46="","",IF(LEFT(B46,1)="（","","mkdir "&amp;G46&amp;"\"&amp;B46))</f>
+        <v/>
+      </c>
+      <c r="J46" t="s">
+        <v>127</v>
+      </c>
+      <c r="K46" t="s">
+        <v>220</v>
+      </c>
+      <c r="L46" t="s">
+        <v>126</v>
+      </c>
+      <c r="M46" s="1" t="str">
+        <f>C46</f>
+        <v>区分定義書</v>
+      </c>
+      <c r="O46" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>222</v>
+      </c>
+      <c r="R46" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G46" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H46" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J46" t="s">
-        <v>135</v>
-      </c>
-      <c r="K46" t="s">
-        <v>230</v>
-      </c>
-      <c r="L46" t="s">
-        <v>134</v>
-      </c>
-      <c r="M46" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>区分定義書</v>
-      </c>
-      <c r="O46" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>232</v>
-      </c>
-      <c r="R46" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4504,44 +4511,44 @@
         <v>31</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F47" s="6" t="str">
+        <f>IF(A47="","","mkdir "&amp;A47)</f>
+        <v/>
+      </c>
+      <c r="G47" s="8" t="str">
+        <f>IF(F47="",G46,A47)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H47" s="6" t="str">
+        <f>IF(B47="","",IF(LEFT(B47,1)="（","","mkdir "&amp;G47&amp;"\"&amp;B47))</f>
+        <v>mkdir 02.外部設計\03.ＩＦ設計</v>
+      </c>
+      <c r="J47" t="s">
+        <v>127</v>
+      </c>
+      <c r="K47" t="s">
+        <v>220</v>
+      </c>
+      <c r="L47" t="s">
+        <v>126</v>
+      </c>
+      <c r="M47" s="1" t="str">
+        <f>C47</f>
+        <v>ＩＦ一覧表</v>
+      </c>
+      <c r="O47" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>222</v>
+      </c>
+      <c r="R47" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G47" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H47" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mkdir 02.外部設計\03.ＩＦ設計</v>
-      </c>
-      <c r="J47" t="s">
-        <v>135</v>
-      </c>
-      <c r="K47" t="s">
-        <v>230</v>
-      </c>
-      <c r="L47" t="s">
-        <v>134</v>
-      </c>
-      <c r="M47" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ＩＦ一覧表</v>
-      </c>
-      <c r="O47" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>232</v>
-      </c>
-      <c r="R47" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4552,41 +4559,41 @@
         <v>46</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="F48" s="6" t="str">
+        <f>IF(A48="","","mkdir "&amp;A48)</f>
+        <v/>
+      </c>
+      <c r="G48" s="8" t="str">
+        <f>IF(F48="",G47,A48)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H48" s="6" t="str">
+        <f>IF(B48="","",IF(LEFT(B48,1)="（","","mkdir "&amp;G48&amp;"\"&amp;B48))</f>
+        <v/>
+      </c>
+      <c r="J48" t="s">
+        <v>127</v>
+      </c>
+      <c r="K48" t="s">
+        <v>220</v>
+      </c>
+      <c r="L48" t="s">
+        <v>126</v>
+      </c>
+      <c r="M48" s="1" t="str">
+        <f>C48</f>
+        <v>（各ＩＦ定義書）</v>
+      </c>
+      <c r="O48" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>222</v>
+      </c>
+      <c r="R48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G48" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H48" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J48" t="s">
-        <v>135</v>
-      </c>
-      <c r="K48" t="s">
-        <v>230</v>
-      </c>
-      <c r="L48" t="s">
-        <v>134</v>
-      </c>
-      <c r="M48" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>（各ＩＦ定義書）</v>
-      </c>
-      <c r="O48" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>232</v>
-      </c>
-      <c r="R48" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4599,41 +4606,41 @@
         <v>50</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F49" s="6" t="str">
+        <f>IF(A49="","","mkdir "&amp;A49)</f>
+        <v/>
+      </c>
+      <c r="G49" s="8" t="str">
+        <f>IF(F49="",G48,A49)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H49" s="6" t="str">
+        <f>IF(B49="","",IF(LEFT(B49,1)="（","","mkdir "&amp;G49&amp;"\"&amp;B49))</f>
+        <v>mkdir 02.外部設計\04.バッチ設計</v>
+      </c>
+      <c r="J49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K49" t="s">
+        <v>220</v>
+      </c>
+      <c r="L49" t="s">
+        <v>126</v>
+      </c>
+      <c r="M49" s="1" t="str">
+        <f>C49</f>
+        <v>バッチ共通仕様書</v>
+      </c>
+      <c r="O49" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>222</v>
+      </c>
+      <c r="R49" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G49" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H49" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mkdir 02.外部設計\04.バッチ設計</v>
-      </c>
-      <c r="J49" t="s">
-        <v>135</v>
-      </c>
-      <c r="K49" t="s">
-        <v>230</v>
-      </c>
-      <c r="L49" t="s">
-        <v>134</v>
-      </c>
-      <c r="M49" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>バッチ共通仕様書</v>
-      </c>
-      <c r="O49" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>232</v>
-      </c>
-      <c r="R49" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4641,44 +4648,44 @@
       <c r="A50" s="9"/>
       <c r="B50" s="9"/>
       <c r="C50" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="F50" s="6" t="str">
+        <f>IF(A50="","","mkdir "&amp;A50)</f>
+        <v/>
+      </c>
+      <c r="G50" s="8" t="str">
+        <f>IF(F50="",G49,A50)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H50" s="6" t="str">
+        <f>IF(B50="","",IF(LEFT(B50,1)="（","","mkdir "&amp;G50&amp;"\"&amp;B50))</f>
+        <v/>
+      </c>
+      <c r="J50" t="s">
+        <v>127</v>
+      </c>
+      <c r="K50" t="s">
+        <v>220</v>
+      </c>
+      <c r="L50" t="s">
+        <v>126</v>
+      </c>
+      <c r="M50" s="1" t="str">
+        <f>C50</f>
+        <v>バッチ一覧表</v>
+      </c>
+      <c r="O50" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>222</v>
+      </c>
+      <c r="R50" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G50" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H50" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J50" t="s">
-        <v>135</v>
-      </c>
-      <c r="K50" t="s">
-        <v>230</v>
-      </c>
-      <c r="L50" t="s">
-        <v>134</v>
-      </c>
-      <c r="M50" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>バッチ一覧表</v>
-      </c>
-      <c r="O50" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>232</v>
-      </c>
-      <c r="R50" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4686,44 +4693,44 @@
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="12" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="F51" s="6" t="str">
+        <f>IF(A51="","","mkdir "&amp;A51)</f>
+        <v/>
+      </c>
+      <c r="G51" s="8" t="str">
+        <f>IF(F51="",G50,A51)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H51" s="6" t="str">
+        <f>IF(B51="","",IF(LEFT(B51,1)="（","","mkdir "&amp;G51&amp;"\"&amp;B51))</f>
+        <v/>
+      </c>
+      <c r="J51" t="s">
+        <v>127</v>
+      </c>
+      <c r="K51" t="s">
+        <v>220</v>
+      </c>
+      <c r="L51" t="s">
+        <v>126</v>
+      </c>
+      <c r="M51" s="1" t="str">
+        <f>C51</f>
+        <v>ジョブフロー図</v>
+      </c>
+      <c r="O51" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>222</v>
+      </c>
+      <c r="R51" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G51" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H51" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J51" t="s">
-        <v>135</v>
-      </c>
-      <c r="K51" t="s">
-        <v>230</v>
-      </c>
-      <c r="L51" t="s">
-        <v>134</v>
-      </c>
-      <c r="M51" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ジョブフロー図</v>
-      </c>
-      <c r="O51" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>232</v>
-      </c>
-      <c r="R51" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4731,44 +4738,44 @@
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="12" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="F52" s="6" t="str">
+        <f>IF(A52="","","mkdir "&amp;A52)</f>
+        <v/>
+      </c>
+      <c r="G52" s="8" t="str">
+        <f>IF(F52="",G51,A52)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H52" s="6" t="str">
+        <f>IF(B52="","",IF(LEFT(B52,1)="（","","mkdir "&amp;G52&amp;"\"&amp;B52))</f>
+        <v/>
+      </c>
+      <c r="J52" t="s">
+        <v>127</v>
+      </c>
+      <c r="K52" t="s">
+        <v>220</v>
+      </c>
+      <c r="L52" t="s">
+        <v>126</v>
+      </c>
+      <c r="M52" s="1" t="str">
+        <f>C52</f>
+        <v>ジョブスケジュール表</v>
+      </c>
+      <c r="O52" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>222</v>
+      </c>
+      <c r="R52" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G52" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H52" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J52" t="s">
-        <v>135</v>
-      </c>
-      <c r="K52" t="s">
-        <v>230</v>
-      </c>
-      <c r="L52" t="s">
-        <v>134</v>
-      </c>
-      <c r="M52" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ジョブスケジュール表</v>
-      </c>
-      <c r="O52" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>232</v>
-      </c>
-      <c r="R52" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4779,41 +4786,41 @@
         <v>47</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="F53" s="6" t="str">
+        <f>IF(A53="","","mkdir "&amp;A53)</f>
+        <v/>
+      </c>
+      <c r="G53" s="8" t="str">
+        <f>IF(F53="",G52,A53)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H53" s="6" t="str">
+        <f>IF(B53="","",IF(LEFT(B53,1)="（","","mkdir "&amp;G53&amp;"\"&amp;B53))</f>
+        <v/>
+      </c>
+      <c r="J53" t="s">
+        <v>127</v>
+      </c>
+      <c r="K53" t="s">
+        <v>220</v>
+      </c>
+      <c r="L53" t="s">
+        <v>126</v>
+      </c>
+      <c r="M53" s="1" t="str">
+        <f>C53</f>
+        <v>（各バッチ設計書）</v>
+      </c>
+      <c r="O53" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>222</v>
+      </c>
+      <c r="R53" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G53" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H53" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J53" t="s">
-        <v>135</v>
-      </c>
-      <c r="K53" t="s">
-        <v>230</v>
-      </c>
-      <c r="L53" t="s">
-        <v>134</v>
-      </c>
-      <c r="M53" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>（各バッチ設計書）</v>
-      </c>
-      <c r="O53" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>232</v>
-      </c>
-      <c r="R53" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4826,41 +4833,41 @@
         <v>34</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="F54" s="6" t="str">
+        <f>IF(A54="","","mkdir "&amp;A54)</f>
+        <v/>
+      </c>
+      <c r="G54" s="8" t="str">
+        <f>IF(F54="",G53,A54)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H54" s="6" t="str">
+        <f>IF(B54="","",IF(LEFT(B54,1)="（","","mkdir "&amp;G54&amp;"\"&amp;B54))</f>
+        <v>mkdir 02.外部設計\05.画面設計</v>
+      </c>
+      <c r="J54" t="s">
+        <v>127</v>
+      </c>
+      <c r="K54" t="s">
+        <v>220</v>
+      </c>
+      <c r="L54" t="s">
+        <v>126</v>
+      </c>
+      <c r="M54" s="1" t="str">
+        <f>C54</f>
+        <v>画面共通仕様書</v>
+      </c>
+      <c r="O54" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>222</v>
+      </c>
+      <c r="R54" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G54" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H54" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mkdir 02.外部設計\05.画面設計</v>
-      </c>
-      <c r="J54" t="s">
-        <v>135</v>
-      </c>
-      <c r="K54" t="s">
-        <v>230</v>
-      </c>
-      <c r="L54" t="s">
-        <v>134</v>
-      </c>
-      <c r="M54" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>画面共通仕様書</v>
-      </c>
-      <c r="O54" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>232</v>
-      </c>
-      <c r="R54" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4868,44 +4875,44 @@
       <c r="A55" s="9"/>
       <c r="B55" s="9"/>
       <c r="C55" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="F55" s="6" t="str">
+        <f>IF(A55="","","mkdir "&amp;A55)</f>
+        <v/>
+      </c>
+      <c r="G55" s="8" t="str">
+        <f>IF(F55="",G54,A55)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H55" s="6" t="str">
+        <f>IF(B55="","",IF(LEFT(B55,1)="（","","mkdir "&amp;G55&amp;"\"&amp;B55))</f>
+        <v/>
+      </c>
+      <c r="J55" t="s">
+        <v>127</v>
+      </c>
+      <c r="K55" t="s">
+        <v>220</v>
+      </c>
+      <c r="L55" t="s">
+        <v>126</v>
+      </c>
+      <c r="M55" s="1" t="str">
+        <f>C55</f>
+        <v>画面一覧表</v>
+      </c>
+      <c r="O55" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>222</v>
+      </c>
+      <c r="R55" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G55" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H55" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J55" t="s">
-        <v>135</v>
-      </c>
-      <c r="K55" t="s">
-        <v>230</v>
-      </c>
-      <c r="L55" t="s">
-        <v>134</v>
-      </c>
-      <c r="M55" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>画面一覧表</v>
-      </c>
-      <c r="O55" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>232</v>
-      </c>
-      <c r="R55" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4913,44 +4920,44 @@
       <c r="A56" s="9"/>
       <c r="B56" s="9"/>
       <c r="C56" s="12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="F56" s="6" t="str">
+        <f>IF(A56="","","mkdir "&amp;A56)</f>
+        <v/>
+      </c>
+      <c r="G56" s="8" t="str">
+        <f>IF(F56="",G55,A56)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H56" s="6" t="str">
+        <f>IF(B56="","",IF(LEFT(B56,1)="（","","mkdir "&amp;G56&amp;"\"&amp;B56))</f>
+        <v/>
+      </c>
+      <c r="J56" t="s">
+        <v>127</v>
+      </c>
+      <c r="K56" t="s">
+        <v>220</v>
+      </c>
+      <c r="L56" t="s">
+        <v>126</v>
+      </c>
+      <c r="M56" s="1" t="str">
+        <f>C56</f>
+        <v>画面帳票遷移図</v>
+      </c>
+      <c r="O56" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>222</v>
+      </c>
+      <c r="R56" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G56" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H56" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J56" t="s">
-        <v>135</v>
-      </c>
-      <c r="K56" t="s">
-        <v>230</v>
-      </c>
-      <c r="L56" t="s">
-        <v>134</v>
-      </c>
-      <c r="M56" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>画面帳票遷移図</v>
-      </c>
-      <c r="O56" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>232</v>
-      </c>
-      <c r="R56" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -4961,41 +4968,41 @@
         <v>48</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="F57" s="6" t="str">
+        <f>IF(A57="","","mkdir "&amp;A57)</f>
+        <v/>
+      </c>
+      <c r="G57" s="8" t="str">
+        <f>IF(F57="",G56,A57)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H57" s="6" t="str">
+        <f>IF(B57="","",IF(LEFT(B57,1)="（","","mkdir "&amp;G57&amp;"\"&amp;B57))</f>
+        <v/>
+      </c>
+      <c r="J57" t="s">
+        <v>127</v>
+      </c>
+      <c r="K57" t="s">
+        <v>220</v>
+      </c>
+      <c r="L57" t="s">
+        <v>126</v>
+      </c>
+      <c r="M57" s="1" t="str">
+        <f>C57</f>
+        <v>（各画面設計書）</v>
+      </c>
+      <c r="O57" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>222</v>
+      </c>
+      <c r="R57" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G57" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H57" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J57" t="s">
-        <v>135</v>
-      </c>
-      <c r="K57" t="s">
-        <v>230</v>
-      </c>
-      <c r="L57" t="s">
-        <v>134</v>
-      </c>
-      <c r="M57" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>（各画面設計書）</v>
-      </c>
-      <c r="O57" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>232</v>
-      </c>
-      <c r="R57" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -5005,44 +5012,44 @@
         <v>35</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="F58" s="6" t="str">
+        <f>IF(A58="","","mkdir "&amp;A58)</f>
+        <v/>
+      </c>
+      <c r="G58" s="8" t="str">
+        <f>IF(F58="",G57,A58)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H58" s="6" t="str">
+        <f>IF(B58="","",IF(LEFT(B58,1)="（","","mkdir "&amp;G58&amp;"\"&amp;B58))</f>
+        <v>mkdir 02.外部設計\06.帳票設計</v>
+      </c>
+      <c r="J58" t="s">
+        <v>127</v>
+      </c>
+      <c r="K58" t="s">
+        <v>220</v>
+      </c>
+      <c r="L58" t="s">
+        <v>126</v>
+      </c>
+      <c r="M58" s="1" t="str">
+        <f>C58</f>
+        <v>帳票一覧表</v>
+      </c>
+      <c r="O58" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>222</v>
+      </c>
+      <c r="R58" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G58" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H58" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mkdir 02.外部設計\06.帳票設計</v>
-      </c>
-      <c r="J58" t="s">
-        <v>135</v>
-      </c>
-      <c r="K58" t="s">
-        <v>230</v>
-      </c>
-      <c r="L58" t="s">
-        <v>134</v>
-      </c>
-      <c r="M58" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>帳票一覧表</v>
-      </c>
-      <c r="O58" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>232</v>
-      </c>
-      <c r="R58" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -5053,41 +5060,41 @@
         <v>49</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F59" s="6" t="str">
+        <f>IF(A59="","","mkdir "&amp;A59)</f>
+        <v/>
+      </c>
+      <c r="G59" s="8" t="str">
+        <f>IF(F59="",G58,A59)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H59" s="6" t="str">
+        <f>IF(B59="","",IF(LEFT(B59,1)="（","","mkdir "&amp;G59&amp;"\"&amp;B59))</f>
+        <v/>
+      </c>
+      <c r="J59" t="s">
+        <v>127</v>
+      </c>
+      <c r="K59" t="s">
+        <v>220</v>
+      </c>
+      <c r="L59" t="s">
+        <v>126</v>
+      </c>
+      <c r="M59" s="1" t="str">
+        <f>C59</f>
+        <v>（各帳票設計書）</v>
+      </c>
+      <c r="O59" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>222</v>
+      </c>
+      <c r="R59" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G59" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H59" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J59" t="s">
-        <v>135</v>
-      </c>
-      <c r="K59" t="s">
-        <v>230</v>
-      </c>
-      <c r="L59" t="s">
-        <v>134</v>
-      </c>
-      <c r="M59" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>（各帳票設計書）</v>
-      </c>
-      <c r="O59" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>232</v>
-      </c>
-      <c r="R59" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -5097,44 +5104,44 @@
         <v>38</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F60" s="6" t="str">
+        <f>IF(A60="","","mkdir "&amp;A60)</f>
+        <v/>
+      </c>
+      <c r="G60" s="8" t="str">
+        <f>IF(F60="",G59,A60)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H60" s="6" t="str">
+        <f>IF(B60="","",IF(LEFT(B60,1)="（","","mkdir "&amp;G60&amp;"\"&amp;B60))</f>
+        <v>mkdir 02.外部設計\07.移行設計</v>
+      </c>
+      <c r="J60" t="s">
+        <v>127</v>
+      </c>
+      <c r="K60" t="s">
+        <v>220</v>
+      </c>
+      <c r="L60" t="s">
+        <v>126</v>
+      </c>
+      <c r="M60" s="1" t="str">
+        <f>C60</f>
+        <v>サーバ移行設計書</v>
+      </c>
+      <c r="O60" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>222</v>
+      </c>
+      <c r="R60" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G60" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H60" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mkdir 02.外部設計\07.移行設計</v>
-      </c>
-      <c r="J60" t="s">
-        <v>135</v>
-      </c>
-      <c r="K60" t="s">
-        <v>230</v>
-      </c>
-      <c r="L60" t="s">
-        <v>134</v>
-      </c>
-      <c r="M60" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>サーバ移行設計書</v>
-      </c>
-      <c r="O60" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>232</v>
-      </c>
-      <c r="R60" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -5142,44 +5149,44 @@
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="14" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F61" s="6" t="str">
+        <f>IF(A61="","","mkdir "&amp;A61)</f>
+        <v/>
+      </c>
+      <c r="G61" s="8" t="str">
+        <f>IF(F61="",G60,A61)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H61" s="6" t="str">
+        <f>IF(B61="","",IF(LEFT(B61,1)="（","","mkdir "&amp;G61&amp;"\"&amp;B61))</f>
+        <v/>
+      </c>
+      <c r="J61" t="s">
+        <v>127</v>
+      </c>
+      <c r="K61" t="s">
+        <v>220</v>
+      </c>
+      <c r="L61" t="s">
+        <v>126</v>
+      </c>
+      <c r="M61" s="1" t="str">
+        <f>C61</f>
+        <v>データ移行設計書</v>
+      </c>
+      <c r="O61" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>222</v>
+      </c>
+      <c r="R61" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G61" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H61" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J61" t="s">
-        <v>135</v>
-      </c>
-      <c r="K61" t="s">
-        <v>230</v>
-      </c>
-      <c r="L61" t="s">
-        <v>134</v>
-      </c>
-      <c r="M61" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>データ移行設計書</v>
-      </c>
-      <c r="O61" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>232</v>
-      </c>
-      <c r="R61" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -5187,44 +5194,44 @@
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="14" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="F62" s="6" t="str">
+        <f>IF(A62="","","mkdir "&amp;A62)</f>
+        <v/>
+      </c>
+      <c r="G62" s="8" t="str">
+        <f>IF(F62="",G61,A62)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H62" s="6" t="str">
+        <f>IF(B62="","",IF(LEFT(B62,1)="（","","mkdir "&amp;G62&amp;"\"&amp;B62))</f>
+        <v/>
+      </c>
+      <c r="J62" t="s">
+        <v>127</v>
+      </c>
+      <c r="K62" t="s">
+        <v>220</v>
+      </c>
+      <c r="L62" t="s">
+        <v>126</v>
+      </c>
+      <c r="M62" s="1" t="str">
+        <f>C62</f>
+        <v>本番リリース設計書</v>
+      </c>
+      <c r="O62" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>222</v>
+      </c>
+      <c r="R62" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G62" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H62" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="J62" t="s">
-        <v>135</v>
-      </c>
-      <c r="K62" t="s">
-        <v>230</v>
-      </c>
-      <c r="L62" t="s">
-        <v>134</v>
-      </c>
-      <c r="M62" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>本番リリース設計書</v>
-      </c>
-      <c r="O62" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>232</v>
-      </c>
-      <c r="R62" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -5234,44 +5241,44 @@
         <v>37</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F63" s="6" t="str">
+        <f>IF(A63="","","mkdir "&amp;A63)</f>
+        <v/>
+      </c>
+      <c r="G63" s="8" t="str">
+        <f>IF(F63="",G62,A63)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H63" s="6" t="str">
+        <f>IF(B63="","",IF(LEFT(B63,1)="（","","mkdir "&amp;G63&amp;"\"&amp;B63))</f>
+        <v>mkdir 02.外部設計\99.詳細見積</v>
+      </c>
+      <c r="J63" t="s">
+        <v>127</v>
+      </c>
+      <c r="K63" t="s">
+        <v>220</v>
+      </c>
+      <c r="L63" t="s">
+        <v>126</v>
+      </c>
+      <c r="M63" s="1" t="str">
+        <f>C63</f>
+        <v>詳細見積書</v>
+      </c>
+      <c r="O63" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>222</v>
+      </c>
+      <c r="R63" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G63" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H63" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mkdir 02.外部設計\99.詳細見積</v>
-      </c>
-      <c r="J63" t="s">
-        <v>135</v>
-      </c>
-      <c r="K63" t="s">
-        <v>230</v>
-      </c>
-      <c r="L63" t="s">
-        <v>134</v>
-      </c>
-      <c r="M63" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>詳細見積書</v>
-      </c>
-      <c r="O63" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>232</v>
-      </c>
-      <c r="R63" t="str">
-        <f t="shared" si="7"/>
         <v>02.外部設計</v>
       </c>
     </row>
@@ -5286,419 +5293,419 @@
         <v>51</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>52</v>
+        <v>225</v>
       </c>
       <c r="F64" s="6" t="str">
+        <f>IF(A64="","","mkdir "&amp;A64)</f>
+        <v>mkdir 03.内部設計</v>
+      </c>
+      <c r="G64" s="8" t="str">
+        <f>IF(F64="",G63,A64)</f>
+        <v>03.内部設計</v>
+      </c>
+      <c r="H64" s="6" t="str">
+        <f>IF(B64="","",IF(LEFT(B64,1)="（","","mkdir "&amp;G64&amp;"\"&amp;B64))</f>
+        <v>mkdir 03.内部設計\01.ＤＢ設計</v>
+      </c>
+      <c r="J64" t="s">
+        <v>127</v>
+      </c>
+      <c r="K64" t="s">
+        <v>220</v>
+      </c>
+      <c r="L64" t="s">
+        <v>126</v>
+      </c>
+      <c r="M64" s="1" t="str">
+        <f>C64</f>
+        <v>ＤＢ物理設計書</v>
+      </c>
+      <c r="O64" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>222</v>
+      </c>
+      <c r="R64" t="str">
         <f t="shared" si="1"/>
-        <v>mkdir 03.内部設計</v>
-      </c>
-      <c r="G64" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>03.内部設計</v>
-      </c>
-      <c r="H64" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mkdir 03.内部設計\01.ＤＢ設計</v>
-      </c>
-      <c r="J64" t="s">
-        <v>135</v>
-      </c>
-      <c r="K64" t="s">
-        <v>230</v>
-      </c>
-      <c r="L64" t="s">
-        <v>134</v>
-      </c>
-      <c r="M64" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>ＤＢ物理設計書</v>
-      </c>
-      <c r="O64" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>232</v>
-      </c>
-      <c r="R64" t="str">
-        <f t="shared" si="7"/>
         <v>03.内部設計</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A65" s="9"/>
       <c r="B65" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D65" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F65" s="6" t="str">
+        <f>IF(A65="","","mkdir "&amp;A65)</f>
+        <v/>
+      </c>
+      <c r="G65" s="8" t="str">
+        <f>IF(F65="",G64,A65)</f>
+        <v>03.内部設計</v>
+      </c>
+      <c r="H65" s="6" t="str">
+        <f>IF(B65="","",IF(LEFT(B65,1)="（","","mkdir "&amp;G65&amp;"\"&amp;B65))</f>
+        <v>mkdir 03.内部設計\02.バッチ設計</v>
+      </c>
+      <c r="J65" t="s">
+        <v>127</v>
+      </c>
+      <c r="K65" t="s">
+        <v>220</v>
+      </c>
+      <c r="L65" t="s">
+        <v>126</v>
+      </c>
+      <c r="M65" s="1" t="str">
+        <f>C65</f>
+        <v>（特記プラグラム仕様書）</v>
+      </c>
+      <c r="O65" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>222</v>
+      </c>
+      <c r="R65" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G65" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>03.内部設計</v>
-      </c>
-      <c r="H65" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mkdir 03.内部設計\02.バッチ設計</v>
-      </c>
-      <c r="J65" t="s">
-        <v>135</v>
-      </c>
-      <c r="K65" t="s">
-        <v>230</v>
-      </c>
-      <c r="L65" t="s">
-        <v>134</v>
-      </c>
-      <c r="M65" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>（特記プラグラム仕様書）</v>
-      </c>
-      <c r="O65" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>232</v>
-      </c>
-      <c r="R65" t="str">
-        <f t="shared" si="7"/>
         <v>03.内部設計</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A66" s="9"/>
       <c r="B66" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D66" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F66" s="6" t="str">
+        <f>IF(A66="","","mkdir "&amp;A66)</f>
+        <v/>
+      </c>
+      <c r="G66" s="8" t="str">
+        <f>IF(F66="",G65,A66)</f>
+        <v>03.内部設計</v>
+      </c>
+      <c r="H66" s="6" t="str">
+        <f>IF(B66="","",IF(LEFT(B66,1)="（","","mkdir "&amp;G66&amp;"\"&amp;B66))</f>
+        <v>mkdir 03.内部設計\03.画面設計</v>
+      </c>
+      <c r="J66" t="s">
+        <v>127</v>
+      </c>
+      <c r="K66" t="s">
+        <v>220</v>
+      </c>
+      <c r="L66" t="s">
+        <v>126</v>
+      </c>
+      <c r="M66" s="1" t="str">
+        <f>C66</f>
+        <v>（特記プラグラム仕様書）</v>
+      </c>
+      <c r="O66" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>222</v>
+      </c>
+      <c r="R66" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G66" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>03.内部設計</v>
-      </c>
-      <c r="H66" s="6" t="str">
-        <f t="shared" si="3"/>
-        <v>mkdir 03.内部設計\03.画面設計</v>
-      </c>
-      <c r="J66" t="s">
-        <v>135</v>
-      </c>
-      <c r="K66" t="s">
-        <v>230</v>
-      </c>
-      <c r="L66" t="s">
-        <v>134</v>
-      </c>
-      <c r="M66" s="1" t="str">
-        <f t="shared" si="6"/>
-        <v>（特記プラグラム仕様書）</v>
-      </c>
-      <c r="O66" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>232</v>
-      </c>
-      <c r="R66" t="str">
-        <f t="shared" si="7"/>
         <v>03.内部設計</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A67" s="10"/>
       <c r="B67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="F67" s="6" t="str">
-        <f t="shared" ref="F67:F106" si="8">IF(A67="","","mkdir "&amp;A67)</f>
+        <f>IF(A67="","","mkdir "&amp;A67)</f>
         <v/>
       </c>
       <c r="G67" s="8" t="str">
-        <f t="shared" ref="G67:G106" si="9">IF(F67="",G66,A67)</f>
+        <f>IF(F67="",G66,A67)</f>
         <v>03.内部設計</v>
       </c>
       <c r="H67" s="6" t="str">
-        <f t="shared" ref="H67:H106" si="10">IF(B67="","",IF(LEFT(B67,1)="（","","mkdir "&amp;G67&amp;"\"&amp;B67))</f>
+        <f>IF(B67="","",IF(LEFT(B67,1)="（","","mkdir "&amp;G67&amp;"\"&amp;B67))</f>
         <v>mkdir 03.内部設計\04.帳票設計</v>
       </c>
       <c r="J67" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K67" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L67" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M67" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C67</f>
         <v>（特記プラグラム仕様書）</v>
       </c>
       <c r="O67" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q67" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>03.内部設計</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F68" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A68="","","mkdir "&amp;A68)</f>
         <v>mkdir 04.ＰＧ設計</v>
       </c>
       <c r="G68" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F68="",G67,A68)</f>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H68" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B68="","",IF(LEFT(B68,1)="（","","mkdir "&amp;G68&amp;"\"&amp;B68))</f>
         <v/>
       </c>
       <c r="J68" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K68" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L68" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M68" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C68</f>
         <v>メッセージ一覧表</v>
       </c>
       <c r="O68" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q68" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>04.ＰＧ設計</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A69" s="9"/>
       <c r="B69" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>65</v>
+        <v>226</v>
       </c>
       <c r="F69" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A69="","","mkdir "&amp;A69)</f>
         <v/>
       </c>
       <c r="G69" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F69="",G68,A69)</f>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H69" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B69="","",IF(LEFT(B69,1)="（","","mkdir "&amp;G69&amp;"\"&amp;B69))</f>
         <v>mkdir 04.ＰＧ設計\01.バッチＰＧ設計</v>
       </c>
       <c r="J69" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K69" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L69" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M69" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C69</f>
         <v>バッチＰＧ設計書</v>
       </c>
       <c r="O69" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q69" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>04.ＰＧ設計</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A70" s="9"/>
       <c r="B70" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="F70" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A70="","","mkdir "&amp;A70)</f>
         <v/>
       </c>
       <c r="G70" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F70="",G69,A70)</f>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H70" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B70="","",IF(LEFT(B70,1)="（","","mkdir "&amp;G70&amp;"\"&amp;B70))</f>
         <v>mkdir 04.ＰＧ設計\02.画面ＰＧ設計</v>
       </c>
       <c r="J70" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K70" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L70" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M70" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C70</f>
         <v>画面ＰＧ設計書</v>
       </c>
       <c r="O70" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q70" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>04.ＰＧ設計</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A71" s="10"/>
       <c r="B71" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>67</v>
+        <v>228</v>
       </c>
       <c r="F71" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A71="","","mkdir "&amp;A71)</f>
         <v/>
       </c>
       <c r="G71" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F71="",G70,A71)</f>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H71" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B71="","",IF(LEFT(B71,1)="（","","mkdir "&amp;G71&amp;"\"&amp;B71))</f>
         <v>mkdir 04.ＰＧ設計\03.帳票ＰＧ設計</v>
       </c>
       <c r="J71" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K71" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L71" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M71" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C71</f>
         <v>帳票ＰＧ設計書</v>
       </c>
       <c r="O71" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q71" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>04.ＰＧ設計</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="F72" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A72="","","mkdir "&amp;A72)</f>
         <v>mkdir 05.ＰＧ開発</v>
       </c>
       <c r="G72" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F72="",G71,A72)</f>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H72" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B72="","",IF(LEFT(B72,1)="（","","mkdir "&amp;G72&amp;"\"&amp;B72))</f>
         <v>mkdir 05.ＰＧ開発\01.開発端末環境構築</v>
       </c>
       <c r="J72" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K72" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L72" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M72" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C72</f>
         <v>開発環境構築手順書</v>
       </c>
       <c r="O72" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q72" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
@@ -5706,138 +5713,138 @@
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="F73" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A73="","","mkdir "&amp;A73)</f>
         <v/>
       </c>
       <c r="G73" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F73="",G72,A73)</f>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H73" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B73="","",IF(LEFT(B73,1)="（","","mkdir "&amp;G73&amp;"\"&amp;B73))</f>
         <v/>
       </c>
       <c r="J73" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K73" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L73" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M73" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C73</f>
         <v>（各インストーラ）</v>
       </c>
       <c r="O73" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q73" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A74" s="9"/>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="F74" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A74="","","mkdir "&amp;A74)</f>
         <v/>
       </c>
       <c r="G74" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F74="",G73,A74)</f>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H74" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B74="","",IF(LEFT(B74,1)="（","","mkdir "&amp;G74&amp;"\"&amp;B74))</f>
         <v>mkdir 05.ＰＧ開発\02.製造規約</v>
       </c>
       <c r="J74" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K74" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L74" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M74" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C74</f>
         <v>製造規約書</v>
       </c>
       <c r="O74" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q74" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A75" s="9"/>
       <c r="B75" s="11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F75" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A75="","","mkdir "&amp;A75)</f>
         <v/>
       </c>
       <c r="G75" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F75="",G74,A75)</f>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H75" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B75="","",IF(LEFT(B75,1)="（","","mkdir "&amp;G75&amp;"\"&amp;B75))</f>
         <v>mkdir 05.ＰＧ開発\03.開発サーバ環境構築</v>
       </c>
       <c r="J75" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K75" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L75" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M75" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C75</f>
         <v>開発サーバ環境構築手順書</v>
       </c>
       <c r="O75" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q75" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R75" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
@@ -5845,44 +5852,44 @@
       <c r="A76" s="9"/>
       <c r="B76" s="9"/>
       <c r="C76" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F76" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A76="","","mkdir "&amp;A76)</f>
         <v/>
       </c>
       <c r="G76" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F76="",G75,A76)</f>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H76" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B76="","",IF(LEFT(B76,1)="（","","mkdir "&amp;G76&amp;"\"&amp;B76))</f>
         <v/>
       </c>
       <c r="J76" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K76" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L76" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M76" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C76</f>
         <v>（各DBスクリプト）</v>
       </c>
       <c r="O76" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q76" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R76" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
@@ -5890,232 +5897,232 @@
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="F77" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A77="","","mkdir "&amp;A77)</f>
         <v/>
       </c>
       <c r="G77" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F77="",G76,A77)</f>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H77" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B77="","",IF(LEFT(B77,1)="（","","mkdir "&amp;G77&amp;"\"&amp;B77))</f>
         <v/>
       </c>
       <c r="J77" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K77" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L77" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M77" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C77</f>
         <v>（各DBダンプ）</v>
       </c>
       <c r="O77" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q77" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R77" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A78" s="9"/>
       <c r="B78" s="2" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="F78" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A78="","","mkdir "&amp;A78)</f>
         <v/>
       </c>
       <c r="G78" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F78="",G77,A78)</f>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H78" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B78="","",IF(LEFT(B78,1)="（","","mkdir "&amp;G78&amp;"\"&amp;B78))</f>
         <v>mkdir 05.ＰＧ開発\04.技術検討</v>
       </c>
       <c r="J78" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K78" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L78" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M78" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C78</f>
         <v>（各技術検討資料）</v>
       </c>
       <c r="O78" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q78" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R78" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A79" s="10"/>
       <c r="B79" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>76</v>
+        <v>229</v>
       </c>
       <c r="F79" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A79="","","mkdir "&amp;A79)</f>
         <v/>
       </c>
       <c r="G79" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F79="",G78,A79)</f>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H79" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B79="","",IF(LEFT(B79,1)="（","","mkdir "&amp;G79&amp;"\"&amp;B79))</f>
         <v>mkdir 05.ＰＧ開発\99.ＰＧ一式</v>
       </c>
       <c r="J79" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K79" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L79" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M79" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C79</f>
         <v>（プログラム一式）</v>
       </c>
       <c r="O79" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q79" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R79" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A80" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F80" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A80="","","mkdir "&amp;A80)</f>
         <v>mkdir 06.単体試験</v>
       </c>
       <c r="G80" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F80="",G79,A80)</f>
         <v>06.単体試験</v>
       </c>
       <c r="H80" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B80="","",IF(LEFT(B80,1)="（","","mkdir "&amp;G80&amp;"\"&amp;B80))</f>
         <v/>
       </c>
       <c r="J80" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K80" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L80" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M80" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C80</f>
         <v>（各単体試験仕様書）</v>
       </c>
       <c r="O80" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q80" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R80" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>06.単体試験</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A81" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B81" s="11"/>
       <c r="C81" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F81" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A81="","","mkdir "&amp;A81)</f>
         <v>mkdir 07.結合試験</v>
       </c>
       <c r="G81" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F81="",G80,A81)</f>
         <v>07.結合試験</v>
       </c>
       <c r="H81" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B81="","",IF(LEFT(B81,1)="（","","mkdir "&amp;G81&amp;"\"&amp;B81))</f>
         <v/>
       </c>
       <c r="J81" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K81" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L81" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M81" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C81</f>
         <v>結合試験計画書</v>
       </c>
       <c r="O81" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q81" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R81" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>07.結合試験</v>
       </c>
     </row>
@@ -6123,93 +6130,93 @@
       <c r="A82" s="10"/>
       <c r="B82" s="10"/>
       <c r="C82" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F82" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A82="","","mkdir "&amp;A82)</f>
         <v/>
       </c>
       <c r="G82" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F82="",G81,A82)</f>
         <v>07.結合試験</v>
       </c>
       <c r="H82" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B82="","",IF(LEFT(B82,1)="（","","mkdir "&amp;G82&amp;"\"&amp;B82))</f>
         <v/>
       </c>
       <c r="J82" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K82" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L82" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M82" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C82</f>
         <v>（各結合試験仕様書）</v>
       </c>
       <c r="O82" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q82" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R82" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>07.結合試験</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A83" s="11" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F83" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A83="","","mkdir "&amp;A83)</f>
         <v>mkdir 08.総合試験</v>
       </c>
       <c r="G83" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F83="",G82,A83)</f>
         <v>08.総合試験</v>
       </c>
       <c r="H83" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B83="","",IF(LEFT(B83,1)="（","","mkdir "&amp;G83&amp;"\"&amp;B83))</f>
         <v>mkdir 08.総合試験\00.移行リハ</v>
       </c>
       <c r="J83" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K83" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L83" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M83" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C83</f>
         <v>サーバ移行リハ手順書</v>
       </c>
       <c r="O83" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q83" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R83" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>08.総合試験</v>
       </c>
     </row>
@@ -6217,44 +6224,44 @@
       <c r="A84" s="9"/>
       <c r="B84" s="9"/>
       <c r="C84" s="14" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F84" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A84="","","mkdir "&amp;A84)</f>
         <v/>
       </c>
       <c r="G84" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F84="",G83,A84)</f>
         <v>08.総合試験</v>
       </c>
       <c r="H84" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B84="","",IF(LEFT(B84,1)="（","","mkdir "&amp;G84&amp;"\"&amp;B84))</f>
         <v/>
       </c>
       <c r="J84" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K84" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L84" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M84" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C84</f>
         <v>データ移行リハ手順書</v>
       </c>
       <c r="O84" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q84" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R84" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>08.総合試験</v>
       </c>
     </row>
@@ -6262,91 +6269,91 @@
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="14" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F85" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A85="","","mkdir "&amp;A85)</f>
         <v/>
       </c>
       <c r="G85" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F85="",G84,A85)</f>
         <v>08.総合試験</v>
       </c>
       <c r="H85" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B85="","",IF(LEFT(B85,1)="（","","mkdir "&amp;G85&amp;"\"&amp;B85))</f>
         <v/>
       </c>
       <c r="J85" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K85" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L85" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M85" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C85</f>
         <v>モジュール移行リハ手順書</v>
       </c>
       <c r="O85" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q85" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R85" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>08.総合試験</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A86" s="9"/>
       <c r="B86" s="11" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="F86" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A86="","","mkdir "&amp;A86)</f>
         <v/>
       </c>
       <c r="G86" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F86="",G85,A86)</f>
         <v>08.総合試験</v>
       </c>
       <c r="H86" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B86="","",IF(LEFT(B86,1)="（","","mkdir "&amp;G86&amp;"\"&amp;B86))</f>
         <v>mkdir 08.総合試験\01.シナリオテスト</v>
       </c>
       <c r="J86" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K86" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L86" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M86" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C86</f>
         <v>シナリオテスト計画書</v>
       </c>
       <c r="O86" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q86" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R86" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>08.総合試験</v>
       </c>
     </row>
@@ -6354,91 +6361,91 @@
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F87" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A87="","","mkdir "&amp;A87)</f>
         <v/>
       </c>
       <c r="G87" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F87="",G86,A87)</f>
         <v>08.総合試験</v>
       </c>
       <c r="H87" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B87="","",IF(LEFT(B87,1)="（","","mkdir "&amp;G87&amp;"\"&amp;B87))</f>
         <v/>
       </c>
       <c r="J87" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K87" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L87" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M87" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C87</f>
         <v>（各シナリオテスト仕様書）</v>
       </c>
       <c r="O87" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q87" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R87" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>08.総合試験</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A88" s="9"/>
       <c r="B88" s="11" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>94</v>
+        <v>231</v>
       </c>
       <c r="F88" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A88="","","mkdir "&amp;A88)</f>
         <v/>
       </c>
       <c r="G88" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F88="",G87,A88)</f>
         <v>08.総合試験</v>
       </c>
       <c r="H88" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B88="","",IF(LEFT(B88,1)="（","","mkdir "&amp;G88&amp;"\"&amp;B88))</f>
         <v>mkdir 08.総合試験\02.ストレステスト</v>
       </c>
       <c r="J88" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K88" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L88" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M88" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C88</f>
         <v>ストレステスト計画書</v>
       </c>
       <c r="O88" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q88" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R88" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>08.総合試験</v>
       </c>
     </row>
@@ -6446,91 +6453,91 @@
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F89" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A89="","","mkdir "&amp;A89)</f>
         <v/>
       </c>
       <c r="G89" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F89="",G88,A89)</f>
         <v>08.総合試験</v>
       </c>
       <c r="H89" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B89="","",IF(LEFT(B89,1)="（","","mkdir "&amp;G89&amp;"\"&amp;B89))</f>
         <v/>
       </c>
       <c r="J89" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K89" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L89" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M89" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C89</f>
         <v>（各ストレステスト仕様書）</v>
       </c>
       <c r="O89" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q89" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>08.総合試験</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A90" s="9"/>
       <c r="B90" s="11" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F90" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A90="","","mkdir "&amp;A90)</f>
         <v/>
       </c>
       <c r="G90" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F90="",G89,A90)</f>
         <v>08.総合試験</v>
       </c>
       <c r="H90" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B90="","",IF(LEFT(B90,1)="（","","mkdir "&amp;G90&amp;"\"&amp;B90))</f>
         <v>mkdir 08.総合試験\03.現新比較テスト</v>
       </c>
       <c r="J90" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K90" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L90" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M90" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C90</f>
         <v>現新比較テスト計画書</v>
       </c>
       <c r="O90" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q90" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R90" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>08.総合試験</v>
       </c>
     </row>
@@ -6538,185 +6545,185 @@
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F91" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A91="","","mkdir "&amp;A91)</f>
         <v/>
       </c>
       <c r="G91" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F91="",G90,A91)</f>
         <v>08.総合試験</v>
       </c>
       <c r="H91" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B91="","",IF(LEFT(B91,1)="（","","mkdir "&amp;G91&amp;"\"&amp;B91))</f>
         <v/>
       </c>
       <c r="J91" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K91" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L91" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M91" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C91</f>
         <v>（各現新比較テスト仕様書）</v>
       </c>
       <c r="O91" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q91" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R91" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>08.総合試験</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A92" s="10"/>
       <c r="B92" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F92" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A92="","","mkdir "&amp;A92)</f>
         <v/>
       </c>
       <c r="G92" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F92="",G91,A92)</f>
         <v>08.総合試験</v>
       </c>
       <c r="H92" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B92="","",IF(LEFT(B92,1)="（","","mkdir "&amp;G92&amp;"\"&amp;B92))</f>
         <v>mkdir 08.総合試験\04.回帰テスト</v>
       </c>
       <c r="J92" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K92" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L92" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M92" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C92</f>
         <v>（各回帰テスト仕様書）</v>
       </c>
       <c r="O92" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q92" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R92" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>08.総合試験</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A93" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="F93" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A93="","","mkdir "&amp;A93)</f>
         <v>mkdir 09.受入検査</v>
       </c>
       <c r="G93" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F93="",G92,A93)</f>
         <v>09.受入検査</v>
       </c>
       <c r="H93" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B93="","",IF(LEFT(B93,1)="（","","mkdir "&amp;G93&amp;"\"&amp;B93))</f>
         <v/>
       </c>
       <c r="J93" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K93" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L93" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M93" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C93</f>
         <v>不具合管理表</v>
       </c>
       <c r="O93" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q93" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R93" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>09.受入検査</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A94" s="11" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B94" s="11"/>
       <c r="C94" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F94" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A94="","","mkdir "&amp;A94)</f>
         <v>mkdir 10.本番移行</v>
       </c>
       <c r="G94" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F94="",G93,A94)</f>
         <v>10.本番移行</v>
       </c>
       <c r="H94" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B94="","",IF(LEFT(B94,1)="（","","mkdir "&amp;G94&amp;"\"&amp;B94))</f>
         <v/>
       </c>
       <c r="J94" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K94" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L94" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M94" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C94</f>
         <v>サーバ移行手順書</v>
       </c>
       <c r="O94" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q94" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R94" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>10.本番移行</v>
       </c>
     </row>
@@ -6724,44 +6731,44 @@
       <c r="A95" s="9"/>
       <c r="B95" s="9"/>
       <c r="C95" s="14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F95" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A95="","","mkdir "&amp;A95)</f>
         <v/>
       </c>
       <c r="G95" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F95="",G94,A95)</f>
         <v>10.本番移行</v>
       </c>
       <c r="H95" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B95="","",IF(LEFT(B95,1)="（","","mkdir "&amp;G95&amp;"\"&amp;B95))</f>
         <v/>
       </c>
       <c r="J95" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K95" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L95" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M95" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C95</f>
         <v>データ移行手順書</v>
       </c>
       <c r="O95" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q95" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R95" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>10.本番移行</v>
       </c>
     </row>
@@ -6769,93 +6776,93 @@
       <c r="A96" s="10"/>
       <c r="B96" s="10"/>
       <c r="C96" s="14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="F96" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A96="","","mkdir "&amp;A96)</f>
         <v/>
       </c>
       <c r="G96" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F96="",G95,A96)</f>
         <v>10.本番移行</v>
       </c>
       <c r="H96" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B96="","",IF(LEFT(B96,1)="（","","mkdir "&amp;G96&amp;"\"&amp;B96))</f>
         <v/>
       </c>
       <c r="J96" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K96" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L96" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M96" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C96</f>
         <v>モジュール移行手順書</v>
       </c>
       <c r="O96" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q96" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R96" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>10.本番移行</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A97" s="11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="F97" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A97="","","mkdir "&amp;A97)</f>
         <v>mkdir 11.運用保守</v>
       </c>
       <c r="G97" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F97="",G96,A97)</f>
         <v>11.運用保守</v>
       </c>
       <c r="H97" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B97="","",IF(LEFT(B97,1)="（","","mkdir "&amp;G97&amp;"\"&amp;B97))</f>
         <v/>
       </c>
       <c r="J97" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K97" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L97" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M97" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C97</f>
         <v>（リリース手順書）</v>
       </c>
       <c r="O97" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q97" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R97" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>11.運用保守</v>
       </c>
     </row>
@@ -6863,44 +6870,44 @@
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="2" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="F98" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A98="","","mkdir "&amp;A98)</f>
         <v/>
       </c>
       <c r="G98" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F98="",G97,A98)</f>
         <v>11.運用保守</v>
       </c>
       <c r="H98" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B98="","",IF(LEFT(B98,1)="（","","mkdir "&amp;G98&amp;"\"&amp;B98))</f>
         <v/>
       </c>
       <c r="J98" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K98" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L98" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M98" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C98</f>
         <v>（投入データ）</v>
       </c>
       <c r="O98" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q98" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R98" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>11.運用保守</v>
       </c>
     </row>
@@ -6908,66 +6915,66 @@
       <c r="A99" s="10"/>
       <c r="B99" s="10"/>
       <c r="C99" s="2" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="F99" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A99="","","mkdir "&amp;A99)</f>
         <v/>
       </c>
       <c r="G99" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F99="",G98,A99)</f>
         <v>11.運用保守</v>
       </c>
       <c r="H99" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B99="","",IF(LEFT(B99,1)="（","","mkdir "&amp;G99&amp;"\"&amp;B99))</f>
         <v/>
       </c>
       <c r="J99" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="K99" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="L99" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="M99" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f>C99</f>
         <v>（リリースモジュール）</v>
       </c>
       <c r="O99" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="Q99" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="R99" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>11.運用保守</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A100" s="11" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="F100" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A100="","","mkdir "&amp;A100)</f>
         <v>mkdir 99.案件管理</v>
       </c>
       <c r="G100" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F100="",G99,A100)</f>
         <v>99.案件管理</v>
       </c>
       <c r="H100" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B100="","",IF(LEFT(B100,1)="（","","mkdir "&amp;G100&amp;"\"&amp;B100))</f>
         <v>mkdir 99.案件管理\01.議事管理</v>
       </c>
       <c r="M100" s="1"/>
@@ -6975,20 +6982,20 @@
     <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101" s="9"/>
       <c r="B101" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="F101" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A101="","","mkdir "&amp;A101)</f>
         <v/>
       </c>
       <c r="G101" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F101="",G100,A101)</f>
         <v>99.案件管理</v>
       </c>
       <c r="H101" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B101="","",IF(LEFT(B101,1)="（","","mkdir "&amp;G101&amp;"\"&amp;B101))</f>
         <v>mkdir 99.案件管理\02.受領物管理</v>
       </c>
       <c r="M101" s="1"/>
@@ -6996,20 +7003,20 @@
     <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102" s="9"/>
       <c r="B102" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="F102" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A102="","","mkdir "&amp;A102)</f>
         <v/>
       </c>
       <c r="G102" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F102="",G101,A102)</f>
         <v>99.案件管理</v>
       </c>
       <c r="H102" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B102="","",IF(LEFT(B102,1)="（","","mkdir "&amp;G102&amp;"\"&amp;B102))</f>
         <v>mkdir 99.案件管理\03.課題管理</v>
       </c>
       <c r="M102" s="1"/>
@@ -7017,20 +7024,20 @@
     <row r="103" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A103" s="9"/>
       <c r="B103" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="F103" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A103="","","mkdir "&amp;A103)</f>
         <v/>
       </c>
       <c r="G103" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F103="",G102,A103)</f>
         <v>99.案件管理</v>
       </c>
       <c r="H103" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B103="","",IF(LEFT(B103,1)="（","","mkdir "&amp;G103&amp;"\"&amp;B103))</f>
         <v>mkdir 99.案件管理\04.予実管理</v>
       </c>
       <c r="M103" s="1"/>
@@ -7038,20 +7045,20 @@
     <row r="104" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A104" s="9"/>
       <c r="B104" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="F104" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A104="","","mkdir "&amp;A104)</f>
         <v/>
       </c>
       <c r="G104" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F104="",G103,A104)</f>
         <v>99.案件管理</v>
       </c>
       <c r="H104" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B104="","",IF(LEFT(B104,1)="（","","mkdir "&amp;G104&amp;"\"&amp;B104))</f>
         <v>mkdir 99.案件管理\05.要員管理</v>
       </c>
       <c r="M104" s="1"/>
@@ -7059,20 +7066,20 @@
     <row r="105" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A105" s="10"/>
       <c r="B105" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="F105" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A105="","","mkdir "&amp;A105)</f>
         <v/>
       </c>
       <c r="G105" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F105="",G104,A105)</f>
         <v>99.案件管理</v>
       </c>
       <c r="H105" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B105="","",IF(LEFT(B105,1)="（","","mkdir "&amp;G105&amp;"\"&amp;B105))</f>
         <v>mkdir 99.案件管理\06.提出物管理</v>
       </c>
       <c r="M105" s="1"/>
@@ -7083,15 +7090,15 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="F106" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f>IF(A106="","","mkdir "&amp;A106)</f>
         <v/>
       </c>
       <c r="G106" s="8" t="str">
-        <f t="shared" si="9"/>
+        <f>IF(F106="",G105,A106)</f>
         <v>99.案件管理</v>
       </c>
       <c r="H106" s="6" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B106="","",IF(LEFT(B106,1)="（","","mkdir "&amp;G106&amp;"\"&amp;B106))</f>
         <v/>
       </c>
     </row>

--- a/チケットの検討.xlsx
+++ b/チケットの検討.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_ftp\vm-centos7\srv\docker\redmine\home\redmine\data\plugins\progress_manage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\progress_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE152A32-C48F-4DBF-A5E3-BC3AFB3C9C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F9200B-6682-477A-896B-41227A5F6963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="作業単位一覧表" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="266">
   <si>
     <t>組織図</t>
     <rPh sb="0" eb="3">
@@ -2450,10 +2450,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>yyyymmdd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実施予定のモジュールバージョンのプログラム一式</t>
     <rPh sb="0" eb="4">
       <t>ジッシヨテイ</t>
@@ -2624,6 +2620,49 @@
     </rPh>
     <rPh sb="8" eb="10">
       <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【各yyyymmdd】</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【各要望資料】</t>
+    <rPh sb="1" eb="2">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リリース後の要望をチケット管理</t>
+    <rPh sb="4" eb="5">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウボウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>99.追加要望</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウボウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2806,7 +2845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2900,6 +2939,9 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2924,9 +2966,9 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>3541059</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>179294</xdr:rowOff>
+      <xdr:rowOff>169769</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1595309" cy="800604"/>
+    <xdr:ext cx="1454244" cy="564514"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
@@ -2940,8 +2982,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8684559" y="4202206"/>
-          <a:ext cx="1595309" cy="800604"/>
+          <a:off x="8684559" y="4226298"/>
+          <a:ext cx="1454244" cy="564514"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2970,14 +3012,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザから</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>提供されるべき資材。</a:t>
+            <a:t>ユーザ発信の資材。</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -3417,41 +3452,41 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:W111"/>
+  <dimension ref="A2:W112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.09765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.09765625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" style="2" customWidth="1"/>
     <col min="6" max="6" width="17" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.09765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="33.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.59765625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.19921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.69921875" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:23" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>103</v>
       </c>
@@ -3507,7 +3542,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A3" s="26" t="s">
         <v>8</v>
       </c>
@@ -3534,7 +3569,7 @@
       </c>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A4" s="26"/>
       <c r="B4" s="26"/>
       <c r="C4" s="28" t="s">
@@ -3544,20 +3579,20 @@
         <v>120</v>
       </c>
       <c r="F4" s="5" t="str">
-        <f t="shared" ref="F4:F67" si="3">IF(A4="","","mkdir "&amp;A4)</f>
+        <f t="shared" ref="F4:F23" si="3">IF(A4="","","mkdir "&amp;A4)</f>
         <v/>
       </c>
       <c r="G4" s="6" t="str">
-        <f t="shared" ref="G4:G67" si="4">IF(F4="",G3,A4)</f>
+        <f t="shared" ref="G4:G23" si="4">IF(F4="",G3,A4)</f>
         <v>00.要求分析</v>
       </c>
       <c r="H4" s="5" t="str">
-        <f t="shared" ref="H4:H67" si="5">IF(B4="","",IF(LEFT(B4,1)="（","","mkdir "&amp;G4&amp;"\"&amp;B4))</f>
+        <f t="shared" ref="H4:H23" si="5">IF(B4="","",IF(LEFT(B4,1)="（","","mkdir "&amp;G4&amp;"\"&amp;B4))</f>
         <v/>
       </c>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A5" s="26"/>
       <c r="B5" s="27"/>
       <c r="C5" s="28" t="s">
@@ -3580,7 +3615,7 @@
       </c>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A6" s="26"/>
       <c r="B6" s="29" t="s">
         <v>10</v>
@@ -3605,7 +3640,7 @@
       </c>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A7" s="26"/>
       <c r="B7" s="26"/>
       <c r="C7" s="28" t="s">
@@ -3628,7 +3663,7 @@
       </c>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="28" t="s">
@@ -3651,7 +3686,7 @@
       </c>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="28" t="s">
@@ -3674,7 +3709,7 @@
       </c>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A10" s="26"/>
       <c r="B10" s="26"/>
       <c r="C10" s="30" t="s">
@@ -3697,7 +3732,7 @@
       </c>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A11" s="26"/>
       <c r="B11" s="26"/>
       <c r="C11" s="30" t="s">
@@ -3720,7 +3755,7 @@
       </c>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
       <c r="C12" s="28" t="s">
@@ -3743,7 +3778,7 @@
       </c>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A13" s="26"/>
       <c r="B13" s="29" t="s">
         <v>11</v>
@@ -3768,7 +3803,7 @@
       </c>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A14" s="26"/>
       <c r="B14" s="26"/>
       <c r="C14" s="28" t="s">
@@ -3791,7 +3826,7 @@
       </c>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A15" s="26"/>
       <c r="B15" s="26"/>
       <c r="C15" s="28" t="s">
@@ -3814,7 +3849,7 @@
       </c>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A16" s="26"/>
       <c r="B16" s="26"/>
       <c r="C16" s="28" t="s">
@@ -3837,7 +3872,7 @@
       </c>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="28" t="s">
@@ -3860,7 +3895,7 @@
       </c>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="28" t="s">
@@ -3883,7 +3918,7 @@
       </c>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="28" t="s">
@@ -3906,7 +3941,7 @@
       </c>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="30" t="s">
@@ -3929,7 +3964,7 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="30" t="s">
@@ -3952,9 +3987,9 @@
       </c>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
+      <c r="B22" s="27"/>
       <c r="C22" s="30" t="s">
         <v>196</v>
       </c>
@@ -3975,3917 +4010,4104 @@
       </c>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A23" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>131</v>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A23" s="26"/>
+      <c r="B23" s="28" t="s">
+        <v>265</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>264</v>
       </c>
       <c r="F23" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>mkdir 01.要件定義</v>
+        <v/>
       </c>
       <c r="G23" s="6" t="str">
         <f t="shared" si="4"/>
-        <v>01.要件定義</v>
+        <v>00.要求分析</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="5"/>
+        <v>mkdir 00.要求分析\99.追加要望</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="5" t="str">
+        <f t="shared" ref="F24:F46" si="6">IF(A24="","","mkdir "&amp;A24)</f>
+        <v>mkdir 01.要件定義</v>
+      </c>
+      <c r="G24" s="6" t="str">
+        <f t="shared" ref="G24:G46" si="7">IF(F24="",G23,A24)</f>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" ref="H24:H46" si="8">IF(B24="","",IF(LEFT(B24,1)="（","","mkdir "&amp;G24&amp;"\"&amp;B24))</f>
         <v>mkdir 01.要件定義\01.業務要件</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J24" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K24" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L24" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M23" s="7" t="str">
-        <f t="shared" ref="M23:M55" si="6">C23</f>
+      <c r="M24" s="31" t="str">
+        <f t="shared" ref="M24" si="9">C24</f>
         <v>業務フロー図</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q23" s="2" t="s">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R23" s="2" t="str">
-        <f t="shared" ref="R23:R39" si="7">G23</f>
+      <c r="R24" s="5" t="str">
+        <f t="shared" ref="R24" si="10">G24</f>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="13" t="s">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="13" t="s">
+      <c r="D25" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="F24" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G24" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F25" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
-      <c r="H24" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J24" s="2" t="s">
+      <c r="H25" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K25" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L25" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M24" s="7" t="str">
-        <f t="shared" ref="M24:M87" si="8">C24</f>
+      <c r="M25" s="31" t="str">
+        <f t="shared" ref="M25:M88" si="11">C25</f>
         <v>システム化課題一覧表</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R24" s="2" t="str">
-        <f t="shared" ref="R24:R87" si="9">G24</f>
+      <c r="R25" s="5" t="str">
+        <f t="shared" ref="R25:R88" si="12">G25</f>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="13" t="s">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D26" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G25" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F26" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G26" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
-      <c r="H25" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J25" s="2" t="s">
+      <c r="H26" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K26" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M25" s="7" t="str">
+      <c r="M26" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>セキュリティ要件書</v>
+      </c>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R26" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A27" s="17"/>
+      <c r="B27" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G27" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H27" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>セキュリティ要件書</v>
-      </c>
-      <c r="O25" s="2" t="s">
+        <v>mkdir 01.要件定義\02.基盤要件</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M27" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>システム構成図</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R25" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R27" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G26" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>01.要件定義</v>
-      </c>
-      <c r="H26" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>mkdir 01.要件定義\02.基盤要件</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M26" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>システム構成図</v>
-      </c>
-      <c r="O26" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R26" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>01.要件定義</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A27" s="17"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="F27" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G27" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>01.要件定義</v>
-      </c>
-      <c r="H27" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M27" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>ＤＢ一覧表</v>
-      </c>
-      <c r="O27" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R27" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>01.要件定義</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G28" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>ＤＢ一覧表</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R28" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F28" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G28" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F29" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G29" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
-      <c r="H28" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J28" s="2" t="s">
+      <c r="H29" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K29" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L29" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M28" s="7" t="str">
+      <c r="M29" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>（要件版）テーブル一覧表</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R29" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G30" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H30" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>（要件版）テーブル一覧表</v>
-      </c>
-      <c r="O28" s="2" t="s">
+        <v/>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M30" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>（要件版）ＩＦ一覧表</v>
+      </c>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q28" s="2" t="s">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R28" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R30" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="F29" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G29" s="6" t="str">
-        <f t="shared" si="4"/>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A31" s="17"/>
+      <c r="B31" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="F31" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
-      <c r="H29" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J29" s="2" t="s">
+      <c r="H31" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>mkdir 01.要件定義\03.機能要件</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K31" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L31" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M29" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>（要件版）ＩＦ一覧表</v>
-      </c>
-      <c r="O29" s="2" t="s">
+      <c r="M31" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>（要件版）バッチ一覧表</v>
+      </c>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q29" s="2" t="s">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R29" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R31" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A30" s="17"/>
-      <c r="B30" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F30" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G30" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>01.要件定義</v>
-      </c>
-      <c r="H30" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>mkdir 01.要件定義\03.機能要件</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M30" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>（要件版）バッチ一覧表</v>
-      </c>
-      <c r="O30" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R30" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>01.要件定義</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A31" s="17"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F31" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G31" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>01.要件定義</v>
-      </c>
-      <c r="H31" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M31" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>（要件版）ジョブフロー図</v>
-      </c>
-      <c r="O31" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R31" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>01.要件定義</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F32" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G32" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J32" s="2" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M32" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>（要件版）ジョブスケジュール表</v>
-      </c>
-      <c r="O32" s="2" t="s">
+      <c r="M32" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>（要件版）ジョブフロー図</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q32" s="2" t="s">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R32" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R32" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F33" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G33" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J33" s="2" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="K33" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M33" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>（要件版）画面一覧表</v>
-      </c>
-      <c r="O33" s="2" t="s">
+      <c r="M33" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>（要件版）ジョブスケジュール表</v>
+      </c>
+      <c r="N33" s="5"/>
+      <c r="O33" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R33" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R33" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F34" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G34" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J34" s="2" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M34" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>（要件版）画面帳票遷移図</v>
-      </c>
-      <c r="O34" s="2" t="s">
+      <c r="M34" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>（要件版）画面一覧表</v>
+      </c>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q34" s="2" t="s">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R34" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R34" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F35" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G35" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M35" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>（要件版）画面帳票遷移図</v>
+      </c>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R35" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D36" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F35" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G35" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F36" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G36" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
-      <c r="H35" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J35" s="2" t="s">
+      <c r="H36" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="K36" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L36" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M35" s="7" t="str">
+      <c r="M36" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>（要件版）帳票一覧表</v>
+      </c>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R36" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F37" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G37" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H37" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>（要件版）帳票一覧表</v>
-      </c>
-      <c r="O35" s="2" t="s">
+        <v/>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M37" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>画面デモ</v>
+      </c>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R35" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R37" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A36" s="17"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F36" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G36" s="6" t="str">
-        <f t="shared" si="4"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A38" s="17"/>
+      <c r="B38" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G38" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
-      <c r="H36" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J36" s="2" t="s">
+      <c r="H38" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>mkdir 01.要件定義\04.技術検証</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="K38" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L38" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M36" s="7" t="str">
+      <c r="M38" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>【各技術検証資料】</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R38" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A39" s="17"/>
+      <c r="B39" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G39" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H39" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>画面デモ</v>
-      </c>
-      <c r="O36" s="2" t="s">
+        <v>mkdir 01.要件定義\99.概算見積</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M39" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>試験要件定義表</v>
+      </c>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q36" s="2" t="s">
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R36" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R39" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A37" s="17"/>
-      <c r="B37" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F37" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G37" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>01.要件定義</v>
-      </c>
-      <c r="H37" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>mkdir 01.要件定義\04.技術検証</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M37" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各技術検証資料】</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R37" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>01.要件定義</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A38" s="17"/>
-      <c r="B38" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F38" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G38" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>01.要件定義</v>
-      </c>
-      <c r="H38" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>mkdir 01.要件定義\99.概算見積</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L38" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M38" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>試験要件定義表</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R38" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>01.要件定義</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G39" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>01.要件定義</v>
-      </c>
-      <c r="H39" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M39" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>移行要件定義書</v>
-      </c>
-      <c r="O39" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R39" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>01.要件定義</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="F40" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G40" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J40" s="2" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M40" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>運用要件定義書</v>
-      </c>
-      <c r="O40" s="2" t="s">
+      <c r="M40" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>移行要件定義書</v>
+      </c>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q40" s="2" t="s">
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R40" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R40" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="F41" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="G41" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J41" s="2" t="s">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J41" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M41" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>開発体制図</v>
-      </c>
-      <c r="O41" s="2" t="s">
+      <c r="M41" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>運用要件定義書</v>
+      </c>
+      <c r="N41" s="5"/>
+      <c r="O41" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q41" s="2" t="s">
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R41" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R41" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="13" t="s">
-        <v>257</v>
+        <v>115</v>
       </c>
       <c r="D42" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G42" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M42" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>開発体制図</v>
+      </c>
+      <c r="N42" s="5"/>
+      <c r="O42" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R42" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="F42" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G42" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F43" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G43" s="6" t="str">
+        <f t="shared" si="7"/>
         <v>01.要件定義</v>
       </c>
-      <c r="H42" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J42" s="2" t="s">
+      <c r="H43" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="K43" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L43" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M42" s="7" t="str">
+      <c r="M43" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>（要件版）WBS</v>
+      </c>
+      <c r="N43" s="5"/>
+      <c r="O43" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R43" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>01.要件定義</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F44" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G44" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>01.要件定義</v>
+      </c>
+      <c r="H44" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>（要件版）WBS</v>
-      </c>
-      <c r="O42" s="2" t="s">
+        <v/>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M44" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>概算見積書</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R42" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R44" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G43" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>01.要件定義</v>
-      </c>
-      <c r="H43" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J43" s="2" t="s">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A45" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F45" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v>mkdir 02.外部設計</v>
+      </c>
+      <c r="G45" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" si="8"/>
+        <v>mkdir 02.外部設計\01.機能設計</v>
+      </c>
+      <c r="J45" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K45" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L45" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M43" s="7" t="str">
+      <c r="M45" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>【各機能設計書】</v>
+      </c>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R45" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A46" s="21"/>
+      <c r="B46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46" s="5" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="G46" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H46" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>概算見積書</v>
-      </c>
-      <c r="O43" s="2" t="s">
+        <v>mkdir 02.外部設計\02.ＤＢ設計</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M46" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>テーブル一覧表</v>
+      </c>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q43" s="2" t="s">
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R43" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>01.要件定義</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A44" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F44" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>mkdir 02.外部設計</v>
-      </c>
-      <c r="G44" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="R46" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H44" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>mkdir 02.外部設計\01.機能設計</v>
-      </c>
-      <c r="J44" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M44" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各機能設計書】</v>
-      </c>
-      <c r="O44" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R44" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>02.外部設計</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A45" s="21"/>
-      <c r="B45" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C45" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="F45" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G45" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H45" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>mkdir 02.外部設計\02.ＤＢ設計</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L45" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M45" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>テーブル一覧表</v>
-      </c>
-      <c r="O45" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R45" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>02.外部設計</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F46" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G46" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H46" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M46" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>ＥＲ図</v>
-      </c>
-      <c r="O46" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R46" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>02.外部設計</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
-      <c r="C47" s="14" t="s">
+      <c r="C47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="5" t="str">
+        <f t="shared" ref="F47:F110" si="13">IF(A47="","","mkdir "&amp;A47)</f>
+        <v/>
+      </c>
+      <c r="G47" s="6" t="str">
+        <f t="shared" ref="G47:G110" si="14">IF(F47="",G46,A47)</f>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" ref="H47:H110" si="15">IF(B47="","",IF(LEFT(B47,1)="（","","mkdir "&amp;G47&amp;"\"&amp;B47))</f>
+        <v/>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M47" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>ＥＲ図</v>
+      </c>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R47" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="D47" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F47" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G47" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F48" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G48" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H47" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J47" s="2" t="s">
+      <c r="H48" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="K48" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L48" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M47" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M48" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>【各テーブル定義書】</v>
       </c>
-      <c r="O47" s="2" t="s">
+      <c r="N48" s="5"/>
+      <c r="O48" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q47" s="2" t="s">
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R47" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R48" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="13" t="s">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A49" s="21"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="F48" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G48" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F49" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G49" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H48" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J48" s="2" t="s">
+      <c r="H49" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="K49" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L49" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M48" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M49" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>区分定義書</v>
       </c>
-      <c r="O48" s="2" t="s">
+      <c r="N49" s="5"/>
+      <c r="O49" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q48" s="2" t="s">
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R48" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R49" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A49" s="21"/>
-      <c r="B49" s="19" t="s">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A50" s="21"/>
+      <c r="B50" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F49" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G49" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F50" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G50" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H49" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H50" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>mkdir 02.外部設計\03.ＩＦ設計</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J50" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K49" s="2" t="s">
+      <c r="K50" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L50" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M49" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M50" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>ＩＦ一覧表</v>
       </c>
-      <c r="O49" s="2" t="s">
+      <c r="N50" s="5"/>
+      <c r="O50" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q49" s="2" t="s">
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R49" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R50" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="14" t="s">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A51" s="21"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D51" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="F50" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G50" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F51" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G51" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H50" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J50" s="2" t="s">
+      <c r="H51" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J51" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K51" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L51" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M50" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M51" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>【各ＩＦ定義書】</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="N51" s="5"/>
+      <c r="O51" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R50" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R51" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A51" s="21"/>
-      <c r="B51" s="19" t="s">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A52" s="21"/>
+      <c r="B52" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F51" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G51" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F52" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G52" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H51" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H52" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>mkdir 02.外部設計\04.バッチ設計</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J52" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="K52" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L52" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M51" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M52" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>バッチ共通仕様書</v>
       </c>
-      <c r="O51" s="2" t="s">
+      <c r="N52" s="5"/>
+      <c r="O52" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q51" s="2" t="s">
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R51" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R52" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="F52" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G52" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H52" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L52" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M52" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>バッチ一覧表</v>
-      </c>
-      <c r="O52" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R52" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>02.外部設計</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F53" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G53" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J53" s="2" t="s">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="K53" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M53" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>ジョブフロー図</v>
-      </c>
-      <c r="O53" s="2" t="s">
+      <c r="M53" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>バッチ一覧表</v>
+      </c>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q53" s="2" t="s">
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R53" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R53" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F54" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G54" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M54" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>ジョブフロー図</v>
+      </c>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R54" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D54" s="13" t="s">
+      <c r="D55" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F54" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G54" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F55" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G55" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H54" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J54" s="2" t="s">
+      <c r="H55" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K55" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L55" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M54" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M55" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>ジョブスケジュール表</v>
       </c>
-      <c r="O54" s="2" t="s">
+      <c r="N55" s="5"/>
+      <c r="O55" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R54" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R55" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="14" t="s">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A56" s="21"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="13" t="s">
+      <c r="D56" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="F55" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G55" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F56" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G56" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H55" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J55" s="2" t="s">
+      <c r="H56" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J56" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="K56" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L56" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M55" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M56" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>【各バッチ設計書】</v>
       </c>
-      <c r="O55" s="2" t="s">
+      <c r="N56" s="5"/>
+      <c r="O56" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q55" s="2" t="s">
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R55" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R56" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A56" s="21"/>
-      <c r="B56" s="19" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A57" s="21"/>
+      <c r="B57" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D57" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F56" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G56" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F57" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G57" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H56" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H57" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>mkdir 02.外部設計\05.画面設計</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J57" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="K57" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L57" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M56" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M57" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>画面共通仕様書</v>
       </c>
-      <c r="O56" s="2" t="s">
+      <c r="N57" s="5"/>
+      <c r="O57" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q56" s="2" t="s">
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R56" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R57" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="F57" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G57" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H57" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L57" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M57" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>画面一覧表</v>
-      </c>
-      <c r="O57" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R57" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>02.外部設計</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F58" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G58" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M58" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>画面一覧表</v>
+      </c>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R58" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D59" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F58" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G58" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F59" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G59" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H58" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J58" s="2" t="s">
+      <c r="H59" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="K59" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L59" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M58" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M59" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>画面帳票遷移図</v>
       </c>
-      <c r="O58" s="2" t="s">
+      <c r="N59" s="5"/>
+      <c r="O59" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q58" s="2" t="s">
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R58" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R59" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="14" t="s">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A60" s="21"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="D59" s="13" t="s">
+      <c r="D60" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="F59" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G59" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F60" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G60" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H59" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J59" s="2" t="s">
+      <c r="H60" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="K60" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L60" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M59" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M60" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>【各画面設計書】</v>
       </c>
-      <c r="O59" s="2" t="s">
+      <c r="N60" s="5"/>
+      <c r="O60" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R59" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R60" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A60" s="21"/>
-      <c r="B60" s="19" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A61" s="21"/>
+      <c r="B61" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C61" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D61" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F60" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G60" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F61" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G61" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H60" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H61" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>mkdir 02.外部設計\06.帳票設計</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J61" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="K61" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L61" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M60" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M61" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>帳票一覧表</v>
       </c>
-      <c r="O60" s="2" t="s">
+      <c r="N61" s="5"/>
+      <c r="O61" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q60" s="2" t="s">
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R60" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R61" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="14" t="s">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A62" s="21"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="D61" s="13" t="s">
+      <c r="D62" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F61" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G61" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F62" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G62" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H61" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J61" s="2" t="s">
+      <c r="H62" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J62" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="K62" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L62" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M61" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M62" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>【各帳票設計書】</v>
       </c>
-      <c r="O61" s="2" t="s">
+      <c r="N62" s="5"/>
+      <c r="O62" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q61" s="2" t="s">
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R61" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R62" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A62" s="21"/>
-      <c r="B62" s="19" t="s">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A63" s="21"/>
+      <c r="B63" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>214</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="F62" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G62" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>02.外部設計</v>
-      </c>
-      <c r="H62" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>mkdir 02.外部設計\07.移行設計</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L62" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M62" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>サーバ移行計画書</v>
-      </c>
-      <c r="O62" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R62" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>02.外部設計</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="13" t="s">
-        <v>215</v>
       </c>
       <c r="D63" s="13" t="s">
         <v>153</v>
       </c>
       <c r="F63" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G63" s="6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J63" s="2" t="s">
+        <f t="shared" si="15"/>
+        <v>mkdir 02.外部設計\07.移行設計</v>
+      </c>
+      <c r="J63" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M63" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M63" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>サーバ移行計画書</v>
+      </c>
+      <c r="N63" s="5"/>
+      <c r="O63" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R63" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>02.外部設計</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G64" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>02.外部設計</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M64" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>データ移行計画書</v>
       </c>
-      <c r="O63" s="2" t="s">
+      <c r="N64" s="5"/>
+      <c r="O64" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q63" s="2" t="s">
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R63" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R64" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A64" s="21"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="13" t="s">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A65" s="21"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D65" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="F64" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G64" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="F65" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G65" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H64" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="J64" s="2" t="s">
+      <c r="H65" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="K65" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L65" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M64" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M65" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>モジュール移行計画書</v>
       </c>
-      <c r="O64" s="2" t="s">
+      <c r="N65" s="5"/>
+      <c r="O65" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q64" s="2" t="s">
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R64" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R65" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A65" s="22"/>
-      <c r="B65" s="20" t="s">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A66" s="22"/>
+      <c r="B66" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F65" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G65" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="D66" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="F66" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G66" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>02.外部設計</v>
       </c>
-      <c r="H65" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H66" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>mkdir 02.外部設計\99.詳細見積</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J66" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="K66" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L66" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M65" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M66" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>詳細見積書</v>
       </c>
-      <c r="O65" s="2" t="s">
+      <c r="N66" s="5"/>
+      <c r="O66" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q65" s="2" t="s">
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R65" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R66" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A66" s="23" t="s">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A67" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B67" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D67" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="F66" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="F67" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>mkdir 03.内部設計</v>
       </c>
-      <c r="G66" s="6" t="str">
-        <f t="shared" si="4"/>
+      <c r="G67" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>03.内部設計</v>
       </c>
-      <c r="H66" s="5" t="str">
-        <f t="shared" si="5"/>
+      <c r="H67" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>mkdir 03.内部設計\01.ＤＢ設計</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J67" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="K67" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L67" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M66" s="7" t="str">
-        <f t="shared" si="8"/>
+      <c r="M67" s="31" t="str">
+        <f t="shared" si="11"/>
         <v>ＤＢ物理設計書</v>
       </c>
-      <c r="O66" s="2" t="s">
+      <c r="N67" s="5"/>
+      <c r="O67" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q66" s="2" t="s">
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R66" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R67" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>03.内部設計</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A67" s="24"/>
-      <c r="B67" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="G67" s="6" t="str">
-        <f t="shared" si="4"/>
-        <v>03.内部設計</v>
-      </c>
-      <c r="H67" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>mkdir 03.内部設計\02.バッチ設計</v>
-      </c>
-      <c r="J67" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L67" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M67" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各バッチプラグラム特記仕様書】</v>
-      </c>
-      <c r="O67" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R67" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>03.内部設計</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A68" s="24"/>
       <c r="B68" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D68" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F68" s="5" t="str">
-        <f t="shared" ref="F68:F111" si="10">IF(A68="","","mkdir "&amp;A68)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G68" s="6" t="str">
-        <f t="shared" ref="G68:G111" si="11">IF(F68="",G67,A68)</f>
+        <f t="shared" si="14"/>
         <v>03.内部設計</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f t="shared" ref="H68:H111" si="12">IF(B68="","",IF(LEFT(B68,1)="（","","mkdir "&amp;G68&amp;"\"&amp;B68))</f>
-        <v>mkdir 03.内部設計\03.画面設計</v>
-      </c>
-      <c r="J68" s="2" t="s">
+        <f t="shared" si="15"/>
+        <v>mkdir 03.内部設計\02.バッチ設計</v>
+      </c>
+      <c r="J68" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="K68" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M68" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各画面プラグラム特記仕様書】</v>
-      </c>
-      <c r="O68" s="2" t="s">
+      <c r="M68" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>【各バッチプラグラム特記仕様書】</v>
+      </c>
+      <c r="N68" s="5"/>
+      <c r="O68" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q68" s="2" t="s">
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R68" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R68" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>03.内部設計</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A69" s="25"/>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A69" s="24"/>
       <c r="B69" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D69" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F69" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G69" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>03.内部設計</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 03.内部設計\03.画面設計</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M69" s="31" t="str">
         <f t="shared" si="11"/>
+        <v>【各画面プラグラム特記仕様書】</v>
+      </c>
+      <c r="N69" s="5"/>
+      <c r="O69" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R69" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>03.内部設計</v>
       </c>
-      <c r="H69" s="5" t="str">
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A70" s="25"/>
+      <c r="B70" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G70" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>03.内部設計</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 03.内部設計\04.帳票設計</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L70" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M70" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>【各帳票プラグラム特記仕様書】</v>
+      </c>
+      <c r="N70" s="5"/>
+      <c r="O70" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R70" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>mkdir 03.内部設計\04.帳票設計</v>
-      </c>
-      <c r="J69" s="2" t="s">
+        <v>03.内部設計</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A71" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B71" s="8"/>
+      <c r="C71" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>mkdir 04.ＰＧ設計</v>
+      </c>
+      <c r="G71" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J71" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="K71" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L71" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M69" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各帳票プラグラム特記仕様書】</v>
-      </c>
-      <c r="O69" s="2" t="s">
+      <c r="M71" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>メッセージ一覧表</v>
+      </c>
+      <c r="N71" s="5"/>
+      <c r="O71" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q69" s="2" t="s">
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R69" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>03.内部設計</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A70" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="F70" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>mkdir 04.ＰＧ設計</v>
-      </c>
-      <c r="G70" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="R71" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>04.ＰＧ設計</v>
       </c>
-      <c r="H70" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J70" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L70" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M70" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>メッセージ一覧表</v>
-      </c>
-      <c r="O70" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R70" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>04.ＰＧ設計</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A71" s="4"/>
-      <c r="B71" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="F71" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G71" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>04.ＰＧ設計</v>
-      </c>
-      <c r="H71" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 04.ＰＧ設計\01.バッチＰＧ設計</v>
-      </c>
-      <c r="J71" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L71" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M71" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>バッチ実装基盤設計書</v>
-      </c>
-      <c r="O71" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R71" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>04.ＰＧ設計</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F72" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G72" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 04.ＰＧ設計\01.バッチＰＧ設計</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M72" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>バッチ実装基盤設計書</v>
+      </c>
+      <c r="N72" s="5"/>
+      <c r="O72" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R72" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A73" s="4"/>
+      <c r="B73" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="D72" s="13" t="s">
+      <c r="D73" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F72" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G72" s="6" t="str">
+      <c r="F73" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G73" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 04.ＰＧ設計\02.画面ＰＧ設計</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M73" s="31" t="str">
         <f t="shared" si="11"/>
+        <v>画面実装基盤設計書</v>
+      </c>
+      <c r="N73" s="5"/>
+      <c r="O73" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R73" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>04.ＰＧ設計</v>
       </c>
-      <c r="H72" s="5" t="str">
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A74" s="9"/>
+      <c r="B74" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="F74" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G74" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>04.ＰＧ設計</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 04.ＰＧ設計\03.帳票ＰＧ設計</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M74" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>帳票実装基盤設計書</v>
+      </c>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R74" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>mkdir 04.ＰＧ設計\02.画面ＰＧ設計</v>
-      </c>
-      <c r="J72" s="2" t="s">
+        <v>04.ＰＧ設計</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A75" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="F75" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>mkdir 05.ＰＧ開発</v>
+      </c>
+      <c r="G75" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 05.ＰＧ開発\01.開発端末環境構築</v>
+      </c>
+      <c r="J75" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K75" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L75" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M72" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>画面実装基盤設計書</v>
-      </c>
-      <c r="O72" s="2" t="s">
+      <c r="M75" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>開発環境構築手順書</v>
+      </c>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q72" s="2" t="s">
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R72" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>04.ＰＧ設計</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A73" s="9"/>
-      <c r="B73" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="F73" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G73" s="6" t="str">
+      <c r="R75" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A76" s="4"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F76" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G76" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M76" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>04.ＰＧ設計</v>
-      </c>
-      <c r="H73" s="5" t="str">
+        <v>【各インストーラ】</v>
+      </c>
+      <c r="N76" s="5"/>
+      <c r="O76" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R76" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>mkdir 04.ＰＧ設計\03.帳票ＰＧ設計</v>
-      </c>
-      <c r="J73" s="2" t="s">
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A77" s="4"/>
+      <c r="B77" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F77" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G77" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 05.ＰＧ開発\02.製造規約</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="K77" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L77" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M73" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>帳票実装基盤設計書</v>
-      </c>
-      <c r="O73" s="2" t="s">
+      <c r="M77" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>製造規約書</v>
+      </c>
+      <c r="N77" s="5"/>
+      <c r="O77" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q73" s="2" t="s">
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R73" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>04.ＰＧ設計</v>
-      </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A74" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F74" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>mkdir 05.ＰＧ開発</v>
-      </c>
-      <c r="G74" s="6" t="str">
+      <c r="R77" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A78" s="4"/>
+      <c r="B78" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F78" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G78" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 05.ＰＧ開発\03.開発サーバ環境構築</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M78" s="31" t="str">
         <f t="shared" si="11"/>
+        <v>開発サーバ環境構築手順書</v>
+      </c>
+      <c r="N78" s="5"/>
+      <c r="O78" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R78" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>05.ＰＧ開発</v>
       </c>
-      <c r="H74" s="5" t="str">
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F79" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G79" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M79" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>【各DBスクリプト】</v>
+      </c>
+      <c r="N79" s="5"/>
+      <c r="O79" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R79" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>mkdir 05.ＰＧ開発\01.開発端末環境構築</v>
-      </c>
-      <c r="J74" s="2" t="s">
+        <v>05.ＰＧ開発</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A80" s="4"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F80" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G80" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J80" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="K80" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L80" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M74" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>開発環境構築手順書</v>
-      </c>
-      <c r="O74" s="2" t="s">
+      <c r="M80" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>【各DBダンプ】</v>
+      </c>
+      <c r="N80" s="5"/>
+      <c r="O80" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q74" s="2" t="s">
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R74" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="R80" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>05.ＰＧ開発</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A75" s="4"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="F75" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G75" s="6" t="str">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A81" s="4"/>
+      <c r="B81" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F81" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G81" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>05.ＰＧ開発</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 05.ＰＧ開発\04.技術検討</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M81" s="31" t="str">
         <f t="shared" si="11"/>
+        <v>【各技術検討資料】</v>
+      </c>
+      <c r="N81" s="5"/>
+      <c r="O81" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R81" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>05.ＰＧ開発</v>
       </c>
-      <c r="H75" s="5" t="str">
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A82" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B82" s="11"/>
+      <c r="C82" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F82" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>mkdir 06.単体試験</v>
+      </c>
+      <c r="G82" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>06.単体試験</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M82" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>【各単体試験仕様書】</v>
+      </c>
+      <c r="N82" s="5"/>
+      <c r="O82" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R82" s="5" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J75" s="2" t="s">
+        <v>06.単体試験</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A83" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" s="19"/>
+      <c r="C83" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F83" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v>mkdir 07.結合試験</v>
+      </c>
+      <c r="G83" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>07.結合試験</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J83" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K83" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L83" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="M75" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各インストーラ】</v>
-      </c>
-      <c r="O75" s="2" t="s">
+      <c r="M83" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>結合試験計画書</v>
+      </c>
+      <c r="N83" s="5"/>
+      <c r="O83" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="Q75" s="2" t="s">
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="R75" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A76" s="4"/>
-      <c r="B76" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F76" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G76" s="6" t="str">
+      <c r="R83" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>07.結合試験</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F84" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G84" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>07.結合試験</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M84" s="31" t="str">
         <f t="shared" si="11"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-      <c r="H76" s="5" t="str">
+        <v>【各結合試験仕様書】</v>
+      </c>
+      <c r="N84" s="5"/>
+      <c r="O84" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R84" s="5" t="str">
         <f t="shared" si="12"/>
-        <v>mkdir 05.ＰＧ開発\02.製造規約</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M76" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>製造規約書</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R76" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A77" s="4"/>
-      <c r="B77" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="F77" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G77" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-      <c r="H77" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 05.ＰＧ開発\03.開発サーバ環境構築</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M77" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>開発サーバ環境構築手順書</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R77" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A78" s="4"/>
-      <c r="B78" s="4"/>
-      <c r="C78" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F78" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G78" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-      <c r="H78" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M78" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各DBスクリプト】</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R78" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A79" s="4"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F79" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G79" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-      <c r="H79" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M79" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各DBダンプ】</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q79" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R79" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A80" s="4"/>
-      <c r="B80" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="F80" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G80" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-      <c r="H80" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 05.ＰＧ開発\04.技術検討</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M80" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各技術検討資料】</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R80" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>05.ＰＧ開発</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A81" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="F81" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>mkdir 06.単体試験</v>
-      </c>
-      <c r="G81" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>06.単体試験</v>
-      </c>
-      <c r="H81" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K81" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M81" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各単体試験仕様書】</v>
-      </c>
-      <c r="O81" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q81" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R81" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>06.単体試験</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A82" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B82" s="19"/>
-      <c r="C82" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="F82" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>mkdir 07.結合試験</v>
-      </c>
-      <c r="G82" s="6" t="str">
-        <f t="shared" si="11"/>
         <v>07.結合試験</v>
       </c>
-      <c r="H82" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K82" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M82" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>結合試験計画書</v>
-      </c>
-      <c r="O82" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R82" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>07.結合試験</v>
-      </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F83" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G83" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>07.結合試験</v>
-      </c>
-      <c r="H83" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M83" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>【各結合試験仕様書】</v>
-      </c>
-      <c r="O83" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q83" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R83" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>07.結合試験</v>
-      </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A84" s="15" t="s">
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A85" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B84" s="15" t="s">
+      <c r="B85" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="F84" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>mkdir 08.総合試験</v>
-      </c>
-      <c r="G84" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>08.総合試験</v>
-      </c>
-      <c r="H84" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 08.総合試験\00.移行リハ</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K84" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L84" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M84" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>サーバ移行リハ手順書</v>
-      </c>
-      <c r="O84" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R84" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>08.総合試験</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="13" t="s">
-        <v>158</v>
       </c>
       <c r="D85" s="13" t="s">
         <v>243</v>
       </c>
       <c r="F85" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
+        <f t="shared" si="13"/>
+        <v>mkdir 08.総合試験</v>
       </c>
       <c r="G85" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 08.総合試験\00.移行リハ</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M85" s="31" t="str">
         <f t="shared" si="11"/>
+        <v>サーバ移行リハ手順書</v>
+      </c>
+      <c r="N85" s="5"/>
+      <c r="O85" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R85" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>08.総合試験</v>
       </c>
-      <c r="H85" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K85" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L85" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M85" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>データ移行リハ手順書</v>
-      </c>
-      <c r="O85" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q85" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R85" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>08.総合試験</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
+      <c r="B86" s="17"/>
       <c r="C86" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D86" s="13" t="s">
         <v>243</v>
       </c>
       <c r="F86" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G86" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>08.総合試験</v>
-      </c>
-      <c r="H86" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J86" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K86" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L86" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M86" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>モジュール移行リハ手順書</v>
-      </c>
-      <c r="O86" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R86" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>08.総合試験</v>
-      </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A87" s="17"/>
-      <c r="B87" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F87" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G87" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>08.総合試験</v>
-      </c>
-      <c r="H87" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 08.総合試験\01.シナリオテスト</v>
-      </c>
-      <c r="J87" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K87" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M87" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>シナリオテスト計画書</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q87" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R87" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>08.総合試験</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D88" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F88" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G88" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>08.総合試験</v>
-      </c>
-      <c r="H88" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M88" s="7" t="str">
-        <f t="shared" ref="M88:M103" si="13">C88</f>
-        <v>【各シナリオテスト仕様書】</v>
-      </c>
-      <c r="O88" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q88" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R88" s="2" t="str">
-        <f t="shared" ref="R88:R103" si="14">G88</f>
-        <v>08.総合試験</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A89" s="17"/>
-      <c r="B89" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F89" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G89" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>08.総合試験</v>
-      </c>
-      <c r="H89" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 08.総合試験\02.ストレステスト</v>
-      </c>
-      <c r="J89" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K89" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M89" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>ストレステスト計画書</v>
-      </c>
-      <c r="O89" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R89" s="2" t="str">
         <f t="shared" si="14"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F90" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G90" s="6" t="str">
+      <c r="H86" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M86" s="31" t="str">
         <f t="shared" si="11"/>
+        <v>データ移行リハ手順書</v>
+      </c>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R86" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>08.総合試験</v>
       </c>
-      <c r="H90" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J90" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K90" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L90" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M90" s="7" t="str">
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A87" s="17"/>
+      <c r="B87" s="18"/>
+      <c r="C87" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="F87" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>【各ストレステスト仕様書】</v>
-      </c>
-      <c r="O90" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q90" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R90" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G87" s="6" t="str">
         <f t="shared" si="14"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A91" s="17"/>
-      <c r="B91" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="F91" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G91" s="6" t="str">
+      <c r="H87" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L87" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M87" s="31" t="str">
         <f t="shared" si="11"/>
+        <v>モジュール移行リハ手順書</v>
+      </c>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R87" s="5" t="str">
+        <f t="shared" si="12"/>
         <v>08.総合試験</v>
       </c>
-      <c r="H91" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 08.総合試験\03.現新比較テスト</v>
-      </c>
-      <c r="J91" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K91" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L91" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M91" s="7" t="str">
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A88" s="17"/>
+      <c r="B88" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F88" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>現新比較テスト計画書</v>
-      </c>
-      <c r="O91" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q91" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R91" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G88" s="6" t="str">
         <f t="shared" si="14"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A92" s="17"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D92" s="13" t="s">
+      <c r="H88" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 08.総合試験\01.シナリオテスト</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L88" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M88" s="31" t="str">
+        <f t="shared" si="11"/>
+        <v>シナリオテスト計画書</v>
+      </c>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R88" s="5" t="str">
+        <f t="shared" si="12"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A89" s="17"/>
+      <c r="B89" s="18"/>
+      <c r="C89" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="D89" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="F92" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G92" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>08.総合試験</v>
-      </c>
-      <c r="H92" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J92" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K92" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M92" s="7" t="str">
+      <c r="F89" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>【各現新比較テスト仕様書】</v>
-      </c>
-      <c r="O92" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q92" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R92" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G89" s="6" t="str">
         <f t="shared" si="14"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A93" s="18"/>
-      <c r="B93" s="16" t="s">
-        <v>59</v>
-      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L89" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M89" s="31" t="str">
+        <f t="shared" ref="M89:M104" si="16">C89</f>
+        <v>【各シナリオテスト仕様書】</v>
+      </c>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R89" s="5" t="str">
+        <f t="shared" ref="R89:R104" si="17">G89</f>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A90" s="17"/>
+      <c r="B90" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F90" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G90" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 08.総合試験\02.ストレステスト</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L90" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M90" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>ストレステスト計画書</v>
+      </c>
+      <c r="N90" s="5"/>
+      <c r="O90" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R90" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A91" s="17"/>
+      <c r="B91" s="18"/>
+      <c r="C91" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F91" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G91" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L91" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M91" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>【各ストレステスト仕様書】</v>
+      </c>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R91" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A92" s="17"/>
+      <c r="B92" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F92" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G92" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 08.総合試験\03.現新比較テスト</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L92" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M92" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>現新比較テスト計画書</v>
+      </c>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R92" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A93" s="17"/>
+      <c r="B93" s="18"/>
       <c r="C93" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>169</v>
       </c>
       <c r="F93" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G93" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>08.総合試験</v>
-      </c>
-      <c r="H93" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 08.総合試験\04.回帰テスト</v>
-      </c>
-      <c r="J93" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K93" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L93" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M93" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>【各回帰テスト仕様書】</v>
-      </c>
-      <c r="O93" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q93" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R93" s="2" t="str">
         <f t="shared" si="14"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A94" s="8" t="s">
+      <c r="H93" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L93" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M93" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>【各現新比較テスト仕様書】</v>
+      </c>
+      <c r="N93" s="5"/>
+      <c r="O93" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R93" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A94" s="18"/>
+      <c r="B94" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F94" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G94" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>08.総合試験</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 08.総合試験\04.回帰テスト</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L94" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M94" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>【各回帰テスト仕様書】</v>
+      </c>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R94" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>08.総合試験</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A95" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="13" t="s">
+      <c r="B95" s="8"/>
+      <c r="C95" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D95" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="F94" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="F95" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>mkdir 09.受入検査</v>
       </c>
-      <c r="G94" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>09.受入検査</v>
-      </c>
-      <c r="H94" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M94" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>ユーザ指摘管理表</v>
-      </c>
-      <c r="O94" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q94" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R94" s="2" t="str">
+      <c r="G95" s="6" t="str">
         <f t="shared" si="14"/>
         <v>09.受入検査</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A95" s="10" t="s">
+      <c r="H95" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K95" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M95" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>ユーザ指摘管理表</v>
+      </c>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R95" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>09.受入検査</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A96" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="13" t="s">
+      <c r="B96" s="10"/>
+      <c r="C96" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D95" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="F95" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="D96" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F96" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>mkdir 10.本番移行</v>
       </c>
-      <c r="G95" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>10.本番移行</v>
-      </c>
-      <c r="H95" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J95" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K95" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M95" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>サーバ移行手順書</v>
-      </c>
-      <c r="O95" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q95" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R95" s="2" t="str">
+      <c r="G96" s="6" t="str">
         <f t="shared" si="14"/>
         <v>10.本番移行</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A96" s="4"/>
-      <c r="B96" s="4"/>
-      <c r="C96" s="13" t="s">
+      <c r="H96" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K96" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L96" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M96" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>サーバ移行手順書</v>
+      </c>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R96" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>10.本番移行</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D96" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="F96" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G96" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>10.本番移行</v>
-      </c>
-      <c r="H96" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L96" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M96" s="7" t="str">
+      <c r="D97" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F97" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>データ移行手順書</v>
-      </c>
-      <c r="O96" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q96" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R96" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G97" s="6" t="str">
         <f t="shared" si="14"/>
         <v>10.本番移行</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="13" t="s">
+      <c r="H97" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K97" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L97" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M97" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>データ移行手順書</v>
+      </c>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R97" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>10.本番移行</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D97" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="F97" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G97" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>10.本番移行</v>
-      </c>
-      <c r="H97" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J97" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K97" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M97" s="7" t="str">
+      <c r="D98" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F98" s="5" t="str">
         <f t="shared" si="13"/>
-        <v>モジュール移行手順書</v>
-      </c>
-      <c r="O97" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q97" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R97" s="2" t="str">
+        <v/>
+      </c>
+      <c r="G98" s="6" t="str">
         <f t="shared" si="14"/>
         <v>10.本番移行</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A98" s="10" t="s">
+      <c r="H98" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L98" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M98" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>モジュール移行手順書</v>
+      </c>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R98" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>10.本番移行</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A99" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C98" s="13" t="s">
+      <c r="B99" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C99" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D98" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="F98" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="D99" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="F99" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>mkdir 11.運用保守</v>
       </c>
-      <c r="G98" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>11.運用保守</v>
-      </c>
-      <c r="H98" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 11.運用保守\yyyymmdd</v>
-      </c>
-      <c r="J98" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K98" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L98" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M98" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>リリース手順書</v>
-      </c>
-      <c r="O98" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q98" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R98" s="2" t="str">
+      <c r="G99" s="6" t="str">
         <f t="shared" si="14"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A99" s="4"/>
-      <c r="B99" s="4"/>
-      <c r="C99" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="F99" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G99" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="H99" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 11.運用保守\【各yyyymmdd】</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K99" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L99" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M99" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>リリース手順書</v>
+      </c>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R99" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>11.運用保守</v>
       </c>
-      <c r="H99" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J99" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K99" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M99" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>インストーラ</v>
-      </c>
-      <c r="O99" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q99" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R99" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>11.運用保守</v>
-      </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="13" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>235</v>
+        <v>253</v>
       </c>
       <c r="F100" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G100" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>11.運用保守</v>
-      </c>
-      <c r="H100" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J100" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K100" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M100" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>DDL</v>
-      </c>
-      <c r="O100" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q100" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R100" s="2" t="str">
         <f t="shared" si="14"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H100" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K100" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L100" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M100" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>インストーラ</v>
+      </c>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R100" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>11.運用保守</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F101" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G101" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>11.運用保守</v>
-      </c>
-      <c r="H101" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K101" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M101" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>DML</v>
-      </c>
-      <c r="O101" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q101" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R101" s="2" t="str">
         <f t="shared" si="14"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="H101" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L101" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M101" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>DDL</v>
+      </c>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R101" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>11.運用保守</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="13" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="F102" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G102" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>11.運用保守</v>
-      </c>
-      <c r="H102" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M102" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>プログラム一式</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q102" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R102" s="2" t="str">
         <f t="shared" si="14"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A103" s="9"/>
-      <c r="B103" s="9"/>
+      <c r="H102" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L102" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M102" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>DML</v>
+      </c>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R102" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>11.運用保守</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
       <c r="C103" s="13" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>155</v>
+        <v>250</v>
       </c>
       <c r="F103" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G103" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>11.運用保守</v>
-      </c>
-      <c r="H103" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K103" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="M103" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>リリースモジュール</v>
-      </c>
-      <c r="O103" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q103" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="R103" s="2" t="str">
         <f t="shared" si="14"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A104" s="29" t="s">
+      <c r="H103" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K103" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L103" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M103" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>プログラム一式</v>
+      </c>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R103" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>11.運用保守</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="F104" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G104" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>11.運用保守</v>
+      </c>
+      <c r="H104" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K104" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="L104" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M104" s="31" t="str">
+        <f t="shared" si="16"/>
+        <v>リリースモジュール</v>
+      </c>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="R104" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>11.運用保守</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A105" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B105" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C104" s="30" t="s">
+      <c r="C105" s="30" t="s">
         <v>226</v>
       </c>
-      <c r="D104" s="28" t="s">
-        <v>261</v>
-      </c>
-      <c r="F104" s="5" t="str">
-        <f t="shared" si="10"/>
+      <c r="D105" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="F105" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>mkdir 99.案件管理</v>
       </c>
-      <c r="G104" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="G105" s="6" t="str">
+        <f t="shared" si="14"/>
         <v>99.案件管理</v>
       </c>
-      <c r="H104" s="5" t="str">
-        <f t="shared" si="12"/>
+      <c r="H105" s="5" t="str">
+        <f t="shared" si="15"/>
         <v>mkdir 99.案件管理\01.議事管理</v>
       </c>
-      <c r="M104" s="7"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A105" s="26"/>
-      <c r="B105" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="D105" s="28"/>
-      <c r="F105" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G105" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>99.案件管理</v>
-      </c>
-      <c r="H105" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 99.案件管理\02.受領物管理</v>
-      </c>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A106" s="26"/>
       <c r="B106" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="D106" s="28"/>
+      <c r="F106" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G106" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>99.案件管理</v>
+      </c>
+      <c r="H106" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>mkdir 99.案件管理\02.受領物管理</v>
+      </c>
+      <c r="M106" s="7"/>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A107" s="26"/>
+      <c r="B107" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="C106" s="28" t="s">
+      <c r="C107" s="28" t="s">
         <v>237</v>
-      </c>
-      <c r="D106" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="F106" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G106" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>99.案件管理</v>
-      </c>
-      <c r="H106" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 99.案件管理\03.課題管理</v>
-      </c>
-      <c r="M106" s="7"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A107" s="26"/>
-      <c r="B107" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C107" s="28" t="s">
-        <v>238</v>
       </c>
       <c r="D107" s="28" t="s">
         <v>259</v>
       </c>
       <c r="F107" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G107" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>99.案件管理</v>
       </c>
       <c r="H107" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 99.案件管理\04.予実管理</v>
+        <f t="shared" si="15"/>
+        <v>mkdir 99.案件管理\03.課題管理</v>
       </c>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A108" s="26"/>
-      <c r="B108" s="27"/>
+      <c r="B108" s="29" t="s">
+        <v>78</v>
+      </c>
       <c r="C108" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D108" s="28" t="s">
         <v>258</v>
       </c>
       <c r="F108" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G108" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>99.案件管理</v>
       </c>
       <c r="H108" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v/>
+        <f t="shared" si="15"/>
+        <v>mkdir 99.案件管理\04.予実管理</v>
       </c>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A109" s="26"/>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="27"/>
+      <c r="C109" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F109" s="5" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G109" s="6" t="str">
+        <f t="shared" si="14"/>
+        <v>99.案件管理</v>
+      </c>
+      <c r="H109" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="M109" s="7"/>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A110" s="26"/>
+      <c r="B110" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C109" s="30" t="s">
+      <c r="C110" s="30" t="s">
         <v>242</v>
-      </c>
-      <c r="D109" s="28"/>
-      <c r="F109" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G109" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>99.案件管理</v>
-      </c>
-      <c r="H109" s="5" t="str">
-        <f t="shared" si="12"/>
-        <v>mkdir 99.案件管理\05.要員管理</v>
-      </c>
-      <c r="M109" s="7"/>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A110" s="27"/>
-      <c r="B110" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C110" s="30" t="s">
-        <v>241</v>
       </c>
       <c r="D110" s="28"/>
       <c r="F110" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="G110" s="6" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>99.案件管理</v>
       </c>
       <c r="H110" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
+        <v>mkdir 99.案件管理\05.要員管理</v>
+      </c>
+      <c r="M110" s="7"/>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A111" s="27"/>
+      <c r="B111" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>241</v>
+      </c>
+      <c r="D111" s="28"/>
+      <c r="F111" s="5" t="str">
+        <f t="shared" ref="F111:F112" si="18">IF(A111="","","mkdir "&amp;A111)</f>
+        <v/>
+      </c>
+      <c r="G111" s="6" t="str">
+        <f t="shared" ref="G111:G112" si="19">IF(F111="",G110,A111)</f>
+        <v>99.案件管理</v>
+      </c>
+      <c r="H111" s="5" t="str">
+        <f t="shared" ref="H111:H112" si="20">IF(B111="","",IF(LEFT(B111,1)="（","","mkdir "&amp;G111&amp;"\"&amp;B111))</f>
         <v>mkdir 99.案件管理\06.提出物管理</v>
       </c>
-      <c r="M110" s="7"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-      <c r="F111" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="G111" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="M111" s="7"/>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="F112" s="5" t="str">
+        <f t="shared" si="18"/>
+        <v/>
+      </c>
+      <c r="G112" s="6" t="str">
+        <f t="shared" si="19"/>
         <v>99.案件管理</v>
       </c>
-      <c r="H111" s="5" t="str">
-        <f t="shared" si="12"/>
+      <c r="H112" s="5" t="str">
+        <f t="shared" si="20"/>
         <v/>
       </c>
     </row>

--- a/チケットの検討.xlsx
+++ b/チケットの検討.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KTC0966\git\progress_manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F9200B-6682-477A-896B-41227A5F6963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85A8664B-BC22-47EE-9FFB-08AAECE318DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A73D977A-2BB7-4E44-BD18-B07C0AA4A6A6}"/>
   </bookViews>
   <sheets>
     <sheet name="作業単位一覧表" sheetId="1" r:id="rId1"/>
@@ -3452,7 +3452,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:W112"/>
+  <dimension ref="A2:Y112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -3872,7 +3872,7 @@
       </c>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17" s="26"/>
       <c r="B17" s="26"/>
       <c r="C17" s="28" t="s">
@@ -3895,7 +3895,7 @@
       </c>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18" s="26"/>
       <c r="B18" s="26"/>
       <c r="C18" s="28" t="s">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19" s="26"/>
       <c r="B19" s="26"/>
       <c r="C19" s="28" t="s">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20" s="26"/>
       <c r="B20" s="26"/>
       <c r="C20" s="30" t="s">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21" s="26"/>
       <c r="B21" s="26"/>
       <c r="C21" s="30" t="s">
@@ -3987,7 +3987,7 @@
       </c>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
       <c r="C22" s="30" t="s">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23" s="26"/>
       <c r="B23" s="28" t="s">
         <v>265</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
@@ -4085,8 +4085,12 @@
         <f t="shared" ref="R24" si="10">G24</f>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y24" t="str">
+        <f>"""#"&amp;ROW()&amp;""":{ id:'#"&amp;ROW()&amp;"',projectName:'"&amp;J24&amp;"',version:'"&amp;R24&amp;"',statusId:'1',assignedId:'0966',subject:'"&amp;M24&amp;"'},"</f>
+        <v>"#24":{ id:'#24',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'業務フロー図'},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="13" t="s">
@@ -4132,8 +4136,12 @@
         <f t="shared" ref="R25:R88" si="12">G25</f>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y25" t="str">
+        <f t="shared" ref="Y25:Y88" si="13">"""#"&amp;ROW()&amp;""":{ id:'#"&amp;ROW()&amp;"',projectName:'"&amp;J25&amp;"',version:'"&amp;R25&amp;"',statusId:'1',assignedId:'0966',subject:'"&amp;M25&amp;"'},"</f>
+        <v>"#25":{ id:'#25',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'システム化課題一覧表'},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26" s="17"/>
       <c r="B26" s="18"/>
       <c r="C26" s="13" t="s">
@@ -4179,8 +4187,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y26" t="str">
+        <f t="shared" si="13"/>
+        <v>"#26":{ id:'#26',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'セキュリティ要件書'},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27" s="17"/>
       <c r="B27" s="15" t="s">
         <v>15</v>
@@ -4228,8 +4240,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y27" t="str">
+        <f t="shared" si="13"/>
+        <v>"#27":{ id:'#27',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'システム構成図'},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
       <c r="C28" s="13" t="s">
@@ -4275,8 +4291,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y28" t="str">
+        <f t="shared" si="13"/>
+        <v>"#28":{ id:'#28',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'ＤＢ一覧表'},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29" s="17"/>
       <c r="B29" s="17"/>
       <c r="C29" s="13" t="s">
@@ -4322,8 +4342,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y29" t="str">
+        <f t="shared" si="13"/>
+        <v>"#29":{ id:'#29',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'（要件版）テーブル一覧表'},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30" s="17"/>
       <c r="B30" s="18"/>
       <c r="C30" s="13" t="s">
@@ -4369,8 +4393,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y30" t="str">
+        <f t="shared" si="13"/>
+        <v>"#30":{ id:'#30',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'（要件版）ＩＦ一覧表'},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31" s="17"/>
       <c r="B31" s="15" t="s">
         <v>18</v>
@@ -4418,8 +4446,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y31" t="str">
+        <f t="shared" si="13"/>
+        <v>"#31":{ id:'#31',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'（要件版）バッチ一覧表'},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32" s="17"/>
       <c r="B32" s="17"/>
       <c r="C32" s="13" t="s">
@@ -4465,8 +4497,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y32" t="str">
+        <f t="shared" si="13"/>
+        <v>"#32":{ id:'#32',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'（要件版）ジョブフロー図'},</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="13" t="s">
@@ -4512,8 +4548,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y33" t="str">
+        <f t="shared" si="13"/>
+        <v>"#33":{ id:'#33',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'（要件版）ジョブスケジュール表'},</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="13" t="s">
@@ -4559,8 +4599,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y34" t="str">
+        <f t="shared" si="13"/>
+        <v>"#34":{ id:'#34',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'（要件版）画面一覧表'},</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="13" t="s">
@@ -4606,8 +4650,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y35" t="str">
+        <f t="shared" si="13"/>
+        <v>"#35":{ id:'#35',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'（要件版）画面帳票遷移図'},</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="13" t="s">
@@ -4653,8 +4701,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y36" t="str">
+        <f t="shared" si="13"/>
+        <v>"#36":{ id:'#36',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'（要件版）帳票一覧表'},</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="13" t="s">
@@ -4700,8 +4752,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y37" t="str">
+        <f t="shared" si="13"/>
+        <v>"#37":{ id:'#37',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'画面デモ'},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A38" s="17"/>
       <c r="B38" s="16" t="s">
         <v>55</v>
@@ -4749,8 +4805,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y38" t="str">
+        <f t="shared" si="13"/>
+        <v>"#38":{ id:'#38',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'【各技術検証資料】'},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A39" s="17"/>
       <c r="B39" s="15" t="s">
         <v>22</v>
@@ -4798,8 +4858,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y39" t="str">
+        <f t="shared" si="13"/>
+        <v>"#39":{ id:'#39',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'試験要件定義表'},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="13" t="s">
@@ -4845,8 +4909,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y40" t="str">
+        <f t="shared" si="13"/>
+        <v>"#40":{ id:'#40',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'移行要件定義書'},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="13" t="s">
@@ -4892,8 +4960,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y41" t="str">
+        <f t="shared" si="13"/>
+        <v>"#41":{ id:'#41',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'運用要件定義書'},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="13" t="s">
@@ -4939,8 +5011,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y42" t="str">
+        <f t="shared" si="13"/>
+        <v>"#42":{ id:'#42',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'開発体制図'},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="13" t="s">
@@ -4986,8 +5062,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y43" t="str">
+        <f t="shared" si="13"/>
+        <v>"#43":{ id:'#43',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'（要件版）WBS'},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
       <c r="C44" s="13" t="s">
@@ -5033,8 +5113,12 @@
         <f t="shared" si="12"/>
         <v>01.要件定義</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y44" t="str">
+        <f t="shared" si="13"/>
+        <v>"#44":{ id:'#44',projectName:'販売WEB',version:'01.要件定義',statusId:'1',assignedId:'0966',subject:'概算見積書'},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A45" s="19" t="s">
         <v>23</v>
       </c>
@@ -5084,8 +5168,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y45" t="str">
+        <f t="shared" si="13"/>
+        <v>"#45":{ id:'#45',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'【各機能設計書】'},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A46" s="21"/>
       <c r="B46" s="19" t="s">
         <v>27</v>
@@ -5133,8 +5221,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y46" t="str">
+        <f t="shared" si="13"/>
+        <v>"#46":{ id:'#46',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'テーブル一覧表'},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A47" s="21"/>
       <c r="B47" s="21"/>
       <c r="C47" s="13" t="s">
@@ -5144,15 +5236,15 @@
         <v>145</v>
       </c>
       <c r="F47" s="5" t="str">
-        <f t="shared" ref="F47:F110" si="13">IF(A47="","","mkdir "&amp;A47)</f>
+        <f t="shared" ref="F47:F110" si="14">IF(A47="","","mkdir "&amp;A47)</f>
         <v/>
       </c>
       <c r="G47" s="6" t="str">
-        <f t="shared" ref="G47:G110" si="14">IF(F47="",G46,A47)</f>
+        <f t="shared" ref="G47:G110" si="15">IF(F47="",G46,A47)</f>
         <v>02.外部設計</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f t="shared" ref="H47:H110" si="15">IF(B47="","",IF(LEFT(B47,1)="（","","mkdir "&amp;G47&amp;"\"&amp;B47))</f>
+        <f t="shared" ref="H47:H110" si="16">IF(B47="","",IF(LEFT(B47,1)="（","","mkdir "&amp;G47&amp;"\"&amp;B47))</f>
         <v/>
       </c>
       <c r="J47" s="5" t="s">
@@ -5180,8 +5272,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y47" t="str">
+        <f t="shared" si="13"/>
+        <v>"#47":{ id:'#47',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'ＥＲ図'},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A48" s="21"/>
       <c r="B48" s="21"/>
       <c r="C48" s="14" t="s">
@@ -5191,15 +5287,15 @@
         <v>146</v>
       </c>
       <c r="F48" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G48" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J48" s="5" t="s">
@@ -5227,8 +5323,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y48" t="str">
+        <f t="shared" si="13"/>
+        <v>"#48":{ id:'#48',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'【各テーブル定義書】'},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A49" s="21"/>
       <c r="B49" s="22"/>
       <c r="C49" s="13" t="s">
@@ -5238,15 +5338,15 @@
         <v>147</v>
       </c>
       <c r="F49" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G49" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J49" s="5" t="s">
@@ -5274,8 +5374,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y49" t="str">
+        <f t="shared" si="13"/>
+        <v>"#49":{ id:'#49',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'区分定義書'},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50" s="21"/>
       <c r="B50" s="19" t="s">
         <v>31</v>
@@ -5287,15 +5391,15 @@
         <v>140</v>
       </c>
       <c r="F50" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G50" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 02.外部設計\03.ＩＦ設計</v>
       </c>
       <c r="J50" s="5" t="s">
@@ -5323,8 +5427,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y50" t="str">
+        <f t="shared" si="13"/>
+        <v>"#50":{ id:'#50',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'ＩＦ一覧表'},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A51" s="21"/>
       <c r="B51" s="22"/>
       <c r="C51" s="14" t="s">
@@ -5334,15 +5442,15 @@
         <v>166</v>
       </c>
       <c r="F51" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G51" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J51" s="5" t="s">
@@ -5370,8 +5478,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y51" t="str">
+        <f t="shared" si="13"/>
+        <v>"#51":{ id:'#51',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'【各ＩＦ定義書】'},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A52" s="21"/>
       <c r="B52" s="19" t="s">
         <v>32</v>
@@ -5383,15 +5495,15 @@
         <v>148</v>
       </c>
       <c r="F52" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G52" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 02.外部設計\04.バッチ設計</v>
       </c>
       <c r="J52" s="5" t="s">
@@ -5419,8 +5531,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y52" t="str">
+        <f t="shared" si="13"/>
+        <v>"#52":{ id:'#52',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'バッチ共通仕様書'},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A53" s="21"/>
       <c r="B53" s="21"/>
       <c r="C53" s="13" t="s">
@@ -5430,15 +5546,15 @@
         <v>133</v>
       </c>
       <c r="F53" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G53" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J53" s="5" t="s">
@@ -5466,8 +5582,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y53" t="str">
+        <f t="shared" si="13"/>
+        <v>"#53":{ id:'#53',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'バッチ一覧表'},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A54" s="21"/>
       <c r="B54" s="21"/>
       <c r="C54" s="13" t="s">
@@ -5477,15 +5597,15 @@
         <v>134</v>
       </c>
       <c r="F54" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G54" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J54" s="5" t="s">
@@ -5513,8 +5633,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y54" t="str">
+        <f t="shared" si="13"/>
+        <v>"#54":{ id:'#54',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'ジョブフロー図'},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A55" s="21"/>
       <c r="B55" s="21"/>
       <c r="C55" s="13" t="s">
@@ -5524,15 +5648,15 @@
         <v>135</v>
       </c>
       <c r="F55" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G55" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J55" s="5" t="s">
@@ -5560,8 +5684,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y55" t="str">
+        <f t="shared" si="13"/>
+        <v>"#55":{ id:'#55',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'ジョブスケジュール表'},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A56" s="21"/>
       <c r="B56" s="22"/>
       <c r="C56" s="14" t="s">
@@ -5571,15 +5699,15 @@
         <v>149</v>
       </c>
       <c r="F56" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G56" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H56" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J56" s="5" t="s">
@@ -5607,8 +5735,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y56" t="str">
+        <f t="shared" si="13"/>
+        <v>"#56":{ id:'#56',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'【各バッチ設計書】'},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A57" s="21"/>
       <c r="B57" s="19" t="s">
         <v>33</v>
@@ -5620,15 +5752,15 @@
         <v>150</v>
       </c>
       <c r="F57" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G57" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 02.外部設計\05.画面設計</v>
       </c>
       <c r="J57" s="5" t="s">
@@ -5656,8 +5788,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y57" t="str">
+        <f t="shared" si="13"/>
+        <v>"#57":{ id:'#57',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'画面共通仕様書'},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A58" s="21"/>
       <c r="B58" s="21"/>
       <c r="C58" s="13" t="s">
@@ -5667,15 +5803,15 @@
         <v>136</v>
       </c>
       <c r="F58" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G58" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J58" s="5" t="s">
@@ -5703,8 +5839,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y58" t="str">
+        <f t="shared" si="13"/>
+        <v>"#58":{ id:'#58',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'画面一覧表'},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A59" s="21"/>
       <c r="B59" s="21"/>
       <c r="C59" s="13" t="s">
@@ -5714,15 +5854,15 @@
         <v>137</v>
       </c>
       <c r="F59" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G59" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J59" s="5" t="s">
@@ -5750,8 +5890,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y59" t="str">
+        <f t="shared" si="13"/>
+        <v>"#59":{ id:'#59',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'画面帳票遷移図'},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60" s="21"/>
       <c r="B60" s="22"/>
       <c r="C60" s="14" t="s">
@@ -5761,15 +5905,15 @@
         <v>151</v>
       </c>
       <c r="F60" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G60" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J60" s="5" t="s">
@@ -5797,8 +5941,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y60" t="str">
+        <f t="shared" si="13"/>
+        <v>"#60":{ id:'#60',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'【各画面設計書】'},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A61" s="21"/>
       <c r="B61" s="19" t="s">
         <v>35</v>
@@ -5810,15 +5958,15 @@
         <v>138</v>
       </c>
       <c r="F61" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G61" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 02.外部設計\06.帳票設計</v>
       </c>
       <c r="J61" s="5" t="s">
@@ -5846,8 +5994,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y61" t="str">
+        <f t="shared" si="13"/>
+        <v>"#61":{ id:'#61',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'帳票一覧表'},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A62" s="21"/>
       <c r="B62" s="22"/>
       <c r="C62" s="14" t="s">
@@ -5857,15 +6009,15 @@
         <v>152</v>
       </c>
       <c r="F62" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G62" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J62" s="5" t="s">
@@ -5893,8 +6045,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y62" t="str">
+        <f t="shared" si="13"/>
+        <v>"#62":{ id:'#62',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'【各帳票設計書】'},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A63" s="21"/>
       <c r="B63" s="19" t="s">
         <v>38</v>
@@ -5906,15 +6062,15 @@
         <v>153</v>
       </c>
       <c r="F63" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G63" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 02.外部設計\07.移行設計</v>
       </c>
       <c r="J63" s="5" t="s">
@@ -5942,8 +6098,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y63" t="str">
+        <f t="shared" si="13"/>
+        <v>"#63":{ id:'#63',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'サーバ移行計画書'},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A64" s="21"/>
       <c r="B64" s="21"/>
       <c r="C64" s="13" t="s">
@@ -5953,15 +6113,15 @@
         <v>153</v>
       </c>
       <c r="F64" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G64" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H64" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J64" s="5" t="s">
@@ -5989,8 +6149,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y64" t="str">
+        <f t="shared" si="13"/>
+        <v>"#64":{ id:'#64',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'データ移行計画書'},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A65" s="21"/>
       <c r="B65" s="22"/>
       <c r="C65" s="13" t="s">
@@ -6000,15 +6164,15 @@
         <v>154</v>
       </c>
       <c r="F65" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G65" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H65" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J65" s="5" t="s">
@@ -6036,8 +6200,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y65" t="str">
+        <f t="shared" si="13"/>
+        <v>"#65":{ id:'#65',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'モジュール移行計画書'},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A66" s="22"/>
       <c r="B66" s="20" t="s">
         <v>37</v>
@@ -6049,15 +6217,15 @@
         <v>261</v>
       </c>
       <c r="F66" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G66" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>02.外部設計</v>
       </c>
       <c r="H66" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 02.外部設計\99.詳細見積</v>
       </c>
       <c r="J66" s="5" t="s">
@@ -6085,8 +6253,12 @@
         <f t="shared" si="12"/>
         <v>02.外部設計</v>
       </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y66" t="str">
+        <f t="shared" si="13"/>
+        <v>"#66":{ id:'#66',projectName:'販売WEB',version:'02.外部設計',statusId:'1',assignedId:'0966',subject:'詳細見積書'},</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A67" s="23" t="s">
         <v>39</v>
       </c>
@@ -6100,15 +6272,15 @@
         <v>184</v>
       </c>
       <c r="F67" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>mkdir 03.内部設計</v>
       </c>
       <c r="G67" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>03.内部設計</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 03.内部設計\01.ＤＢ設計</v>
       </c>
       <c r="J67" s="5" t="s">
@@ -6136,8 +6308,12 @@
         <f t="shared" si="12"/>
         <v>03.内部設計</v>
       </c>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y67" t="str">
+        <f t="shared" si="13"/>
+        <v>"#67":{ id:'#67',projectName:'販売WEB',version:'03.内部設計',statusId:'1',assignedId:'0966',subject:'ＤＢ物理設計書'},</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A68" s="24"/>
       <c r="B68" s="11" t="s">
         <v>42</v>
@@ -6149,15 +6325,15 @@
         <v>45</v>
       </c>
       <c r="F68" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G68" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>03.内部設計</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 03.内部設計\02.バッチ設計</v>
       </c>
       <c r="J68" s="5" t="s">
@@ -6185,8 +6361,12 @@
         <f t="shared" si="12"/>
         <v>03.内部設計</v>
       </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y68" t="str">
+        <f t="shared" si="13"/>
+        <v>"#68":{ id:'#68',projectName:'販売WEB',version:'03.内部設計',statusId:'1',assignedId:'0966',subject:'【各バッチプラグラム特記仕様書】'},</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A69" s="24"/>
       <c r="B69" s="11" t="s">
         <v>43</v>
@@ -6198,15 +6378,15 @@
         <v>45</v>
       </c>
       <c r="F69" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G69" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>03.内部設計</v>
       </c>
       <c r="H69" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 03.内部設計\03.画面設計</v>
       </c>
       <c r="J69" s="5" t="s">
@@ -6234,8 +6414,12 @@
         <f t="shared" si="12"/>
         <v>03.内部設計</v>
       </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y69" t="str">
+        <f t="shared" si="13"/>
+        <v>"#69":{ id:'#69',projectName:'販売WEB',version:'03.内部設計',statusId:'1',assignedId:'0966',subject:'【各画面プラグラム特記仕様書】'},</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A70" s="25"/>
       <c r="B70" s="11" t="s">
         <v>44</v>
@@ -6247,15 +6431,15 @@
         <v>45</v>
       </c>
       <c r="F70" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G70" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>03.内部設計</v>
       </c>
       <c r="H70" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 03.内部設計\04.帳票設計</v>
       </c>
       <c r="J70" s="5" t="s">
@@ -6283,8 +6467,12 @@
         <f t="shared" si="12"/>
         <v>03.内部設計</v>
       </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y70" t="str">
+        <f t="shared" si="13"/>
+        <v>"#70":{ id:'#70',projectName:'販売WEB',version:'03.内部設計',statusId:'1',assignedId:'0966',subject:'【各帳票プラグラム特記仕様書】'},</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A71" s="10" t="s">
         <v>46</v>
       </c>
@@ -6296,15 +6484,15 @@
         <v>160</v>
       </c>
       <c r="F71" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>mkdir 04.ＰＧ設計</v>
       </c>
       <c r="G71" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H71" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J71" s="5" t="s">
@@ -6332,8 +6520,12 @@
         <f t="shared" si="12"/>
         <v>04.ＰＧ設計</v>
       </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y71" t="str">
+        <f t="shared" si="13"/>
+        <v>"#71":{ id:'#71',projectName:'販売WEB',version:'04.ＰＧ設計',statusId:'1',assignedId:'0966',subject:'メッセージ一覧表'},</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A72" s="4"/>
       <c r="B72" s="8" t="s">
         <v>47</v>
@@ -6345,15 +6537,15 @@
         <v>185</v>
       </c>
       <c r="F72" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G72" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H72" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 04.ＰＧ設計\01.バッチＰＧ設計</v>
       </c>
       <c r="J72" s="5" t="s">
@@ -6381,8 +6573,12 @@
         <f t="shared" si="12"/>
         <v>04.ＰＧ設計</v>
       </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y72" t="str">
+        <f t="shared" si="13"/>
+        <v>"#72":{ id:'#72',projectName:'販売WEB',version:'04.ＰＧ設計',statusId:'1',assignedId:'0966',subject:'バッチ実装基盤設計書'},</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A73" s="4"/>
       <c r="B73" s="8" t="s">
         <v>48</v>
@@ -6394,15 +6590,15 @@
         <v>186</v>
       </c>
       <c r="F73" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G73" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H73" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 04.ＰＧ設計\02.画面ＰＧ設計</v>
       </c>
       <c r="J73" s="5" t="s">
@@ -6430,8 +6626,12 @@
         <f t="shared" si="12"/>
         <v>04.ＰＧ設計</v>
       </c>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y73" t="str">
+        <f t="shared" si="13"/>
+        <v>"#73":{ id:'#73',projectName:'販売WEB',version:'04.ＰＧ設計',statusId:'1',assignedId:'0966',subject:'画面実装基盤設計書'},</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A74" s="9"/>
       <c r="B74" s="8" t="s">
         <v>49</v>
@@ -6443,15 +6643,15 @@
         <v>187</v>
       </c>
       <c r="F74" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G74" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>04.ＰＧ設計</v>
       </c>
       <c r="H74" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 04.ＰＧ設計\03.帳票ＰＧ設計</v>
       </c>
       <c r="J74" s="5" t="s">
@@ -6479,8 +6679,12 @@
         <f t="shared" si="12"/>
         <v>04.ＰＧ設計</v>
       </c>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y74" t="str">
+        <f t="shared" si="13"/>
+        <v>"#74":{ id:'#74',projectName:'販売WEB',version:'04.ＰＧ設計',statusId:'1',assignedId:'0966',subject:'帳票実装基盤設計書'},</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A75" s="10" t="s">
         <v>50</v>
       </c>
@@ -6494,15 +6698,15 @@
         <v>161</v>
       </c>
       <c r="F75" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>mkdir 05.ＰＧ開発</v>
       </c>
       <c r="G75" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H75" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 05.ＰＧ開発\01.開発端末環境構築</v>
       </c>
       <c r="J75" s="5" t="s">
@@ -6530,8 +6734,12 @@
         <f t="shared" si="12"/>
         <v>05.ＰＧ開発</v>
       </c>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y75" t="str">
+        <f t="shared" si="13"/>
+        <v>"#75":{ id:'#75',projectName:'販売WEB',version:'05.ＰＧ開発',statusId:'1',assignedId:'0966',subject:'開発環境構築手順書'},</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A76" s="4"/>
       <c r="B76" s="9"/>
       <c r="C76" s="14" t="s">
@@ -6541,15 +6749,15 @@
         <v>162</v>
       </c>
       <c r="F76" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G76" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H76" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J76" s="5" t="s">
@@ -6577,8 +6785,12 @@
         <f t="shared" si="12"/>
         <v>05.ＰＧ開発</v>
       </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y76" t="str">
+        <f t="shared" si="13"/>
+        <v>"#76":{ id:'#76',projectName:'販売WEB',version:'05.ＰＧ開発',statusId:'1',assignedId:'0966',subject:'【各インストーラ】'},</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A77" s="4"/>
       <c r="B77" s="8" t="s">
         <v>52</v>
@@ -6590,15 +6802,15 @@
         <v>163</v>
       </c>
       <c r="F77" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G77" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H77" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 05.ＰＧ開発\02.製造規約</v>
       </c>
       <c r="J77" s="5" t="s">
@@ -6626,8 +6838,12 @@
         <f t="shared" si="12"/>
         <v>05.ＰＧ開発</v>
       </c>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y77" t="str">
+        <f t="shared" si="13"/>
+        <v>"#77":{ id:'#77',projectName:'販売WEB',version:'05.ＰＧ開発',statusId:'1',assignedId:'0966',subject:'製造規約書'},</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A78" s="4"/>
       <c r="B78" s="10" t="s">
         <v>109</v>
@@ -6639,15 +6855,15 @@
         <v>223</v>
       </c>
       <c r="F78" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G78" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H78" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 05.ＰＧ開発\03.開発サーバ環境構築</v>
       </c>
       <c r="J78" s="5" t="s">
@@ -6675,8 +6891,12 @@
         <f t="shared" si="12"/>
         <v>05.ＰＧ開発</v>
       </c>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y78" t="str">
+        <f t="shared" si="13"/>
+        <v>"#78":{ id:'#78',projectName:'販売WEB',version:'05.ＰＧ開発',statusId:'1',assignedId:'0966',subject:'開発サーバ環境構築手順書'},</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="14" t="s">
@@ -6686,15 +6906,15 @@
         <v>54</v>
       </c>
       <c r="F79" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G79" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H79" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J79" s="5" t="s">
@@ -6722,8 +6942,12 @@
         <f t="shared" si="12"/>
         <v>05.ＰＧ開発</v>
       </c>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y79" t="str">
+        <f t="shared" si="13"/>
+        <v>"#79":{ id:'#79',projectName:'販売WEB',version:'05.ＰＧ開発',statusId:'1',assignedId:'0966',subject:'【各DBスクリプト】'},</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A80" s="4"/>
       <c r="B80" s="9"/>
       <c r="C80" s="14" t="s">
@@ -6733,15 +6957,15 @@
         <v>165</v>
       </c>
       <c r="F80" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G80" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H80" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J80" s="5" t="s">
@@ -6769,8 +6993,12 @@
         <f t="shared" si="12"/>
         <v>05.ＰＧ開発</v>
       </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y80" t="str">
+        <f t="shared" si="13"/>
+        <v>"#80":{ id:'#80',projectName:'販売WEB',version:'05.ＰＧ開発',statusId:'1',assignedId:'0966',subject:'【各DBダンプ】'},</v>
+      </c>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A81" s="4"/>
       <c r="B81" s="8" t="s">
         <v>167</v>
@@ -6782,15 +7010,15 @@
         <v>168</v>
       </c>
       <c r="F81" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G81" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>05.ＰＧ開発</v>
       </c>
       <c r="H81" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 05.ＰＧ開発\04.技術検討</v>
       </c>
       <c r="J81" s="5" t="s">
@@ -6818,8 +7046,12 @@
         <f t="shared" si="12"/>
         <v>05.ＰＧ開発</v>
       </c>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y81" t="str">
+        <f t="shared" si="13"/>
+        <v>"#81":{ id:'#81',projectName:'販売WEB',version:'05.ＰＧ開発',statusId:'1',assignedId:'0966',subject:'【各技術検討資料】'},</v>
+      </c>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A82" s="11" t="s">
         <v>56</v>
       </c>
@@ -6831,15 +7063,15 @@
         <v>67</v>
       </c>
       <c r="F82" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>mkdir 06.単体試験</v>
       </c>
       <c r="G82" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>06.単体試験</v>
       </c>
       <c r="H82" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J82" s="5" t="s">
@@ -6867,8 +7099,12 @@
         <f t="shared" si="12"/>
         <v>06.単体試験</v>
       </c>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y82" t="str">
+        <f t="shared" si="13"/>
+        <v>"#82":{ id:'#82',projectName:'販売WEB',version:'06.単体試験',statusId:'1',assignedId:'0966',subject:'【各単体試験仕様書】'},</v>
+      </c>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A83" s="19" t="s">
         <v>57</v>
       </c>
@@ -6880,15 +7116,15 @@
         <v>224</v>
       </c>
       <c r="F83" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>mkdir 07.結合試験</v>
       </c>
       <c r="G83" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>07.結合試験</v>
       </c>
       <c r="H83" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J83" s="5" t="s">
@@ -6916,8 +7152,12 @@
         <f t="shared" si="12"/>
         <v>07.結合試験</v>
       </c>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y83" t="str">
+        <f t="shared" si="13"/>
+        <v>"#83":{ id:'#83',projectName:'販売WEB',version:'07.結合試験',statusId:'1',assignedId:'0966',subject:'結合試験計画書'},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A84" s="22"/>
       <c r="B84" s="22"/>
       <c r="C84" s="14" t="s">
@@ -6927,15 +7167,15 @@
         <v>68</v>
       </c>
       <c r="F84" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G84" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>07.結合試験</v>
       </c>
       <c r="H84" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J84" s="5" t="s">
@@ -6963,8 +7203,12 @@
         <f t="shared" si="12"/>
         <v>07.結合試験</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y84" t="str">
+        <f t="shared" si="13"/>
+        <v>"#84":{ id:'#84',projectName:'販売WEB',version:'07.結合試験',statusId:'1',assignedId:'0966',subject:'【各結合試験仕様書】'},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A85" s="15" t="s">
         <v>60</v>
       </c>
@@ -6978,15 +7222,15 @@
         <v>243</v>
       </c>
       <c r="F85" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>mkdir 08.総合試験</v>
       </c>
       <c r="G85" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08.総合試験</v>
       </c>
       <c r="H85" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 08.総合試験\00.移行リハ</v>
       </c>
       <c r="J85" s="5" t="s">
@@ -7014,8 +7258,12 @@
         <f t="shared" si="12"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y85" t="str">
+        <f t="shared" si="13"/>
+        <v>"#85":{ id:'#85',projectName:'販売WEB',version:'08.総合試験',statusId:'1',assignedId:'0966',subject:'サーバ移行リハ手順書'},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A86" s="17"/>
       <c r="B86" s="17"/>
       <c r="C86" s="13" t="s">
@@ -7025,15 +7273,15 @@
         <v>243</v>
       </c>
       <c r="F86" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G86" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08.総合試験</v>
       </c>
       <c r="H86" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J86" s="5" t="s">
@@ -7061,8 +7309,12 @@
         <f t="shared" si="12"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y86" t="str">
+        <f t="shared" si="13"/>
+        <v>"#86":{ id:'#86',projectName:'販売WEB',version:'08.総合試験',statusId:'1',assignedId:'0966',subject:'データ移行リハ手順書'},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A87" s="17"/>
       <c r="B87" s="18"/>
       <c r="C87" s="13" t="s">
@@ -7072,15 +7324,15 @@
         <v>243</v>
       </c>
       <c r="F87" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G87" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08.総合試験</v>
       </c>
       <c r="H87" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J87" s="5" t="s">
@@ -7108,8 +7360,12 @@
         <f t="shared" si="12"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y87" t="str">
+        <f t="shared" si="13"/>
+        <v>"#87":{ id:'#87',projectName:'販売WEB',version:'08.総合試験',statusId:'1',assignedId:'0966',subject:'モジュール移行リハ手順書'},</v>
+      </c>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A88" s="17"/>
       <c r="B88" s="15" t="s">
         <v>58</v>
@@ -7121,15 +7377,15 @@
         <v>188</v>
       </c>
       <c r="F88" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G88" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08.総合試験</v>
       </c>
       <c r="H88" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 08.総合試験\01.シナリオテスト</v>
       </c>
       <c r="J88" s="5" t="s">
@@ -7157,8 +7413,12 @@
         <f t="shared" si="12"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y88" t="str">
+        <f t="shared" si="13"/>
+        <v>"#88":{ id:'#88',projectName:'販売WEB',version:'08.総合試験',statusId:'1',assignedId:'0966',subject:'シナリオテスト計画書'},</v>
+      </c>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A89" s="17"/>
       <c r="B89" s="18"/>
       <c r="C89" s="14" t="s">
@@ -7168,15 +7428,15 @@
         <v>169</v>
       </c>
       <c r="F89" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G89" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08.総合試験</v>
       </c>
       <c r="H89" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J89" s="5" t="s">
@@ -7189,7 +7449,7 @@
         <v>98</v>
       </c>
       <c r="M89" s="31" t="str">
-        <f t="shared" ref="M89:M104" si="16">C89</f>
+        <f t="shared" ref="M89:M104" si="17">C89</f>
         <v>【各シナリオテスト仕様書】</v>
       </c>
       <c r="N89" s="5"/>
@@ -7201,11 +7461,15 @@
         <v>182</v>
       </c>
       <c r="R89" s="5" t="str">
-        <f t="shared" ref="R89:R104" si="17">G89</f>
+        <f t="shared" ref="R89:R104" si="18">G89</f>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y89" t="str">
+        <f t="shared" ref="Y89:Y104" si="19">"""#"&amp;ROW()&amp;""":{ id:'#"&amp;ROW()&amp;"',projectName:'"&amp;J89&amp;"',version:'"&amp;R89&amp;"',statusId:'1',assignedId:'0966',subject:'"&amp;M89&amp;"'},"</f>
+        <v>"#89":{ id:'#89',projectName:'販売WEB',version:'08.総合試験',statusId:'1',assignedId:'0966',subject:'【各シナリオテスト仕様書】'},</v>
+      </c>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A90" s="17"/>
       <c r="B90" s="15" t="s">
         <v>117</v>
@@ -7217,15 +7481,15 @@
         <v>189</v>
       </c>
       <c r="F90" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G90" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08.総合試験</v>
       </c>
       <c r="H90" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 08.総合試験\02.ストレステスト</v>
       </c>
       <c r="J90" s="5" t="s">
@@ -7238,7 +7502,7 @@
         <v>98</v>
       </c>
       <c r="M90" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ストレステスト計画書</v>
       </c>
       <c r="N90" s="5"/>
@@ -7250,11 +7514,15 @@
         <v>182</v>
       </c>
       <c r="R90" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y90" t="str">
+        <f t="shared" si="19"/>
+        <v>"#90":{ id:'#90',projectName:'販売WEB',version:'08.総合試験',statusId:'1',assignedId:'0966',subject:'ストレステスト計画書'},</v>
+      </c>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A91" s="17"/>
       <c r="B91" s="18"/>
       <c r="C91" s="14" t="s">
@@ -7264,15 +7532,15 @@
         <v>169</v>
       </c>
       <c r="F91" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G91" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08.総合試験</v>
       </c>
       <c r="H91" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J91" s="5" t="s">
@@ -7285,7 +7553,7 @@
         <v>98</v>
       </c>
       <c r="M91" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>【各ストレステスト仕様書】</v>
       </c>
       <c r="N91" s="5"/>
@@ -7297,11 +7565,15 @@
         <v>182</v>
       </c>
       <c r="R91" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y91" t="str">
+        <f t="shared" si="19"/>
+        <v>"#91":{ id:'#91',projectName:'販売WEB',version:'08.総合試験',statusId:'1',assignedId:'0966',subject:'【各ストレステスト仕様書】'},</v>
+      </c>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A92" s="17"/>
       <c r="B92" s="15" t="s">
         <v>118</v>
@@ -7313,15 +7585,15 @@
         <v>64</v>
       </c>
       <c r="F92" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G92" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08.総合試験</v>
       </c>
       <c r="H92" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 08.総合試験\03.現新比較テスト</v>
       </c>
       <c r="J92" s="5" t="s">
@@ -7334,7 +7606,7 @@
         <v>98</v>
       </c>
       <c r="M92" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>現新比較テスト計画書</v>
       </c>
       <c r="N92" s="5"/>
@@ -7346,11 +7618,15 @@
         <v>182</v>
       </c>
       <c r="R92" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y92" t="str">
+        <f t="shared" si="19"/>
+        <v>"#92":{ id:'#92',projectName:'販売WEB',version:'08.総合試験',statusId:'1',assignedId:'0966',subject:'現新比較テスト計画書'},</v>
+      </c>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A93" s="17"/>
       <c r="B93" s="18"/>
       <c r="C93" s="14" t="s">
@@ -7360,15 +7636,15 @@
         <v>169</v>
       </c>
       <c r="F93" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G93" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08.総合試験</v>
       </c>
       <c r="H93" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J93" s="5" t="s">
@@ -7381,7 +7657,7 @@
         <v>98</v>
       </c>
       <c r="M93" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>【各現新比較テスト仕様書】</v>
       </c>
       <c r="N93" s="5"/>
@@ -7393,11 +7669,15 @@
         <v>182</v>
       </c>
       <c r="R93" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y93" t="str">
+        <f t="shared" si="19"/>
+        <v>"#93":{ id:'#93',projectName:'販売WEB',version:'08.総合試験',statusId:'1',assignedId:'0966',subject:'【各現新比較テスト仕様書】'},</v>
+      </c>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A94" s="18"/>
       <c r="B94" s="16" t="s">
         <v>59</v>
@@ -7409,15 +7689,15 @@
         <v>169</v>
       </c>
       <c r="F94" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G94" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>08.総合試験</v>
       </c>
       <c r="H94" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 08.総合試験\04.回帰テスト</v>
       </c>
       <c r="J94" s="5" t="s">
@@ -7430,7 +7710,7 @@
         <v>98</v>
       </c>
       <c r="M94" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>【各回帰テスト仕様書】</v>
       </c>
       <c r="N94" s="5"/>
@@ -7442,11 +7722,15 @@
         <v>182</v>
       </c>
       <c r="R94" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>08.総合試験</v>
       </c>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y94" t="str">
+        <f t="shared" si="19"/>
+        <v>"#94":{ id:'#94',projectName:'販売WEB',version:'08.総合試験',statusId:'1',assignedId:'0966',subject:'【各回帰テスト仕様書】'},</v>
+      </c>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A95" s="8" t="s">
         <v>61</v>
       </c>
@@ -7458,15 +7742,15 @@
         <v>190</v>
       </c>
       <c r="F95" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>mkdir 09.受入検査</v>
       </c>
       <c r="G95" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>09.受入検査</v>
       </c>
       <c r="H95" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J95" s="5" t="s">
@@ -7479,7 +7763,7 @@
         <v>98</v>
       </c>
       <c r="M95" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>ユーザ指摘管理表</v>
       </c>
       <c r="N95" s="5"/>
@@ -7491,11 +7775,15 @@
         <v>182</v>
       </c>
       <c r="R95" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>09.受入検査</v>
       </c>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y95" t="str">
+        <f t="shared" si="19"/>
+        <v>"#95":{ id:'#95',projectName:'販売WEB',version:'09.受入検査',statusId:'1',assignedId:'0966',subject:'ユーザ指摘管理表'},</v>
+      </c>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A96" s="10" t="s">
         <v>69</v>
       </c>
@@ -7507,15 +7795,15 @@
         <v>254</v>
       </c>
       <c r="F96" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>mkdir 10.本番移行</v>
       </c>
       <c r="G96" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.本番移行</v>
       </c>
       <c r="H96" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J96" s="5" t="s">
@@ -7528,7 +7816,7 @@
         <v>98</v>
       </c>
       <c r="M96" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>サーバ移行手順書</v>
       </c>
       <c r="N96" s="5"/>
@@ -7540,11 +7828,15 @@
         <v>182</v>
       </c>
       <c r="R96" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.本番移行</v>
       </c>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y96" t="str">
+        <f t="shared" si="19"/>
+        <v>"#96":{ id:'#96',projectName:'販売WEB',version:'10.本番移行',statusId:'1',assignedId:'0966',subject:'サーバ移行手順書'},</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A97" s="4"/>
       <c r="B97" s="4"/>
       <c r="C97" s="13" t="s">
@@ -7554,15 +7846,15 @@
         <v>254</v>
       </c>
       <c r="F97" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G97" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.本番移行</v>
       </c>
       <c r="H97" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J97" s="5" t="s">
@@ -7575,7 +7867,7 @@
         <v>98</v>
       </c>
       <c r="M97" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>データ移行手順書</v>
       </c>
       <c r="N97" s="5"/>
@@ -7587,11 +7879,15 @@
         <v>182</v>
       </c>
       <c r="R97" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.本番移行</v>
       </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y97" t="str">
+        <f t="shared" si="19"/>
+        <v>"#97":{ id:'#97',projectName:'販売WEB',version:'10.本番移行',statusId:'1',assignedId:'0966',subject:'データ移行手順書'},</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A98" s="9"/>
       <c r="B98" s="9"/>
       <c r="C98" s="13" t="s">
@@ -7601,15 +7897,15 @@
         <v>254</v>
       </c>
       <c r="F98" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G98" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>10.本番移行</v>
       </c>
       <c r="H98" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J98" s="5" t="s">
@@ -7622,7 +7918,7 @@
         <v>98</v>
       </c>
       <c r="M98" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>モジュール移行手順書</v>
       </c>
       <c r="N98" s="5"/>
@@ -7634,11 +7930,15 @@
         <v>182</v>
       </c>
       <c r="R98" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>10.本番移行</v>
       </c>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y98" t="str">
+        <f t="shared" si="19"/>
+        <v>"#98":{ id:'#98',projectName:'販売WEB',version:'10.本番移行',statusId:'1',assignedId:'0966',subject:'モジュール移行手順書'},</v>
+      </c>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A99" s="10" t="s">
         <v>70</v>
       </c>
@@ -7652,15 +7952,15 @@
         <v>255</v>
       </c>
       <c r="F99" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>mkdir 11.運用保守</v>
       </c>
       <c r="G99" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.運用保守</v>
       </c>
       <c r="H99" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 11.運用保守\【各yyyymmdd】</v>
       </c>
       <c r="J99" s="5" t="s">
@@ -7673,7 +7973,7 @@
         <v>98</v>
       </c>
       <c r="M99" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>リリース手順書</v>
       </c>
       <c r="N99" s="5"/>
@@ -7685,11 +7985,15 @@
         <v>182</v>
       </c>
       <c r="R99" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y99" t="str">
+        <f t="shared" si="19"/>
+        <v>"#99":{ id:'#99',projectName:'販売WEB',version:'11.運用保守',statusId:'1',assignedId:'0966',subject:'リリース手順書'},</v>
+      </c>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="C100" s="13" t="s">
@@ -7699,15 +8003,15 @@
         <v>253</v>
       </c>
       <c r="F100" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G100" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.運用保守</v>
       </c>
       <c r="H100" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J100" s="5" t="s">
@@ -7720,7 +8024,7 @@
         <v>98</v>
       </c>
       <c r="M100" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>インストーラ</v>
       </c>
       <c r="N100" s="5"/>
@@ -7732,11 +8036,15 @@
         <v>182</v>
       </c>
       <c r="R100" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y100" t="str">
+        <f t="shared" si="19"/>
+        <v>"#100":{ id:'#100',projectName:'販売WEB',version:'11.運用保守',statusId:'1',assignedId:'0966',subject:'インストーラ'},</v>
+      </c>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A101" s="4"/>
       <c r="B101" s="4"/>
       <c r="C101" s="13" t="s">
@@ -7746,15 +8054,15 @@
         <v>235</v>
       </c>
       <c r="F101" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G101" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.運用保守</v>
       </c>
       <c r="H101" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J101" s="5" t="s">
@@ -7767,7 +8075,7 @@
         <v>98</v>
       </c>
       <c r="M101" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>DDL</v>
       </c>
       <c r="N101" s="5"/>
@@ -7779,11 +8087,15 @@
         <v>182</v>
       </c>
       <c r="R101" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y101" t="str">
+        <f t="shared" si="19"/>
+        <v>"#101":{ id:'#101',projectName:'販売WEB',version:'11.運用保守',statusId:'1',assignedId:'0966',subject:'DDL'},</v>
+      </c>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="13" t="s">
@@ -7793,15 +8105,15 @@
         <v>236</v>
       </c>
       <c r="F102" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G102" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.運用保守</v>
       </c>
       <c r="H102" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J102" s="5" t="s">
@@ -7814,7 +8126,7 @@
         <v>98</v>
       </c>
       <c r="M102" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>DML</v>
       </c>
       <c r="N102" s="5"/>
@@ -7826,11 +8138,15 @@
         <v>182</v>
       </c>
       <c r="R102" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y102" t="str">
+        <f t="shared" si="19"/>
+        <v>"#102":{ id:'#102',projectName:'販売WEB',version:'11.運用保守',statusId:'1',assignedId:'0966',subject:'DML'},</v>
+      </c>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="13" t="s">
@@ -7840,15 +8156,15 @@
         <v>250</v>
       </c>
       <c r="F103" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G103" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.運用保守</v>
       </c>
       <c r="H103" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J103" s="5" t="s">
@@ -7861,7 +8177,7 @@
         <v>98</v>
       </c>
       <c r="M103" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>プログラム一式</v>
       </c>
       <c r="N103" s="5"/>
@@ -7873,11 +8189,15 @@
         <v>182</v>
       </c>
       <c r="R103" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y103" t="str">
+        <f t="shared" si="19"/>
+        <v>"#103":{ id:'#103',projectName:'販売WEB',version:'11.運用保守',statusId:'1',assignedId:'0966',subject:'プログラム一式'},</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A104" s="9"/>
       <c r="B104" s="9"/>
       <c r="C104" s="13" t="s">
@@ -7887,15 +8207,15 @@
         <v>155</v>
       </c>
       <c r="F104" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G104" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>11.運用保守</v>
       </c>
       <c r="H104" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="J104" s="5" t="s">
@@ -7908,7 +8228,7 @@
         <v>98</v>
       </c>
       <c r="M104" s="31" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>リリースモジュール</v>
       </c>
       <c r="N104" s="5"/>
@@ -7920,11 +8240,15 @@
         <v>182</v>
       </c>
       <c r="R104" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>11.運用保守</v>
       </c>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="Y104" t="str">
+        <f t="shared" si="19"/>
+        <v>"#104":{ id:'#104',projectName:'販売WEB',version:'11.運用保守',statusId:'1',assignedId:'0966',subject:'リリースモジュール'},</v>
+      </c>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A105" s="29" t="s">
         <v>74</v>
       </c>
@@ -7938,20 +8262,20 @@
         <v>260</v>
       </c>
       <c r="F105" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>mkdir 99.案件管理</v>
       </c>
       <c r="G105" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99.案件管理</v>
       </c>
       <c r="H105" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 99.案件管理\01.議事管理</v>
       </c>
       <c r="M105" s="7"/>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A106" s="26"/>
       <c r="B106" s="28" t="s">
         <v>76</v>
@@ -7961,20 +8285,20 @@
       </c>
       <c r="D106" s="28"/>
       <c r="F106" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G106" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99.案件管理</v>
       </c>
       <c r="H106" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 99.案件管理\02.受領物管理</v>
       </c>
       <c r="M106" s="7"/>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A107" s="26"/>
       <c r="B107" s="28" t="s">
         <v>77</v>
@@ -7986,20 +8310,20 @@
         <v>259</v>
       </c>
       <c r="F107" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G107" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99.案件管理</v>
       </c>
       <c r="H107" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 99.案件管理\03.課題管理</v>
       </c>
       <c r="M107" s="7"/>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A108" s="26"/>
       <c r="B108" s="29" t="s">
         <v>78</v>
@@ -8011,20 +8335,20 @@
         <v>258</v>
       </c>
       <c r="F108" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G108" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99.案件管理</v>
       </c>
       <c r="H108" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 99.案件管理\04.予実管理</v>
       </c>
       <c r="M108" s="7"/>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A109" s="26"/>
       <c r="B109" s="27"/>
       <c r="C109" s="28" t="s">
@@ -8034,20 +8358,20 @@
         <v>257</v>
       </c>
       <c r="F109" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G109" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99.案件管理</v>
       </c>
       <c r="H109" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M109" s="7"/>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A110" s="26"/>
       <c r="B110" s="28" t="s">
         <v>79</v>
@@ -8057,20 +8381,20 @@
       </c>
       <c r="D110" s="28"/>
       <c r="F110" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="G110" s="6" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>99.案件管理</v>
       </c>
       <c r="H110" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>mkdir 99.案件管理\05.要員管理</v>
       </c>
       <c r="M110" s="7"/>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A111" s="27"/>
       <c r="B111" s="28" t="s">
         <v>80</v>
@@ -8080,34 +8404,34 @@
       </c>
       <c r="D111" s="28"/>
       <c r="F111" s="5" t="str">
-        <f t="shared" ref="F111:F112" si="18">IF(A111="","","mkdir "&amp;A111)</f>
+        <f t="shared" ref="F111:F112" si="20">IF(A111="","","mkdir "&amp;A111)</f>
         <v/>
       </c>
       <c r="G111" s="6" t="str">
-        <f t="shared" ref="G111:G112" si="19">IF(F111="",G110,A111)</f>
+        <f t="shared" ref="G111:G112" si="21">IF(F111="",G110,A111)</f>
         <v>99.案件管理</v>
       </c>
       <c r="H111" s="5" t="str">
-        <f t="shared" ref="H111:H112" si="20">IF(B111="","",IF(LEFT(B111,1)="（","","mkdir "&amp;G111&amp;"\"&amp;B111))</f>
+        <f t="shared" ref="H111:H112" si="22">IF(B111="","",IF(LEFT(B111,1)="（","","mkdir "&amp;G111&amp;"\"&amp;B111))</f>
         <v>mkdir 99.案件管理\06.提出物管理</v>
       </c>
       <c r="M111" s="7"/>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A112" s="12"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
       <c r="F112" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="G112" s="6" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>99.案件管理</v>
       </c>
       <c r="H112" s="5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
     </row>
